--- a/CleanedCPI.xlsx
+++ b/CleanedCPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\makuo\NISR_Datathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C1535-E2E8-4458-8339-A0EDF572F29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D01BA64-DC39-4994-A3A2-DAAFCA0478B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="Urban" sheetId="1" r:id="rId1"/>
     <sheet name="Other_Indices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -56,9 +69,6 @@
     <t>Housing, water, electricity, gas and other fuels</t>
   </si>
   <si>
-    <t xml:space="preserve">Furnishing, household equipment and routine household maintenance </t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
@@ -89,13 +99,16 @@
     <t>Furnishing, household equipment</t>
   </si>
   <si>
-    <t>Fresh Products(1) index</t>
-  </si>
-  <si>
     <t>Energy index</t>
   </si>
   <si>
-    <t>General Index excluding fresh Products and energy(2)</t>
+    <t>Fresh Products index</t>
+  </si>
+  <si>
+    <t>General Index excluding fresh Products and energy</t>
+  </si>
+  <si>
+    <t>Furnishing</t>
   </si>
 </sst>
 </file>
@@ -523,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,28 +580,28 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -11037,2521 +11050,2344 @@
     <row r="179" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>39845</v>
       </c>
+      <c r="B2">
+        <v>80.31188065652087</v>
+      </c>
       <c r="C2">
-        <v>80.31188065652087</v>
+        <v>75.394854811221279</v>
       </c>
       <c r="D2">
-        <v>75.394854811221279</v>
+        <v>89.77182635045196</v>
       </c>
       <c r="E2">
-        <v>89.77182635045196</v>
+        <v>78.719187874005883</v>
       </c>
       <c r="F2">
-        <v>78.719187874005883</v>
+        <v>85.836028013561872</v>
       </c>
       <c r="G2">
-        <v>85.836028013561872</v>
+        <v>83.262668956395771</v>
       </c>
       <c r="H2">
-        <v>83.262668956395771</v>
+        <v>100.0049298476937</v>
       </c>
       <c r="I2">
-        <v>100.0049298476937</v>
+        <v>76.805610310616458</v>
       </c>
       <c r="J2">
-        <v>76.805610310616458</v>
+        <v>68.396103078035239</v>
       </c>
       <c r="K2">
-        <v>68.396103078035239</v>
+        <v>80.810077829181097</v>
       </c>
       <c r="L2">
-        <v>80.810077829181097</v>
-      </c>
-      <c r="M2">
         <v>84.316413076501803</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>39873</v>
       </c>
+      <c r="B3">
+        <v>80.976940509347955</v>
+      </c>
       <c r="C3">
-        <v>80.976940509347955</v>
+        <v>76.986697454720058</v>
       </c>
       <c r="D3">
-        <v>76.986697454720058</v>
+        <v>90.065399145630863</v>
       </c>
       <c r="E3">
-        <v>90.065399145630863</v>
+        <v>78.242381835779852</v>
       </c>
       <c r="F3">
-        <v>78.242381835779852</v>
+        <v>86.412662143550563</v>
       </c>
       <c r="G3">
-        <v>86.412662143550563</v>
+        <v>84.456685303052708</v>
       </c>
       <c r="H3">
-        <v>84.456685303052708</v>
+        <v>100.2626929152478</v>
       </c>
       <c r="I3">
-        <v>100.2626929152478</v>
+        <v>77.766615660053503</v>
       </c>
       <c r="J3">
-        <v>77.766615660053503</v>
+        <v>70.543066093986027</v>
       </c>
       <c r="K3">
-        <v>70.543066093986027</v>
+        <v>82.124142467269479</v>
       </c>
       <c r="L3">
-        <v>82.124142467269479</v>
-      </c>
-      <c r="M3">
         <v>84.564921930430657</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>39904</v>
       </c>
+      <c r="B4">
+        <v>80.929077744451476</v>
+      </c>
       <c r="C4">
-        <v>80.929077744451476</v>
+        <v>76.974205706730856</v>
       </c>
       <c r="D4">
-        <v>76.974205706730856</v>
+        <v>90.261634127815171</v>
       </c>
       <c r="E4">
-        <v>90.261634127815171</v>
+        <v>77.49511840090284</v>
       </c>
       <c r="F4">
-        <v>77.49511840090284</v>
+        <v>86.371854974970759</v>
       </c>
       <c r="G4">
-        <v>86.371854974970759</v>
+        <v>83.48151724496978</v>
       </c>
       <c r="H4">
-        <v>83.48151724496978</v>
+        <v>100.2655769829438</v>
       </c>
       <c r="I4">
-        <v>100.2655769829438</v>
+        <v>77.801527899369589</v>
       </c>
       <c r="J4">
-        <v>77.801527899369589</v>
+        <v>70.957668738936746</v>
       </c>
       <c r="K4">
-        <v>70.957668738936746</v>
+        <v>82.493937649586428</v>
       </c>
       <c r="L4">
-        <v>82.493937649586428</v>
-      </c>
-      <c r="M4">
         <v>84.373989549764843</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>39934</v>
       </c>
+      <c r="B5">
+        <v>80.099888565470962</v>
+      </c>
       <c r="C5">
-        <v>80.099888565470962</v>
+        <v>75.105990970077201</v>
       </c>
       <c r="D5">
-        <v>75.105990970077201</v>
+        <v>90.364292625062177</v>
       </c>
       <c r="E5">
-        <v>90.364292625062177</v>
+        <v>77.346084441159164</v>
       </c>
       <c r="F5">
-        <v>77.346084441159164</v>
+        <v>85.819670904744839</v>
       </c>
       <c r="G5">
-        <v>85.819670904744839</v>
+        <v>81.761375267384238</v>
       </c>
       <c r="H5">
-        <v>81.761375267384238</v>
+        <v>100.266907544929</v>
       </c>
       <c r="I5">
-        <v>100.266907544929</v>
+        <v>77.167709200305481</v>
       </c>
       <c r="J5">
-        <v>77.167709200305481</v>
+        <v>68.685168963198322</v>
       </c>
       <c r="K5">
-        <v>68.685168963198322</v>
+        <v>82.586488834034071</v>
       </c>
       <c r="L5">
-        <v>82.586488834034071</v>
-      </c>
-      <c r="M5">
         <v>83.83774112602697</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>39965</v>
       </c>
+      <c r="B6">
+        <v>79.791179124983572</v>
+      </c>
       <c r="C6">
-        <v>79.791179124983572</v>
+        <v>74.083669329008117</v>
       </c>
       <c r="D6">
-        <v>74.083669329008117</v>
+        <v>90.336133414912865</v>
       </c>
       <c r="E6">
-        <v>90.336133414912865</v>
+        <v>77.683501421679765</v>
       </c>
       <c r="F6">
-        <v>77.683501421679765</v>
+        <v>85.51021759728205</v>
       </c>
       <c r="G6">
-        <v>85.51021759728205</v>
+        <v>83.051718105215613</v>
       </c>
       <c r="H6">
-        <v>83.051718105215613</v>
+        <v>99.602485139707113</v>
       </c>
       <c r="I6">
-        <v>99.602485139707113</v>
+        <v>77.356491257794758</v>
       </c>
       <c r="J6">
-        <v>77.356491257794758</v>
+        <v>67.508016686889633</v>
       </c>
       <c r="K6">
-        <v>67.508016686889633</v>
+        <v>82.59499018576598</v>
       </c>
       <c r="L6">
-        <v>82.59499018576598</v>
-      </c>
-      <c r="M6">
         <v>83.691291088337366</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>39995</v>
       </c>
+      <c r="B7">
+        <v>80.719080717129472</v>
+      </c>
       <c r="C7">
-        <v>80.719080717129472</v>
+        <v>74.696549639702269</v>
       </c>
       <c r="D7">
-        <v>74.696549639702269</v>
+        <v>89.930707568402013</v>
       </c>
       <c r="E7">
-        <v>89.930707568402013</v>
+        <v>85.573912013527064</v>
       </c>
       <c r="F7">
-        <v>85.573912013527064</v>
+        <v>85.938516002519862</v>
       </c>
       <c r="G7">
-        <v>85.938516002519862</v>
+        <v>81.347241220773697</v>
       </c>
       <c r="H7">
-        <v>81.347241220773697</v>
+        <v>99.242126949797111</v>
       </c>
       <c r="I7">
-        <v>99.242126949797111</v>
+        <v>79.924587114012738</v>
       </c>
       <c r="J7">
-        <v>79.924587114012738</v>
+        <v>68.125414873350095</v>
       </c>
       <c r="K7">
-        <v>68.125414873350095</v>
+        <v>82.465016199952572</v>
       </c>
       <c r="L7">
-        <v>82.465016199952572</v>
-      </c>
-      <c r="M7">
         <v>84.667294096235509</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>40026</v>
       </c>
+      <c r="B8">
+        <v>81.855360987605621</v>
+      </c>
       <c r="C8">
-        <v>81.855360987605621</v>
+        <v>76.980180061890181</v>
       </c>
       <c r="D8">
-        <v>76.980180061890181</v>
+        <v>90.176519252192378</v>
       </c>
       <c r="E8">
-        <v>90.176519252192378</v>
+        <v>87.23114611446691</v>
       </c>
       <c r="F8">
-        <v>87.23114611446691</v>
+        <v>85.88678635889039</v>
       </c>
       <c r="G8">
-        <v>85.88678635889039</v>
+        <v>80.085802286204697</v>
       </c>
       <c r="H8">
-        <v>80.085802286204697</v>
+        <v>99.369804688978704</v>
       </c>
       <c r="I8">
-        <v>99.369804688978704</v>
+        <v>80.439911021815973</v>
       </c>
       <c r="J8">
-        <v>80.439911021815973</v>
+        <v>73.748025061353545</v>
       </c>
       <c r="K8">
-        <v>73.748025061353545</v>
+        <v>82.562408696654089</v>
       </c>
       <c r="L8">
-        <v>82.562408696654089</v>
-      </c>
-      <c r="M8">
         <v>84.612633004805744</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>40057</v>
       </c>
+      <c r="B9">
+        <v>83.644801963628311</v>
+      </c>
       <c r="C9">
-        <v>83.644801963628311</v>
+        <v>81.101157865087444</v>
       </c>
       <c r="D9">
-        <v>81.101157865087444</v>
+        <v>90.346478493969826</v>
       </c>
       <c r="E9">
-        <v>90.346478493969826</v>
+        <v>87.486386121355963</v>
       </c>
       <c r="F9">
-        <v>87.486386121355963</v>
+        <v>85.777134766362664</v>
       </c>
       <c r="G9">
-        <v>85.777134766362664</v>
+        <v>78.267548867184701</v>
       </c>
       <c r="H9">
-        <v>78.267548867184701</v>
+        <v>98.583021468860025</v>
       </c>
       <c r="I9">
-        <v>98.583021468860025</v>
+        <v>82.379913011649037</v>
       </c>
       <c r="J9">
-        <v>82.379913011649037</v>
+        <v>82.017500646219062</v>
       </c>
       <c r="K9">
-        <v>82.017500646219062</v>
+        <v>84.288206635276836</v>
       </c>
       <c r="L9">
-        <v>84.288206635276836</v>
-      </c>
-      <c r="M9">
         <v>84.48776339949957</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>40087</v>
       </c>
+      <c r="B10">
+        <v>84.683654752874531</v>
+      </c>
       <c r="C10">
-        <v>84.683654752874531</v>
+        <v>82.846030118566745</v>
       </c>
       <c r="D10">
-        <v>82.846030118566745</v>
+        <v>91.056932211638852</v>
       </c>
       <c r="E10">
-        <v>91.056932211638852</v>
+        <v>88.635605614456694</v>
       </c>
       <c r="F10">
-        <v>88.635605614456694</v>
+        <v>85.043630705449402</v>
       </c>
       <c r="G10">
-        <v>85.043630705449402</v>
+        <v>78.240200482242074</v>
       </c>
       <c r="H10">
-        <v>78.240200482242074</v>
+        <v>96.866438113827797</v>
       </c>
       <c r="I10">
-        <v>96.866438113827797</v>
+        <v>81.624222638697248</v>
       </c>
       <c r="J10">
-        <v>81.624222638697248</v>
+        <v>84.217481345571699</v>
       </c>
       <c r="K10">
-        <v>84.217481345571699</v>
+        <v>85.31000526504576</v>
       </c>
       <c r="L10">
-        <v>85.31000526504576</v>
-      </c>
-      <c r="M10">
         <v>84.815314184898327</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>40118</v>
       </c>
+      <c r="B11">
+        <v>85.381951111763883</v>
+      </c>
       <c r="C11">
-        <v>85.381951111763883</v>
+        <v>84.529952041904437</v>
       </c>
       <c r="D11">
-        <v>84.529952041904437</v>
+        <v>91.161154581011971</v>
       </c>
       <c r="E11">
-        <v>91.161154581011971</v>
+        <v>88.824395049035289</v>
       </c>
       <c r="F11">
-        <v>88.824395049035289</v>
+        <v>85.110006055113175</v>
       </c>
       <c r="G11">
-        <v>85.110006055113175</v>
+        <v>77.448254383263304</v>
       </c>
       <c r="H11">
-        <v>77.448254383263304</v>
+        <v>97.294275063714636</v>
       </c>
       <c r="I11">
-        <v>97.294275063714636</v>
+        <v>82.691028713189866</v>
       </c>
       <c r="J11">
-        <v>82.691028713189866</v>
+        <v>84.920725212756025</v>
       </c>
       <c r="K11">
-        <v>84.920725212756025</v>
+        <v>85.479461132403856</v>
       </c>
       <c r="L11">
-        <v>85.479461132403856</v>
-      </c>
-      <c r="M11">
         <v>85.403833769050422</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>40148</v>
       </c>
+      <c r="B12">
+        <v>84.00379424132305</v>
+      </c>
       <c r="C12">
-        <v>84.00379424132305</v>
+        <v>81.607667612112337</v>
       </c>
       <c r="D12">
-        <v>81.607667612112337</v>
+        <v>90.041135095683259</v>
       </c>
       <c r="E12">
-        <v>90.041135095683259</v>
+        <v>88.718352780011699</v>
       </c>
       <c r="F12">
-        <v>88.718352780011699</v>
+        <v>85.885919265527747</v>
       </c>
       <c r="G12">
-        <v>85.885919265527747</v>
+        <v>79.202076184456175</v>
       </c>
       <c r="H12">
-        <v>79.202076184456175</v>
+        <v>96.453756762616081</v>
       </c>
       <c r="I12">
-        <v>96.453756762616081</v>
+        <v>83.933573549209925</v>
       </c>
       <c r="J12">
-        <v>83.933573549209925</v>
+        <v>78.686972782029258</v>
       </c>
       <c r="K12">
-        <v>78.686972782029258</v>
+        <v>83.077932754999438</v>
       </c>
       <c r="L12">
-        <v>83.077932754999438</v>
-      </c>
-      <c r="M12">
         <v>85.757933930052388</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>40179</v>
       </c>
+      <c r="B13">
+        <v>83.218787314008722</v>
+      </c>
       <c r="C13">
-        <v>83.218787314008722</v>
+        <v>79.485353294598198</v>
       </c>
       <c r="D13">
-        <v>79.485353294598198</v>
+        <v>90.135629668557826</v>
       </c>
       <c r="E13">
-        <v>90.135629668557826</v>
+        <v>88.735458636344475</v>
       </c>
       <c r="F13">
-        <v>88.735458636344475</v>
+        <v>86.052724192057497</v>
       </c>
       <c r="G13">
-        <v>86.052724192057497</v>
+        <v>79.139036301332965</v>
       </c>
       <c r="H13">
-        <v>79.139036301332965</v>
+        <v>96.090327140774562</v>
       </c>
       <c r="I13">
-        <v>96.090327140774562</v>
+        <v>83.842011094010047</v>
       </c>
       <c r="J13">
-        <v>83.842011094010047</v>
+        <v>73.878007634956631</v>
       </c>
       <c r="K13">
-        <v>73.878007634956631</v>
+        <v>83.585604603147871</v>
       </c>
       <c r="L13">
-        <v>83.585604603147871</v>
-      </c>
-      <c r="M13">
         <v>85.974921752503136</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>40210</v>
       </c>
+      <c r="B14">
+        <v>82.775499942296662</v>
+      </c>
       <c r="C14">
-        <v>82.775499942296662</v>
+        <v>78.00399632430701</v>
       </c>
       <c r="D14">
-        <v>78.00399632430701</v>
+        <v>89.242406682074375</v>
       </c>
       <c r="E14">
-        <v>89.242406682074375</v>
+        <v>89.121137698988761</v>
       </c>
       <c r="F14">
-        <v>89.121137698988761</v>
+        <v>85.947968547006127</v>
       </c>
       <c r="G14">
-        <v>85.947968547006127</v>
+        <v>78.817325146452774</v>
       </c>
       <c r="H14">
-        <v>78.817325146452774</v>
+        <v>95.715284115020566</v>
       </c>
       <c r="I14">
-        <v>95.715284115020566</v>
+        <v>84.398959018842177</v>
       </c>
       <c r="J14">
-        <v>84.398959018842177</v>
+        <v>71.6578908367851</v>
       </c>
       <c r="K14">
-        <v>71.6578908367851</v>
+        <v>82.70547894422441</v>
       </c>
       <c r="L14">
-        <v>82.70547894422441</v>
-      </c>
-      <c r="M14">
         <v>86.056067980774728</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>40238</v>
       </c>
+      <c r="B15">
+        <v>83.148784070805846</v>
+      </c>
       <c r="C15">
-        <v>83.148784070805846</v>
+        <v>78.93371031061271</v>
       </c>
       <c r="D15">
-        <v>78.93371031061271</v>
+        <v>89.051615563257627</v>
       </c>
       <c r="E15">
-        <v>89.051615563257627</v>
+        <v>88.751296818866777</v>
       </c>
       <c r="F15">
-        <v>88.751296818866777</v>
+        <v>86.083116603481287</v>
       </c>
       <c r="G15">
-        <v>86.083116603481287</v>
+        <v>78.840628546928073</v>
       </c>
       <c r="H15">
-        <v>78.840628546928073</v>
+        <v>94.727602260838054</v>
       </c>
       <c r="I15">
-        <v>94.727602260838054</v>
+        <v>85.390086934678592</v>
       </c>
       <c r="J15">
-        <v>85.390086934678592</v>
+        <v>73.814774669696519</v>
       </c>
       <c r="K15">
-        <v>73.814774669696519</v>
+        <v>83.459723174078036</v>
       </c>
       <c r="L15">
-        <v>83.459723174078036</v>
-      </c>
-      <c r="M15">
         <v>85.934996503272046</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>40269</v>
       </c>
+      <c r="B16">
+        <v>83.608249382446417</v>
+      </c>
       <c r="C16">
-        <v>83.608249382446417</v>
+        <v>79.659808442275249</v>
       </c>
       <c r="D16">
-        <v>79.659808442275249</v>
+        <v>90.008267437513709</v>
       </c>
       <c r="E16">
-        <v>90.008267437513709</v>
+        <v>88.682943648125459</v>
       </c>
       <c r="F16">
-        <v>88.682943648125459</v>
+        <v>86.564382788260943</v>
       </c>
       <c r="G16">
-        <v>86.564382788260943</v>
+        <v>79.007531046584987</v>
       </c>
       <c r="H16">
-        <v>79.007531046584987</v>
+        <v>95.080062739604188</v>
       </c>
       <c r="I16">
-        <v>95.080062739604188</v>
+        <v>85.919429534898299</v>
       </c>
       <c r="J16">
-        <v>85.919429534898299</v>
+        <v>75.750475434756325</v>
       </c>
       <c r="K16">
-        <v>75.750475434756325</v>
+        <v>85.877446987917679</v>
       </c>
       <c r="L16">
-        <v>85.877446987917679</v>
-      </c>
-      <c r="M16">
         <v>85.873661594994104</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>40299</v>
       </c>
+      <c r="B17">
+        <v>84.140279730006981</v>
+      </c>
       <c r="C17">
-        <v>84.140279730006981</v>
+        <v>80.129560306924404</v>
       </c>
       <c r="D17">
-        <v>80.129560306924404</v>
+        <v>90.964661559127194</v>
       </c>
       <c r="E17">
-        <v>90.964661559127194</v>
+        <v>88.771320916183001</v>
       </c>
       <c r="F17">
-        <v>88.771320916183001</v>
+        <v>86.687644026394793</v>
       </c>
       <c r="G17">
-        <v>86.687644026394793</v>
+        <v>79.27789734511471</v>
       </c>
       <c r="H17">
-        <v>79.27789734511471</v>
+        <v>94.859414366005765</v>
       </c>
       <c r="I17">
-        <v>94.859414366005765</v>
+        <v>86.664042170202947</v>
       </c>
       <c r="J17">
-        <v>86.664042170202947</v>
+        <v>77.392373131687094</v>
       </c>
       <c r="K17">
-        <v>77.392373131687094</v>
+        <v>87.521221670085396</v>
       </c>
       <c r="L17">
-        <v>87.521221670085396</v>
-      </c>
-      <c r="M17">
         <v>85.941501516216903</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>40330</v>
       </c>
+      <c r="B18">
+        <v>84.504781000000094</v>
+      </c>
       <c r="C18">
-        <v>84.504781000000094</v>
+        <v>80.307691570127076</v>
       </c>
       <c r="D18">
-        <v>80.307691570127076</v>
+        <v>92.399306626761998</v>
       </c>
       <c r="E18">
-        <v>92.399306626761998</v>
+        <v>88.528967094992964</v>
       </c>
       <c r="F18">
-        <v>88.528967094992964</v>
+        <v>86.562312577659824</v>
       </c>
       <c r="G18">
-        <v>86.562312577659824</v>
+        <v>78.506539804152666</v>
       </c>
       <c r="H18">
-        <v>78.506539804152666</v>
+        <v>94.808173095677816</v>
       </c>
       <c r="I18">
-        <v>94.808173095677816</v>
+        <v>86.942948089359604</v>
       </c>
       <c r="J18">
-        <v>86.942948089359604</v>
+        <v>77.375315590327205</v>
       </c>
       <c r="K18">
-        <v>77.375315590327205</v>
+        <v>88.221755102466673</v>
       </c>
       <c r="L18">
-        <v>88.221755102466673</v>
-      </c>
-      <c r="M18">
         <v>86.229769205429449</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>40360</v>
       </c>
+      <c r="B19">
+        <v>83.707722753852963</v>
+      </c>
       <c r="C19">
-        <v>83.707722753852963</v>
+        <v>78.657685224138234</v>
       </c>
       <c r="D19">
-        <v>78.657685224138234</v>
+        <v>91.807983923698643</v>
       </c>
       <c r="E19">
-        <v>91.807983923698643</v>
+        <v>88.646078569055874</v>
       </c>
       <c r="F19">
-        <v>88.646078569055874</v>
+        <v>86.223842724548618</v>
       </c>
       <c r="G19">
-        <v>86.223842724548618</v>
+        <v>77.363053090703218</v>
       </c>
       <c r="H19">
-        <v>77.363053090703218</v>
+        <v>94.39663700454247</v>
       </c>
       <c r="I19">
-        <v>94.39663700454247</v>
+        <v>86.913508402723608</v>
       </c>
       <c r="J19">
-        <v>86.913508402723608</v>
+        <v>76.939072747873155</v>
       </c>
       <c r="K19">
-        <v>76.939072747873155</v>
+        <v>86.173290675978976</v>
       </c>
       <c r="L19">
-        <v>86.173290675978976</v>
-      </c>
-      <c r="M19">
         <v>85.599091927975564</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>40391</v>
       </c>
+      <c r="B20">
+        <v>83.846097099275596</v>
+      </c>
       <c r="C20">
-        <v>83.846097099275596</v>
+        <v>78.911880376634187</v>
       </c>
       <c r="D20">
-        <v>78.911880376634187</v>
+        <v>91.94355809287201</v>
       </c>
       <c r="E20">
-        <v>91.94355809287201</v>
+        <v>88.545407079596615</v>
       </c>
       <c r="F20">
-        <v>88.545407079596615</v>
+        <v>85.96849593761263</v>
       </c>
       <c r="G20">
-        <v>85.96849593761263</v>
+        <v>76.829520844704561</v>
       </c>
       <c r="H20">
-        <v>76.829520844704561</v>
+        <v>94.170313642393467</v>
       </c>
       <c r="I20">
-        <v>94.170313642393467</v>
+        <v>86.735269631543659</v>
       </c>
       <c r="J20">
-        <v>86.735269631543659</v>
+        <v>78.512376632414998</v>
       </c>
       <c r="K20">
-        <v>78.512376632414998</v>
+        <v>86.179186530115729</v>
       </c>
       <c r="L20">
-        <v>86.179186530115729</v>
-      </c>
-      <c r="M20">
         <v>85.332576837475258</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>40422</v>
       </c>
+      <c r="B21">
+        <v>85.105977601626506</v>
+      </c>
       <c r="C21">
-        <v>85.105977601626506</v>
+        <v>81.891219717855734</v>
       </c>
       <c r="D21">
-        <v>81.891219717855734</v>
+        <v>92.587763536845642</v>
       </c>
       <c r="E21">
-        <v>92.587763536845642</v>
+        <v>88.559988580392442</v>
       </c>
       <c r="F21">
-        <v>88.559988580392442</v>
+        <v>86.069764713060039</v>
       </c>
       <c r="G21">
-        <v>86.069764713060039</v>
+        <v>76.980931642908686</v>
       </c>
       <c r="H21">
-        <v>76.980931642908686</v>
+        <v>93.364044269988611</v>
       </c>
       <c r="I21">
-        <v>93.364044269988611</v>
+        <v>87.420612613449052</v>
       </c>
       <c r="J21">
-        <v>87.420612613449052</v>
+        <v>84.297621914448442</v>
       </c>
       <c r="K21">
-        <v>84.297621914448442</v>
+        <v>88.062815001002335</v>
       </c>
       <c r="L21">
-        <v>88.062815001002335</v>
-      </c>
-      <c r="M21">
         <v>85.23043195141328</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>40452</v>
       </c>
+      <c r="B22">
+        <v>84.586805624011774</v>
+      </c>
       <c r="C22">
-        <v>84.586805624011774</v>
+        <v>80.40081329355607</v>
       </c>
       <c r="D22">
-        <v>80.40081329355607</v>
+        <v>92.951771162517119</v>
       </c>
       <c r="E22">
-        <v>92.951771162517119</v>
+        <v>88.572650897302822</v>
       </c>
       <c r="F22">
-        <v>88.572650897302822</v>
+        <v>86.171440311068366</v>
       </c>
       <c r="G22">
-        <v>86.171440311068366</v>
+        <v>76.749379229688117</v>
       </c>
       <c r="H22">
-        <v>76.749379229688117</v>
+        <v>92.156791749788084</v>
       </c>
       <c r="I22">
-        <v>92.156791749788084</v>
+        <v>88.153160570186415</v>
       </c>
       <c r="J22">
-        <v>88.153160570186415</v>
+        <v>81.64384872604937</v>
       </c>
       <c r="K22">
-        <v>81.64384872604937</v>
+        <v>88.585646965110186</v>
       </c>
       <c r="L22">
-        <v>88.585646965110186</v>
-      </c>
-      <c r="M22">
         <v>85.236218716697252</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>40483</v>
       </c>
+      <c r="B23">
+        <v>85.17785667028717</v>
+      </c>
       <c r="C23">
-        <v>85.17785667028717</v>
+        <v>81.70723269876467</v>
       </c>
       <c r="D23">
-        <v>81.70723269876467</v>
+        <v>92.550853032840649</v>
       </c>
       <c r="E23">
-        <v>92.550853032840649</v>
+        <v>90.162642801671737</v>
       </c>
       <c r="F23">
-        <v>90.162642801671737</v>
+        <v>86.761284160464058</v>
       </c>
       <c r="G23">
-        <v>86.761284160464058</v>
+        <v>76.828884252225535</v>
       </c>
       <c r="H23">
-        <v>76.828884252225535</v>
+        <v>93.993706027660934</v>
       </c>
       <c r="I23">
-        <v>93.993706027660934</v>
+        <v>89.467593779813768</v>
       </c>
       <c r="J23">
-        <v>89.467593779813768</v>
+        <v>82.614408807235066</v>
       </c>
       <c r="K23">
-        <v>82.614408807235066</v>
+        <v>88.428345201842234</v>
       </c>
       <c r="L23">
-        <v>88.428345201842234</v>
-      </c>
-      <c r="M23">
         <v>85.819643727474755</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>40513</v>
       </c>
+      <c r="B24">
+        <v>83.940802030849994</v>
+      </c>
       <c r="C24">
-        <v>83.940802030849994</v>
+        <v>79.271541411467496</v>
       </c>
       <c r="D24">
-        <v>79.271541411467496</v>
+        <v>91.610166846060721</v>
       </c>
       <c r="E24">
-        <v>91.610166846060721</v>
+        <v>90.463171871847351</v>
       </c>
       <c r="F24">
-        <v>90.463171871847351</v>
+        <v>87.129320049405806</v>
       </c>
       <c r="G24">
-        <v>87.129320049405806</v>
+        <v>77.931545815945157</v>
       </c>
       <c r="H24">
-        <v>77.931545815945157</v>
+        <v>92.789536665902986</v>
       </c>
       <c r="I24">
-        <v>92.789536665902986</v>
+        <v>90.558327568632379</v>
       </c>
       <c r="J24">
-        <v>90.558327568632379</v>
+        <v>77.85092291925605</v>
       </c>
       <c r="K24">
-        <v>77.85092291925605</v>
+        <v>86.078819304824322</v>
       </c>
       <c r="L24">
-        <v>86.078819304824322</v>
-      </c>
-      <c r="M24">
         <v>85.888897129507455</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>40544</v>
       </c>
+      <c r="B25">
+        <v>84.004126202532419</v>
+      </c>
       <c r="C25">
-        <v>84.004126202532419</v>
+        <v>77.800554233314855</v>
       </c>
       <c r="D25">
-        <v>77.800554233314855</v>
+        <v>91.665403578608945</v>
       </c>
       <c r="E25">
-        <v>91.665403578608945</v>
+        <v>90.342185293013245</v>
       </c>
       <c r="F25">
-        <v>90.342185293013245</v>
+        <v>87.483796209935406</v>
       </c>
       <c r="G25">
-        <v>87.483796209935406</v>
+        <v>78.695368981730695</v>
       </c>
       <c r="H25">
-        <v>78.695368981730695</v>
+        <v>92.714305171866243</v>
       </c>
       <c r="I25">
-        <v>92.714305171866243</v>
+        <v>90.451538690474763</v>
       </c>
       <c r="J25">
-        <v>90.451538690474763</v>
+        <v>75.472057929296923</v>
       </c>
       <c r="K25">
-        <v>75.472057929296923</v>
+        <v>85.627956905667389</v>
       </c>
       <c r="L25">
-        <v>85.627956905667389</v>
-      </c>
-      <c r="M25">
         <v>86.619362084689953</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>40575</v>
       </c>
+      <c r="B26">
+        <v>84.817048762689524</v>
+      </c>
       <c r="C26">
-        <v>84.817048762689524</v>
+        <v>78.56833912743862</v>
       </c>
       <c r="D26">
-        <v>78.56833912743862</v>
+        <v>92.056431299590585</v>
       </c>
       <c r="E26">
-        <v>92.056431299590585</v>
+        <v>91.022057245455485</v>
       </c>
       <c r="F26">
-        <v>91.022057245455485</v>
+        <v>88.476695962022475</v>
       </c>
       <c r="G26">
-        <v>88.476695962022475</v>
+        <v>80.265390641885915</v>
       </c>
       <c r="H26">
-        <v>80.265390641885915</v>
+        <v>92.900342702592781</v>
       </c>
       <c r="I26">
-        <v>92.900342702592781</v>
+        <v>90.618561151367217</v>
       </c>
       <c r="J26">
-        <v>90.618561151367217</v>
+        <v>76.955169773169388</v>
       </c>
       <c r="K26">
-        <v>76.955169773169388</v>
+        <v>85.72839681174888</v>
       </c>
       <c r="L26">
-        <v>85.72839681174888</v>
-      </c>
-      <c r="M26">
         <v>87.403437422375688</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>40603</v>
       </c>
+      <c r="B27">
+        <v>86.357593161835297</v>
+      </c>
       <c r="C27">
-        <v>86.357593161835297</v>
+        <v>82.036258958595553</v>
       </c>
       <c r="D27">
-        <v>82.036258958595553</v>
+        <v>92.350628407890326</v>
       </c>
       <c r="E27">
-        <v>92.350628407890326</v>
+        <v>91.236356672497095</v>
       </c>
       <c r="F27">
-        <v>91.236356672497095</v>
+        <v>90.474413763606464</v>
       </c>
       <c r="G27">
-        <v>90.474413763606464</v>
+        <v>83.519352061911732</v>
       </c>
       <c r="H27">
-        <v>83.519352061911732</v>
+        <v>94.528224681327686</v>
       </c>
       <c r="I27">
-        <v>94.528224681327686</v>
+        <v>93.179898752355456</v>
       </c>
       <c r="J27">
-        <v>93.179898752355456</v>
+        <v>81.705388609641304</v>
       </c>
       <c r="K27">
-        <v>81.705388609641304</v>
+        <v>87.590000929491822</v>
       </c>
       <c r="L27">
-        <v>87.590000929491822</v>
-      </c>
-      <c r="M27">
         <v>88.319776752793402</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>40634</v>
       </c>
+      <c r="B28">
+        <v>87.612281607219259</v>
+      </c>
       <c r="C28">
-        <v>87.612281607219259</v>
+        <v>84.494699732442797</v>
       </c>
       <c r="D28">
-        <v>84.494699732442797</v>
+        <v>92.890651571527485</v>
       </c>
       <c r="E28">
-        <v>92.890651571527485</v>
+        <v>93.197674660476707</v>
       </c>
       <c r="F28">
-        <v>93.197674660476707</v>
+        <v>91.539656507765343</v>
       </c>
       <c r="G28">
-        <v>91.539656507765343</v>
+        <v>84.796732552264757</v>
       </c>
       <c r="H28">
-        <v>84.796732552264757</v>
+        <v>96.019037792632659</v>
       </c>
       <c r="I28">
-        <v>96.019037792632659</v>
+        <v>95.898923370479849</v>
       </c>
       <c r="J28">
-        <v>95.898923370479849</v>
+        <v>84.895025820422916</v>
       </c>
       <c r="K28">
-        <v>84.895025820422916</v>
+        <v>89.736239931286178</v>
       </c>
       <c r="L28">
-        <v>89.736239931286178</v>
-      </c>
-      <c r="M28">
         <v>89.006996411327066</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>40664</v>
       </c>
+      <c r="B29">
+        <v>87.464154445642279</v>
+      </c>
       <c r="C29">
-        <v>87.464154445642279</v>
+        <v>83.384388944953344</v>
       </c>
       <c r="D29">
-        <v>83.384388944953344</v>
+        <v>93.520844062389244</v>
       </c>
       <c r="E29">
-        <v>93.520844062389244</v>
+        <v>93.445717352638596</v>
       </c>
       <c r="F29">
-        <v>93.445717352638596</v>
+        <v>92.689945409392209</v>
       </c>
       <c r="G29">
-        <v>92.689945409392209</v>
+        <v>85.998025940496518</v>
       </c>
       <c r="H29">
-        <v>85.998025940496518</v>
+        <v>95.548966754869113</v>
       </c>
       <c r="I29">
-        <v>95.548966754869113</v>
+        <v>97.693175301209749</v>
       </c>
       <c r="J29">
-        <v>97.693175301209749</v>
+        <v>81.652861426342852</v>
       </c>
       <c r="K29">
-        <v>81.652861426342852</v>
+        <v>91.762818980111888</v>
       </c>
       <c r="L29">
-        <v>91.762818980111888</v>
-      </c>
-      <c r="M29">
         <v>89.654486791231278</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>40695</v>
       </c>
+      <c r="B30">
+        <v>88.83128003942187</v>
+      </c>
       <c r="C30">
-        <v>88.83128003942187</v>
+        <v>85.246418912551647</v>
       </c>
       <c r="D30">
-        <v>85.246418912551647</v>
+        <v>94.238827371803552</v>
       </c>
       <c r="E30">
-        <v>94.238827371803552</v>
+        <v>97.837055186254929</v>
       </c>
       <c r="F30">
-        <v>97.837055186254929</v>
+        <v>94.04751804839357</v>
       </c>
       <c r="G30">
-        <v>94.04751804839357</v>
+        <v>88.927983130612162</v>
       </c>
       <c r="H30">
-        <v>88.927983130612162</v>
+        <v>94.593291938565244</v>
       </c>
       <c r="I30">
-        <v>94.593291938565244</v>
+        <v>98.090530361237711</v>
       </c>
       <c r="J30">
-        <v>98.090530361237711</v>
+        <v>82.409726587959668</v>
       </c>
       <c r="K30">
-        <v>82.409726587959668</v>
+        <v>92.623930880111587</v>
       </c>
       <c r="L30">
-        <v>92.623930880111587</v>
-      </c>
-      <c r="M30">
         <v>91.205727585789674</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>40725</v>
       </c>
+      <c r="B31">
+        <v>89.252938271051477</v>
+      </c>
       <c r="C31">
-        <v>89.252938271051477</v>
+        <v>86.214435070390863</v>
       </c>
       <c r="D31">
-        <v>86.214435070390863</v>
+        <v>93.792514601628056</v>
       </c>
       <c r="E31">
-        <v>93.792514601628056</v>
+        <v>99.123941743264396</v>
       </c>
       <c r="F31">
-        <v>99.123941743264396</v>
+        <v>94.159339587944302</v>
       </c>
       <c r="G31">
-        <v>94.159339587944302</v>
+        <v>89.93465921316843</v>
       </c>
       <c r="H31">
-        <v>89.93465921316843</v>
+        <v>95.421119653710846</v>
       </c>
       <c r="I31">
-        <v>95.421119653710846</v>
+        <v>97.248185392826286</v>
       </c>
       <c r="J31">
-        <v>97.248185392826286</v>
+        <v>83.285940781534066</v>
       </c>
       <c r="K31">
-        <v>83.285940781534066</v>
+        <v>91.309928209377318</v>
       </c>
       <c r="L31">
-        <v>91.309928209377318</v>
-      </c>
-      <c r="M31">
         <v>91.624653041696064</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>40756</v>
       </c>
+      <c r="B32">
+        <v>89.563443927979463</v>
+      </c>
       <c r="C32">
-        <v>89.563443927979463</v>
+        <v>86.018198071352259</v>
       </c>
       <c r="D32">
-        <v>86.018198071352259</v>
+        <v>94.412343104988054</v>
       </c>
       <c r="E32">
-        <v>94.412343104988054</v>
+        <v>100.4189028037413</v>
       </c>
       <c r="F32">
-        <v>100.4189028037413</v>
+        <v>94.874626245386025</v>
       </c>
       <c r="G32">
-        <v>94.874626245386025</v>
+        <v>90.553881826015598</v>
       </c>
       <c r="H32">
-        <v>90.553881826015598</v>
+        <v>96.955104616302407</v>
       </c>
       <c r="I32">
-        <v>96.955104616302407</v>
+        <v>97.225733447997214</v>
       </c>
       <c r="J32">
-        <v>97.225733447997214</v>
+        <v>82.094120033074802</v>
       </c>
       <c r="K32">
-        <v>82.094120033074802</v>
+        <v>92.430888958132073</v>
       </c>
       <c r="L32">
-        <v>92.430888958132073</v>
-      </c>
-      <c r="M32">
         <v>92.288452795294162</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>40787</v>
       </c>
+      <c r="B33">
+        <v>89.91740140121361</v>
+      </c>
       <c r="C33">
-        <v>89.91740140121361</v>
+        <v>85.592948294144989</v>
       </c>
       <c r="D33">
-        <v>85.592948294144989</v>
+        <v>96.95070339308252</v>
       </c>
       <c r="E33">
-        <v>96.95070339308252</v>
+        <v>100.25208118952661</v>
       </c>
       <c r="F33">
-        <v>100.25208118952661</v>
+        <v>95.247613573342491</v>
       </c>
       <c r="G33">
-        <v>95.247613573342491</v>
+        <v>90.45473987250304</v>
       </c>
       <c r="H33">
-        <v>90.45473987250304</v>
+        <v>97.84530040828264</v>
       </c>
       <c r="I33">
-        <v>97.84530040828264</v>
+        <v>97.6135618893139</v>
       </c>
       <c r="J33">
-        <v>97.6135618893139</v>
+        <v>80.705784570948765</v>
       </c>
       <c r="K33">
-        <v>80.705784570948765</v>
+        <v>94.461654218313512</v>
       </c>
       <c r="L33">
-        <v>94.461654218313512</v>
-      </c>
-      <c r="M33">
         <v>92.860762816521174</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>40817</v>
       </c>
+      <c r="B34">
+        <v>90.670269911767832</v>
+      </c>
       <c r="C34">
-        <v>90.670269911767832</v>
+        <v>87.079325271871468</v>
       </c>
       <c r="D34">
-        <v>87.079325271871468</v>
+        <v>97.728549283613589</v>
       </c>
       <c r="E34">
-        <v>97.728549283613589</v>
+        <v>100.1769909818683</v>
       </c>
       <c r="F34">
-        <v>100.1769909818683</v>
+        <v>94.859199108478492</v>
       </c>
       <c r="G34">
-        <v>94.859199108478492</v>
+        <v>90.353901037252172</v>
       </c>
       <c r="H34">
-        <v>90.353901037252172</v>
+        <v>97.15541915332561</v>
       </c>
       <c r="I34">
-        <v>97.15541915332561</v>
+        <v>96.717852838843157</v>
       </c>
       <c r="J34">
-        <v>96.717852838843157</v>
+        <v>83.858186831744533</v>
       </c>
       <c r="K34">
-        <v>83.858186831744533</v>
+        <v>95.020753915019114</v>
       </c>
       <c r="L34">
-        <v>95.020753915019114</v>
-      </c>
-      <c r="M34">
         <v>92.809343144794497</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>40848</v>
       </c>
+      <c r="B35">
+        <v>91.136631849607241</v>
+      </c>
       <c r="C35">
-        <v>91.136631849607241</v>
+        <v>88.046587006469991</v>
       </c>
       <c r="D35">
-        <v>88.046587006469991</v>
+        <v>98.17960565817306</v>
       </c>
       <c r="E35">
-        <v>98.17960565817306</v>
+        <v>100.21241857955729</v>
       </c>
       <c r="F35">
-        <v>100.21241857955729</v>
+        <v>94.547013722692242</v>
       </c>
       <c r="G35">
-        <v>94.547013722692242</v>
+        <v>90.599607851486837</v>
       </c>
       <c r="H35">
-        <v>90.599607851486837</v>
+        <v>97.35187045212291</v>
       </c>
       <c r="I35">
-        <v>97.35187045212291</v>
+        <v>96.173411766382415</v>
       </c>
       <c r="J35">
-        <v>96.173411766382415</v>
+        <v>86.408313129578971</v>
       </c>
       <c r="K35">
-        <v>86.408313129578971</v>
+        <v>94.349645315455007</v>
       </c>
       <c r="L35">
-        <v>94.349645315455007</v>
-      </c>
-      <c r="M35">
         <v>92.731121636977477</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>40878</v>
       </c>
+      <c r="B36">
+        <v>90.875246528956836</v>
+      </c>
       <c r="C36">
-        <v>90.875246528956836</v>
+        <v>87.545719646230694</v>
       </c>
       <c r="D36">
-        <v>87.545719646230694</v>
+        <v>97.81131981565224</v>
       </c>
       <c r="E36">
-        <v>97.81131981565224</v>
+        <v>100.2309104713065</v>
       </c>
       <c r="F36">
-        <v>100.2309104713065</v>
+        <v>94.650483811322189</v>
       </c>
       <c r="G36">
-        <v>94.650483811322189</v>
+        <v>90.33624974433144</v>
       </c>
       <c r="H36">
-        <v>90.33624974433144</v>
+        <v>96.97409753154767</v>
       </c>
       <c r="I36">
-        <v>96.97409753154767</v>
+        <v>96.192166124461124</v>
       </c>
       <c r="J36">
-        <v>96.192166124461124</v>
+        <v>84.281010384208585</v>
       </c>
       <c r="K36">
-        <v>84.281010384208585</v>
+        <v>94.085810126583297</v>
       </c>
       <c r="L36">
-        <v>94.085810126583297</v>
-      </c>
-      <c r="M36">
         <v>92.976209388379388</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>40909</v>
       </c>
+      <c r="B37">
+        <v>90.537676037348163</v>
+      </c>
       <c r="C37">
-        <v>90.537676037348163</v>
+        <v>87.357201424037186</v>
       </c>
       <c r="D37">
-        <v>87.357201424037186</v>
+        <v>96.377231296002208</v>
       </c>
       <c r="E37">
-        <v>96.377231296002208</v>
+        <v>99.128169480656496</v>
       </c>
       <c r="F37">
-        <v>99.128169480656496</v>
+        <v>94.421690071860809</v>
       </c>
       <c r="G37">
-        <v>94.421690071860809</v>
+        <v>90.881988179997123</v>
       </c>
       <c r="H37">
-        <v>90.881988179997123</v>
+        <v>96.1303943828527</v>
       </c>
       <c r="I37">
-        <v>96.1303943828527</v>
+        <v>94.572359537502379</v>
       </c>
       <c r="J37">
-        <v>94.572359537502379</v>
+        <v>84.068014764301012</v>
       </c>
       <c r="K37">
-        <v>84.068014764301012</v>
+        <v>92.827423907130367</v>
       </c>
       <c r="L37">
-        <v>92.827423907130367</v>
-      </c>
-      <c r="M37">
         <v>92.733302776647008</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>40940</v>
       </c>
+      <c r="B38">
+        <v>91.877930999188578</v>
+      </c>
       <c r="C38">
-        <v>91.877930999188578</v>
+        <v>91.149576461814661</v>
       </c>
       <c r="D38">
-        <v>91.149576461814661</v>
+        <v>95.82870983818249</v>
       </c>
       <c r="E38">
-        <v>95.82870983818249</v>
+        <v>98.557047875134998</v>
       </c>
       <c r="F38">
-        <v>98.557047875134998</v>
+        <v>93.773092289004552</v>
       </c>
       <c r="G38">
-        <v>93.773092289004552</v>
+        <v>90.258809028986576</v>
       </c>
       <c r="H38">
-        <v>90.258809028986576</v>
+        <v>97.016902649890312</v>
       </c>
       <c r="I38">
-        <v>97.016902649890312</v>
+        <v>93.078144441503028</v>
       </c>
       <c r="J38">
-        <v>93.078144441503028</v>
+        <v>91.266992546344071</v>
       </c>
       <c r="K38">
-        <v>91.266992546344071</v>
+        <v>90.700227098828279</v>
       </c>
       <c r="L38">
-        <v>90.700227098828279</v>
-      </c>
-      <c r="M38">
         <v>92.621492313928456</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>40969</v>
       </c>
+      <c r="B39">
+        <v>94.13670458914207</v>
+      </c>
       <c r="C39">
-        <v>94.13670458914207</v>
+        <v>95.48555946550303</v>
       </c>
       <c r="D39">
-        <v>95.48555946550303</v>
+        <v>98.333602329898639</v>
       </c>
       <c r="E39">
-        <v>98.333602329898639</v>
+        <v>98.454904239566019</v>
       </c>
       <c r="F39">
-        <v>98.454904239566019</v>
+        <v>94.896987316746461</v>
       </c>
       <c r="G39">
-        <v>94.896987316746461</v>
+        <v>92.08896221973113</v>
       </c>
       <c r="H39">
-        <v>92.08896221973113</v>
+        <v>96.972943083696364</v>
       </c>
       <c r="I39">
-        <v>96.972943083696364</v>
+        <v>94.045371784018684</v>
       </c>
       <c r="J39">
-        <v>94.045371784018684</v>
+        <v>99.963107589317033</v>
       </c>
       <c r="K39">
-        <v>99.963107589317033</v>
+        <v>94.837910004522826</v>
       </c>
       <c r="L39">
-        <v>94.837910004522826</v>
-      </c>
-      <c r="M39">
         <v>92.97357114729779</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>41000</v>
       </c>
+      <c r="B40">
+        <v>94.391891352550275</v>
+      </c>
       <c r="C40">
-        <v>94.391891352550275</v>
+        <v>95.900255142831483</v>
       </c>
       <c r="D40">
-        <v>95.900255142831483</v>
+        <v>98.535185486402284</v>
       </c>
       <c r="E40">
-        <v>98.535185486402284</v>
+        <v>98.469217553234017</v>
       </c>
       <c r="F40">
-        <v>98.469217553234017</v>
+        <v>95.023489508835311</v>
       </c>
       <c r="G40">
-        <v>95.023489508835311</v>
+        <v>92.332692308602674</v>
       </c>
       <c r="H40">
-        <v>92.332692308602674</v>
+        <v>97.399142507973821</v>
       </c>
       <c r="I40">
-        <v>97.399142507973821</v>
+        <v>95.321845994910049</v>
       </c>
       <c r="J40">
-        <v>95.321845994910049</v>
+        <v>99.469709880572083</v>
       </c>
       <c r="K40">
-        <v>99.469709880572083</v>
+        <v>95.907002520050114</v>
       </c>
       <c r="L40">
-        <v>95.907002520050114</v>
-      </c>
-      <c r="M40">
         <v>93.277764774078818</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>41030</v>
       </c>
+      <c r="B41">
+        <v>95.903592717383958</v>
+      </c>
       <c r="C41">
-        <v>95.903592717383958</v>
+        <v>96.984404964051066</v>
       </c>
       <c r="D41">
-        <v>96.984404964051066</v>
+        <v>102.3156564969688</v>
       </c>
       <c r="E41">
-        <v>102.3156564969688</v>
+        <v>98.572373257303823</v>
       </c>
       <c r="F41">
-        <v>98.572373257303823</v>
+        <v>95.591196295778133</v>
       </c>
       <c r="G41">
-        <v>95.591196295778133</v>
+        <v>93.277497276337456</v>
       </c>
       <c r="H41">
-        <v>93.277497276337456</v>
+        <v>97.425124114569371</v>
       </c>
       <c r="I41">
-        <v>97.425124114569371</v>
+        <v>96.768643465465644</v>
       </c>
       <c r="J41">
-        <v>96.768643465465644</v>
+        <v>99.117280574321882</v>
       </c>
       <c r="K41">
-        <v>99.117280574321882</v>
+        <v>101.7067227053079</v>
       </c>
       <c r="L41">
-        <v>101.7067227053079</v>
-      </c>
-      <c r="M41">
         <v>94.519647127902743</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>41061</v>
       </c>
+      <c r="B42">
+        <v>94.831573855875448</v>
+      </c>
       <c r="C42">
-        <v>94.831573855875448</v>
+        <v>95.566029115954734</v>
       </c>
       <c r="D42">
-        <v>95.566029115954734</v>
+        <v>99.485719086102947</v>
       </c>
       <c r="E42">
-        <v>99.485719086102947</v>
+        <v>98.687778485696086</v>
       </c>
       <c r="F42">
-        <v>98.687778485696086</v>
+        <v>96.539660356802599</v>
       </c>
       <c r="G42">
-        <v>96.539660356802599</v>
+        <v>95.027970423869775</v>
       </c>
       <c r="H42">
-        <v>95.027970423869775</v>
+        <v>97.578680425849626</v>
       </c>
       <c r="I42">
-        <v>97.578680425849626</v>
+        <v>97.601115933091947</v>
       </c>
       <c r="J42">
-        <v>97.601115933091947</v>
+        <v>96.33260488643289</v>
       </c>
       <c r="K42">
-        <v>96.33260488643289</v>
+        <v>98.775317242420371</v>
       </c>
       <c r="L42">
-        <v>98.775317242420371</v>
-      </c>
-      <c r="M42">
         <v>94.536589983299521</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>41091</v>
       </c>
+      <c r="B43">
+        <v>94.894696482429467</v>
+      </c>
       <c r="C43">
-        <v>94.894696482429467</v>
+        <v>95.826000445173477</v>
       </c>
       <c r="D43">
-        <v>95.826000445173477</v>
+        <v>99.720034016985906</v>
       </c>
       <c r="E43">
-        <v>99.720034016985906</v>
+        <v>98.8385814875123</v>
       </c>
       <c r="F43">
-        <v>98.8385814875123</v>
+        <v>96.614152248764938</v>
       </c>
       <c r="G43">
-        <v>96.614152248764938</v>
+        <v>95.346097993237919</v>
       </c>
       <c r="H43">
-        <v>95.346097993237919</v>
+        <v>97.733076689117496</v>
       </c>
       <c r="I43">
-        <v>97.733076689117496</v>
+        <v>97.3367092940248</v>
       </c>
       <c r="J43">
-        <v>97.3367092940248</v>
+        <v>97.400668093782599</v>
       </c>
       <c r="K43">
-        <v>97.400668093782599</v>
+        <v>99.336934996857948</v>
       </c>
       <c r="L43">
-        <v>99.336934996857948</v>
-      </c>
-      <c r="M43">
         <v>94.329635736170346</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>41122</v>
       </c>
+      <c r="B44">
+        <v>95.834096826023767</v>
+      </c>
       <c r="C44">
-        <v>95.834096826023767</v>
+        <v>98.102995140109201</v>
       </c>
       <c r="D44">
-        <v>98.102995140109201</v>
+        <v>99.573712373915214</v>
       </c>
       <c r="E44">
-        <v>99.573712373915214</v>
+        <v>98.809213926726088</v>
       </c>
       <c r="F44">
-        <v>98.809213926726088</v>
+        <v>95.971520677948732</v>
       </c>
       <c r="G44">
-        <v>95.971520677948732</v>
+        <v>94.733147758741907</v>
       </c>
       <c r="H44">
-        <v>94.733147758741907</v>
+        <v>97.717946426870412</v>
       </c>
       <c r="I44">
-        <v>97.717946426870412</v>
+        <v>95.315501555614418</v>
       </c>
       <c r="J44">
-        <v>95.315501555614418</v>
+        <v>100.8885777825386</v>
       </c>
       <c r="K44">
-        <v>100.8885777825386</v>
+        <v>97.41737981936086</v>
       </c>
       <c r="L44">
-        <v>97.41737981936086</v>
-      </c>
-      <c r="M44">
         <v>94.590868171460926</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>41153</v>
       </c>
+      <c r="B45">
+        <v>96.001450072245945</v>
+      </c>
       <c r="C45">
-        <v>96.001450072245945</v>
+        <v>98.531913398716043</v>
       </c>
       <c r="D45">
-        <v>98.531913398716043</v>
+        <v>99.37644179811646</v>
       </c>
       <c r="E45">
-        <v>99.37644179811646</v>
+        <v>98.796436942216104</v>
       </c>
       <c r="F45">
-        <v>98.796436942216104</v>
+        <v>96.371581696664322</v>
       </c>
       <c r="G45">
-        <v>96.371581696664322</v>
+        <v>95.522503405835209</v>
       </c>
       <c r="H45">
-        <v>95.522503405835209</v>
+        <v>98.467032998180883</v>
       </c>
       <c r="I45">
-        <v>98.467032998180883</v>
+        <v>95.109108016067935</v>
       </c>
       <c r="J45">
-        <v>95.109108016067935</v>
+        <v>101.4639242206503</v>
       </c>
       <c r="K45">
-        <v>101.4639242206503</v>
+        <v>97.088187762761777</v>
       </c>
       <c r="L45">
-        <v>97.088187762761777</v>
-      </c>
-      <c r="M45">
         <v>94.778801169334315</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>41183</v>
       </c>
+      <c r="B46">
+        <v>96.134440858506863</v>
+      </c>
       <c r="C46">
-        <v>96.134440858506863</v>
+        <v>98.384961816674192</v>
       </c>
       <c r="D46">
-        <v>98.384961816674192</v>
+        <v>100.2170138682031</v>
       </c>
       <c r="E46">
-        <v>100.2170138682031</v>
+        <v>98.946127431527501</v>
       </c>
       <c r="F46">
-        <v>98.946127431527501</v>
+        <v>97.42717941818195</v>
       </c>
       <c r="G46">
-        <v>97.42717941818195</v>
+        <v>96.73381983117433</v>
       </c>
       <c r="H46">
-        <v>96.73381983117433</v>
+        <v>98.880136925491428</v>
       </c>
       <c r="I46">
-        <v>98.880136925491428</v>
+        <v>97.603162652312378</v>
       </c>
       <c r="J46">
-        <v>97.603162652312378</v>
+        <v>100.09412723591301</v>
       </c>
       <c r="K46">
-        <v>100.09412723591301</v>
+        <v>100.2862798591093</v>
       </c>
       <c r="L46">
-        <v>100.2862798591093</v>
-      </c>
-      <c r="M46">
         <v>95.167991488694412</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>41214</v>
       </c>
+      <c r="B47">
+        <v>95.660588438089846</v>
+      </c>
       <c r="C47">
-        <v>95.660588438089846</v>
+        <v>97.374502899853852</v>
       </c>
       <c r="D47">
-        <v>97.374502899853852</v>
+        <v>100.0056514963766</v>
       </c>
       <c r="E47">
-        <v>100.0056514963766</v>
+        <v>99.074088436049905</v>
       </c>
       <c r="F47">
-        <v>99.074088436049905</v>
+        <v>97.281525480891659</v>
       </c>
       <c r="G47">
-        <v>97.281525480891659</v>
+        <v>95.390109901204042</v>
       </c>
       <c r="H47">
-        <v>95.390109901204042</v>
+        <v>98.819354221880786</v>
       </c>
       <c r="I47">
-        <v>98.819354221880786</v>
+        <v>98.508875628459208</v>
       </c>
       <c r="J47">
-        <v>98.508875628459208</v>
+        <v>96.997991816497361</v>
       </c>
       <c r="K47">
-        <v>96.997991816497361</v>
+        <v>99.905511165261231</v>
       </c>
       <c r="L47">
-        <v>99.905511165261231</v>
-      </c>
-      <c r="M47">
         <v>95.348507517208205</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>41244</v>
       </c>
+      <c r="B48">
+        <v>94.566161362824189</v>
+      </c>
       <c r="C48">
-        <v>94.566161362824189</v>
+        <v>94.909802820295639</v>
       </c>
       <c r="D48">
-        <v>94.909802820295639</v>
+        <v>99.520708645977962</v>
       </c>
       <c r="E48">
-        <v>99.520708645977962</v>
+        <v>99.018233099082792</v>
       </c>
       <c r="F48">
-        <v>99.018233099082792</v>
+        <v>97.661726524598862</v>
       </c>
       <c r="G48">
-        <v>97.661726524598862</v>
+        <v>95.058850404422643</v>
       </c>
       <c r="H48">
-        <v>95.058850404422643</v>
+        <v>100.17210246759829</v>
       </c>
       <c r="I48">
-        <v>100.17210246759829</v>
+        <v>99.687237833507069</v>
       </c>
       <c r="J48">
-        <v>99.687237833507069</v>
+        <v>92.719450923959585</v>
       </c>
       <c r="K48">
-        <v>92.719450923959585</v>
+        <v>99.430260126596423</v>
       </c>
       <c r="L48">
-        <v>99.430260126596423</v>
-      </c>
-      <c r="M48">
         <v>95.274065409169268</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>41275</v>
       </c>
+      <c r="B49">
+        <v>96.277189249711824</v>
+      </c>
       <c r="C49">
-        <v>96.277189249711824</v>
+        <v>95.052770398492086</v>
       </c>
       <c r="D49">
-        <v>95.052770398492086</v>
+        <v>99.525776434496578</v>
       </c>
       <c r="E49">
-        <v>99.525776434496578</v>
+        <v>98.978149833415813</v>
       </c>
       <c r="F49">
-        <v>98.978149833415813</v>
+        <v>97.289362537808515</v>
       </c>
       <c r="G49">
-        <v>97.289362537808515</v>
+        <v>95.726164867332912</v>
       </c>
       <c r="H49">
-        <v>95.726164867332912</v>
+        <v>99.703851789048471</v>
       </c>
       <c r="I49">
-        <v>99.703851789048471</v>
+        <v>97.168734001116306</v>
       </c>
       <c r="J49">
-        <v>97.168734001116306</v>
+        <v>93.053532572315262</v>
       </c>
       <c r="K49">
-        <v>93.053532572315262</v>
+        <v>97.980903797918486</v>
       </c>
       <c r="L49">
-        <v>97.980903797918486</v>
-      </c>
-      <c r="M49">
         <v>97.075882199103106</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>41306</v>
       </c>
+      <c r="B50">
+        <v>96.458713330843523</v>
+      </c>
       <c r="C50">
-        <v>96.458713330843523</v>
+        <v>94.930053250168143</v>
       </c>
       <c r="D50">
-        <v>94.930053250168143</v>
+        <v>99.863039891669331</v>
       </c>
       <c r="E50">
-        <v>99.863039891669331</v>
+        <v>99.677137507186629</v>
       </c>
       <c r="F50">
-        <v>99.677137507186629</v>
+        <v>97.52562373500696</v>
       </c>
       <c r="G50">
-        <v>97.52562373500696</v>
+        <v>97.188308365660376</v>
       </c>
       <c r="H50">
-        <v>97.188308365660376</v>
+        <v>100.45739877743149</v>
       </c>
       <c r="I50">
-        <v>100.45739877743149</v>
+        <v>96.556404246812505</v>
       </c>
       <c r="J50">
-        <v>96.556404246812505</v>
+        <v>92.933910089528382</v>
       </c>
       <c r="K50">
-        <v>92.933910089528382</v>
+        <v>98.422124071273615</v>
       </c>
       <c r="L50">
-        <v>98.422124071273615</v>
-      </c>
-      <c r="M50">
         <v>97.311480515695635</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>41334</v>
       </c>
+      <c r="B51">
+        <v>97.16119018918117</v>
+      </c>
       <c r="C51">
-        <v>97.16119018918117</v>
+        <v>96.716321412182396</v>
       </c>
       <c r="D51">
-        <v>96.716321412182396</v>
+        <v>99.776344444131766</v>
       </c>
       <c r="E51">
-        <v>99.776344444131766</v>
+        <v>99.720694010934167</v>
       </c>
       <c r="F51">
-        <v>99.720694010934167</v>
+        <v>98.114976160415623</v>
       </c>
       <c r="G51">
-        <v>98.114976160415623</v>
+        <v>97.464322498726176</v>
       </c>
       <c r="H51">
-        <v>97.464322498726176</v>
+        <v>100.6269732284491</v>
       </c>
       <c r="I51">
-        <v>100.6269732284491</v>
+        <v>97.785023895392797</v>
       </c>
       <c r="J51">
-        <v>97.785023895392797</v>
+        <v>96.128556797955554</v>
       </c>
       <c r="K51">
-        <v>96.128556797955554</v>
+        <v>99.203900695056191</v>
       </c>
       <c r="L51">
-        <v>99.203900695056191</v>
-      </c>
-      <c r="M51">
         <v>97.426103798928196</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>41365</v>
       </c>
+      <c r="B52">
+        <v>98.61615246654388</v>
+      </c>
       <c r="C52">
-        <v>98.61615246654388</v>
+        <v>99.518903640682083</v>
       </c>
       <c r="D52">
-        <v>99.518903640682083</v>
+        <v>101.0792371735628</v>
       </c>
       <c r="E52">
-        <v>101.0792371735628</v>
+        <v>99.743025515606121</v>
       </c>
       <c r="F52">
-        <v>99.743025515606121</v>
+        <v>98.784909247270861</v>
       </c>
       <c r="G52">
-        <v>98.784909247270861</v>
+        <v>97.788091659649524</v>
       </c>
       <c r="H52">
-        <v>97.788091659649524</v>
+        <v>100.775028580936</v>
       </c>
       <c r="I52">
-        <v>100.775028580936</v>
+        <v>99.230941998626633</v>
       </c>
       <c r="J52">
-        <v>99.230941998626633</v>
+        <v>99.511279013615123</v>
       </c>
       <c r="K52">
-        <v>99.511279013615123</v>
+        <v>102.01424497091379</v>
       </c>
       <c r="L52">
-        <v>102.01424497091379</v>
-      </c>
-      <c r="M52">
         <v>98.114344271613433</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>41395</v>
       </c>
+      <c r="B53">
+        <v>98.649133359748191</v>
+      </c>
       <c r="C53">
-        <v>98.649133359748191</v>
+        <v>99.128192430814821</v>
       </c>
       <c r="D53">
-        <v>99.128192430814821</v>
+        <v>101.8541654061157</v>
       </c>
       <c r="E53">
-        <v>101.8541654061157</v>
+        <v>99.74172652482217</v>
       </c>
       <c r="F53">
-        <v>99.74172652482217</v>
+        <v>98.88936070795755</v>
       </c>
       <c r="G53">
-        <v>98.88936070795755</v>
+        <v>98.049180562335181</v>
       </c>
       <c r="H53">
-        <v>98.049180562335181</v>
+        <v>101.0344229153521</v>
       </c>
       <c r="I53">
-        <v>101.0344229153521</v>
+        <v>98.977803822353351</v>
       </c>
       <c r="J53">
-        <v>98.977803822353351</v>
+        <v>99.484391539235446</v>
       </c>
       <c r="K53">
-        <v>99.484391539235446</v>
+        <v>104.24197057958141</v>
       </c>
       <c r="L53">
-        <v>104.24197057958141</v>
-      </c>
-      <c r="M53">
         <v>97.954512039002026</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>41426</v>
       </c>
+      <c r="B54">
+        <v>98.742891681593846</v>
+      </c>
       <c r="C54">
-        <v>98.742891681593846</v>
+        <v>100.0829252832971</v>
       </c>
       <c r="D54">
-        <v>100.0829252832971</v>
+        <v>99.697118671375392</v>
       </c>
       <c r="E54">
-        <v>99.697118671375392</v>
+        <v>99.724560895942403</v>
       </c>
       <c r="F54">
-        <v>99.724560895942403</v>
+        <v>98.367151251715327</v>
       </c>
       <c r="G54">
-        <v>98.367151251715327</v>
+        <v>97.405907998948464</v>
       </c>
       <c r="H54">
-        <v>97.405907998948464</v>
+        <v>101.1038600164421</v>
       </c>
       <c r="I54">
-        <v>101.1038600164421</v>
+        <v>98.210381274082337</v>
       </c>
       <c r="J54">
-        <v>98.210381274082337</v>
+        <v>102.3975519088446</v>
       </c>
       <c r="K54">
-        <v>102.3975519088446</v>
+        <v>99.703835322411493</v>
       </c>
       <c r="L54">
-        <v>99.703835322411493</v>
-      </c>
-      <c r="M54">
         <v>97.740398275536364</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>41456</v>
       </c>
+      <c r="B55">
+        <v>98.701792649320055</v>
+      </c>
       <c r="C55">
-        <v>98.701792649320055</v>
+        <v>99.985526306953872</v>
       </c>
       <c r="D55">
-        <v>99.985526306953872</v>
+        <v>99.509553769350958</v>
       </c>
       <c r="E55">
-        <v>99.509553769350958</v>
+        <v>99.706853532383192</v>
       </c>
       <c r="F55">
-        <v>99.706853532383192</v>
+        <v>98.087465097153284</v>
       </c>
       <c r="G55">
-        <v>98.087465097153284</v>
+        <v>97.409941270154945</v>
       </c>
       <c r="H55">
-        <v>97.409941270154945</v>
+        <v>101.01866525237391</v>
       </c>
       <c r="I55">
-        <v>101.01866525237391</v>
+        <v>97.115132064502703</v>
       </c>
       <c r="J55">
-        <v>97.115132064502703</v>
+        <v>102.34049103863219</v>
       </c>
       <c r="K55">
-        <v>102.34049103863219</v>
+        <v>98.461969297553637</v>
       </c>
       <c r="L55">
-        <v>98.461969297553637</v>
-      </c>
-      <c r="M55">
         <v>97.764170273970549</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>41487</v>
       </c>
+      <c r="B56">
+        <v>100.029249637063</v>
+      </c>
       <c r="C56">
-        <v>100.029249637063</v>
+        <v>103.1017517443629</v>
       </c>
       <c r="D56">
-        <v>103.1017517443629</v>
+        <v>99.810188301859199</v>
       </c>
       <c r="E56">
-        <v>99.810188301859199</v>
+        <v>99.708243163299642</v>
       </c>
       <c r="F56">
-        <v>99.708243163299642</v>
+        <v>98.525998325224322</v>
       </c>
       <c r="G56">
-        <v>98.525998325224322</v>
+        <v>98.218600817105468</v>
       </c>
       <c r="H56">
-        <v>98.218600817105468</v>
+        <v>99.646959973526933</v>
       </c>
       <c r="I56">
-        <v>99.646959973526933</v>
+        <v>97.700236248021241</v>
       </c>
       <c r="J56">
-        <v>97.700236248021241</v>
+        <v>107.9350393407411</v>
       </c>
       <c r="K56">
-        <v>107.9350393407411</v>
+        <v>99.396470343192391</v>
       </c>
       <c r="L56">
-        <v>99.396470343192391</v>
-      </c>
-      <c r="M56">
         <v>97.960102806259044</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>41518</v>
       </c>
+      <c r="B57">
+        <v>101.5083728618506</v>
+      </c>
       <c r="C57">
-        <v>101.5083728618506</v>
+        <v>106.6530167171809</v>
       </c>
       <c r="D57">
-        <v>106.6530167171809</v>
+        <v>100.03279986125609</v>
       </c>
       <c r="E57">
-        <v>100.03279986125609</v>
+        <v>99.668434664482632</v>
       </c>
       <c r="F57">
-        <v>99.668434664482632</v>
+        <v>98.736803369729174</v>
       </c>
       <c r="G57">
-        <v>98.736803369729174</v>
+        <v>100.1879393643282</v>
       </c>
       <c r="H57">
-        <v>100.1879393643282</v>
+        <v>100.75663981281031</v>
       </c>
       <c r="I57">
-        <v>100.75663981281031</v>
+        <v>97.316584316865089</v>
       </c>
       <c r="J57">
-        <v>97.316584316865089</v>
+        <v>115.2570996184745</v>
       </c>
       <c r="K57">
-        <v>115.2570996184745</v>
+        <v>99.829930474471126</v>
       </c>
       <c r="L57">
-        <v>99.829930474471126</v>
-      </c>
-      <c r="M57">
         <v>97.928571110474465</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>41548</v>
       </c>
+      <c r="B58">
+        <v>101.9480351695519</v>
+      </c>
       <c r="C58">
-        <v>101.9480351695519</v>
+        <v>107.26946152281251</v>
       </c>
       <c r="D58">
-        <v>107.26946152281251</v>
+        <v>100.1952289674829</v>
       </c>
       <c r="E58">
-        <v>100.1952289674829</v>
+        <v>100.0889119098003</v>
       </c>
       <c r="F58">
-        <v>100.0889119098003</v>
+        <v>98.622750568414247</v>
       </c>
       <c r="G58">
-        <v>98.622750568414247</v>
+        <v>99.714907100706597</v>
       </c>
       <c r="H58">
-        <v>99.714907100706597</v>
+        <v>99.618063330614362</v>
       </c>
       <c r="I58">
-        <v>99.618063330614362</v>
+        <v>97.699327185716385</v>
       </c>
       <c r="J58">
-        <v>97.699327185716385</v>
+        <v>115.4557886765263</v>
       </c>
       <c r="K58">
-        <v>115.4557886765263</v>
+        <v>100.5520643783767</v>
       </c>
       <c r="L58">
-        <v>100.5520643783767</v>
-      </c>
-      <c r="M58">
         <v>98.249962671014103</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>41579</v>
       </c>
+      <c r="B59">
+        <v>100.5794711015904</v>
+      </c>
       <c r="C59">
-        <v>100.5794711015904</v>
+        <v>103.9335516260122</v>
       </c>
       <c r="D59">
-        <v>103.9335516260122</v>
+        <v>99.748822810516458</v>
       </c>
       <c r="E59">
-        <v>99.748822810516458</v>
+        <v>100.1170397959345</v>
       </c>
       <c r="F59">
-        <v>100.1170397959345</v>
+        <v>99.497212190492732</v>
       </c>
       <c r="G59">
-        <v>99.497212190492732</v>
+        <v>99.884433576679555</v>
       </c>
       <c r="H59">
-        <v>99.884433576679555</v>
+        <v>99.753760098662681</v>
       </c>
       <c r="I59">
-        <v>99.753760098662681</v>
+        <v>100.0123332976563</v>
       </c>
       <c r="J59">
-        <v>100.0123332976563</v>
+        <v>108.3575991541733</v>
       </c>
       <c r="K59">
-        <v>108.3575991541733</v>
+        <v>100.1415248964814</v>
       </c>
       <c r="L59">
-        <v>100.1415248964814</v>
-      </c>
-      <c r="M59">
         <v>98.627040891818339</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>41609</v>
       </c>
+      <c r="B60">
+        <v>98.486503643738317</v>
+      </c>
       <c r="C60">
-        <v>98.486503643738317</v>
+        <v>98.587217049320998</v>
       </c>
       <c r="D60">
-        <v>98.587217049320998</v>
+        <v>99.44666516993108</v>
       </c>
       <c r="E60">
-        <v>99.44666516993108</v>
+        <v>100.1319330707952</v>
       </c>
       <c r="F60">
-        <v>100.1319330707952</v>
+        <v>99.264942693868065</v>
       </c>
       <c r="G60">
-        <v>99.264942693868065</v>
+        <v>98.967373165849651</v>
       </c>
       <c r="H60">
-        <v>98.967373165849651</v>
+        <v>99.276297851210359</v>
       </c>
       <c r="I60">
-        <v>99.276297851210359</v>
+        <v>100.1425784408155</v>
       </c>
       <c r="J60">
-        <v>100.1425784408155</v>
+        <v>97.247923402292116</v>
       </c>
       <c r="K60">
-        <v>97.247923402292116</v>
+        <v>99.467393722861047</v>
       </c>
       <c r="L60">
-        <v>99.467393722861047</v>
-      </c>
-      <c r="M60">
         <v>98.860341940014095</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>41640</v>
       </c>
+      <c r="B61">
+        <v>98.573033235312025</v>
+      </c>
       <c r="C61">
-        <v>98.573033235312025</v>
+        <v>97.058997775015541</v>
       </c>
       <c r="D61">
-        <v>97.058997775015541</v>
+        <v>99.570842191935071</v>
       </c>
       <c r="E61">
-        <v>99.570842191935071</v>
+        <v>100.0014246608042</v>
       </c>
       <c r="F61">
-        <v>100.0014246608042</v>
+        <v>99.84314578156841</v>
       </c>
       <c r="G61">
-        <v>99.84314578156841</v>
+        <v>99.916753378916724</v>
       </c>
       <c r="H61">
-        <v>99.916753378916724</v>
+        <v>99.766471485742684</v>
       </c>
       <c r="I61">
-        <v>99.766471485742684</v>
+        <v>100.0865134827215</v>
       </c>
       <c r="J61">
-        <v>100.0865134827215</v>
+        <v>94.508653142612047</v>
       </c>
       <c r="K61">
-        <v>94.508653142612047</v>
+        <v>99.503529026867596</v>
       </c>
       <c r="L61">
-        <v>99.503529026867596</v>
-      </c>
-      <c r="M61">
         <v>99.702983764646845</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>41671</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
       </c>
       <c r="C62">
         <v>100</v>
@@ -13583,4722 +13419,4374 @@
       <c r="L62">
         <v>100</v>
       </c>
-      <c r="M62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>41699</v>
       </c>
+      <c r="B63">
+        <v>100.8959541412155</v>
+      </c>
       <c r="C63">
-        <v>100.8959541412155</v>
+        <v>102.27435077513169</v>
       </c>
       <c r="D63">
-        <v>102.27435077513169</v>
+        <v>99.972768695820918</v>
       </c>
       <c r="E63">
-        <v>99.972768695820918</v>
+        <v>99.884004724833844</v>
       </c>
       <c r="F63">
-        <v>99.884004724833844</v>
+        <v>99.792168313240751</v>
       </c>
       <c r="G63">
-        <v>99.792168313240751</v>
+        <v>99.646304414301085</v>
       </c>
       <c r="H63">
-        <v>99.646304414301085</v>
+        <v>102.70597417354971</v>
       </c>
       <c r="I63">
-        <v>102.70597417354971</v>
+        <v>98.526686000836236</v>
       </c>
       <c r="J63">
-        <v>98.526686000836236</v>
+        <v>104.1092359373383</v>
       </c>
       <c r="K63">
-        <v>104.1092359373383</v>
+        <v>99.944070720227472</v>
       </c>
       <c r="L63">
-        <v>99.944070720227472</v>
-      </c>
-      <c r="M63">
         <v>99.999069144332552</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>41730</v>
       </c>
+      <c r="B64">
+        <v>101.65864659372021</v>
+      </c>
       <c r="C64">
-        <v>101.65864659372021</v>
+        <v>103.4554465009231</v>
       </c>
       <c r="D64">
-        <v>103.4554465009231</v>
+        <v>100.6418862566326</v>
       </c>
       <c r="E64">
-        <v>100.6418862566326</v>
+        <v>99.882194917684075</v>
       </c>
       <c r="F64">
-        <v>99.882194917684075</v>
+        <v>99.973112221343641</v>
       </c>
       <c r="G64">
-        <v>99.973112221343641</v>
+        <v>100.8647846643164</v>
       </c>
       <c r="H64">
-        <v>100.8647846643164</v>
+        <v>101.5667971862091</v>
       </c>
       <c r="I64">
-        <v>101.5667971862091</v>
+        <v>98.472197046611242</v>
       </c>
       <c r="J64">
-        <v>98.472197046611242</v>
+        <v>105.6623170806934</v>
       </c>
       <c r="K64">
-        <v>105.6623170806934</v>
+        <v>101.47959774507591</v>
       </c>
       <c r="L64">
-        <v>101.47959774507591</v>
-      </c>
-      <c r="M64">
         <v>100.3582591264479</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>41760</v>
       </c>
+      <c r="B65">
+        <v>100.905996569911</v>
+      </c>
       <c r="C65">
-        <v>100.905996569911</v>
+        <v>102.0835233356856</v>
       </c>
       <c r="D65">
-        <v>102.0835233356856</v>
+        <v>100.46821554737851</v>
       </c>
       <c r="E65">
-        <v>100.46821554737851</v>
+        <v>99.852070429299033</v>
       </c>
       <c r="F65">
-        <v>99.852070429299033</v>
+        <v>99.736185627648183</v>
       </c>
       <c r="G65">
-        <v>99.736185627648183</v>
+        <v>101.2802891418801</v>
       </c>
       <c r="H65">
-        <v>101.2802891418801</v>
+        <v>101.4000774372013</v>
       </c>
       <c r="I65">
-        <v>101.4000774372013</v>
+        <v>98.03010511151416</v>
       </c>
       <c r="J65">
-        <v>98.03010511151416</v>
+        <v>102.4344474864143</v>
       </c>
       <c r="K65">
-        <v>102.4344474864143</v>
+        <v>99.915357868380212</v>
       </c>
       <c r="L65">
-        <v>99.915357868380212</v>
-      </c>
-      <c r="M65">
         <v>100.25166355084509</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>41791</v>
       </c>
+      <c r="B66">
+        <v>100.8276017335573</v>
+      </c>
       <c r="C66">
-        <v>100.8276017335573</v>
+        <v>101.5753101839382</v>
       </c>
       <c r="D66">
-        <v>101.5753101839382</v>
+        <v>100.5152585093884</v>
       </c>
       <c r="E66">
-        <v>100.5152585093884</v>
+        <v>99.683008994749727</v>
       </c>
       <c r="F66">
-        <v>99.683008994749727</v>
+        <v>97.988192886449269</v>
       </c>
       <c r="G66">
-        <v>97.988192886449269</v>
+        <v>101.5553366002752</v>
       </c>
       <c r="H66">
-        <v>101.5553366002752</v>
+        <v>101.07363829520609</v>
       </c>
       <c r="I66">
-        <v>101.07363829520609</v>
+        <v>93.456820689445067</v>
       </c>
       <c r="J66">
-        <v>93.456820689445067</v>
+        <v>101.91153524455321</v>
       </c>
       <c r="K66">
-        <v>101.91153524455321</v>
+        <v>99.910646831734823</v>
       </c>
       <c r="L66">
-        <v>99.910646831734823</v>
-      </c>
-      <c r="M66">
         <v>99.695486943681459</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>41821</v>
       </c>
+      <c r="B67">
+        <v>100.9565616806164</v>
+      </c>
       <c r="C67">
-        <v>100.9565616806164</v>
+        <v>101.7284110216175</v>
       </c>
       <c r="D67">
-        <v>101.7284110216175</v>
+        <v>100.77226643158799</v>
       </c>
       <c r="E67">
-        <v>100.77226643158799</v>
+        <v>99.685925955192246</v>
       </c>
       <c r="F67">
-        <v>99.685925955192246</v>
+        <v>98.860402985671129</v>
       </c>
       <c r="G67">
-        <v>98.860402985671129</v>
+        <v>103.3857591194681</v>
       </c>
       <c r="H67">
-        <v>103.3857591194681</v>
+        <v>102.2494528784346</v>
       </c>
       <c r="I67">
-        <v>102.2494528784346</v>
+        <v>93.619555028621107</v>
       </c>
       <c r="J67">
-        <v>93.619555028621107</v>
+        <v>101.9540510843099</v>
       </c>
       <c r="K67">
-        <v>101.9540510843099</v>
+        <v>100.64167450181451</v>
       </c>
       <c r="L67">
-        <v>100.64167450181451</v>
-      </c>
-      <c r="M67">
         <v>100.03745568095459</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>41852</v>
       </c>
+      <c r="B68">
+        <v>100.98561017084749</v>
+      </c>
       <c r="C68">
-        <v>100.98561017084749</v>
+        <v>101.8384314996601</v>
       </c>
       <c r="D68">
-        <v>101.8384314996601</v>
+        <v>100.718589720986</v>
       </c>
       <c r="E68">
-        <v>100.718589720986</v>
+        <v>99.708614054540831</v>
       </c>
       <c r="F68">
-        <v>99.708614054540831</v>
+        <v>99.562355417542804</v>
       </c>
       <c r="G68">
-        <v>99.562355417542804</v>
+        <v>103.5071343486068</v>
       </c>
       <c r="H68">
-        <v>103.5071343486068</v>
+        <v>102.24358773876121</v>
       </c>
       <c r="I68">
-        <v>102.24358773876121</v>
+        <v>95.173106315561256</v>
       </c>
       <c r="J68">
-        <v>95.173106315561256</v>
+        <v>101.9219291278128</v>
       </c>
       <c r="K68">
-        <v>101.9219291278128</v>
+        <v>100.1916468030613</v>
       </c>
       <c r="L68">
-        <v>100.1916468030613</v>
-      </c>
-      <c r="M68">
         <v>100.361447215436</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>41883</v>
       </c>
+      <c r="B69">
+        <v>101.2613665078902</v>
+      </c>
       <c r="C69">
-        <v>101.2613665078902</v>
+        <v>102.0824613981534</v>
       </c>
       <c r="D69">
-        <v>102.0824613981534</v>
+        <v>101.06022232889499</v>
       </c>
       <c r="E69">
-        <v>101.06022232889499</v>
+        <v>99.708606275443486</v>
       </c>
       <c r="F69">
-        <v>99.708606275443486</v>
+        <v>100.79407944372019</v>
       </c>
       <c r="G69">
-        <v>100.79407944372019</v>
+        <v>104.2056309062208</v>
       </c>
       <c r="H69">
-        <v>104.2056309062208</v>
+        <v>102.69412054767361</v>
       </c>
       <c r="I69">
-        <v>102.69412054767361</v>
+        <v>97.46243142212586</v>
       </c>
       <c r="J69">
-        <v>97.46243142212586</v>
+        <v>102.27944510472039</v>
       </c>
       <c r="K69">
-        <v>102.27944510472039</v>
+        <v>101.0211625247471</v>
       </c>
       <c r="L69">
-        <v>101.0211625247471</v>
-      </c>
-      <c r="M69">
         <v>100.8891916735605</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>41913</v>
       </c>
+      <c r="B70">
+        <v>101.7755776511254</v>
+      </c>
       <c r="C70">
-        <v>101.7755776511254</v>
+        <v>102.2813535606941</v>
       </c>
       <c r="D70">
-        <v>102.2813535606941</v>
+        <v>102.5370941166282</v>
       </c>
       <c r="E70">
-        <v>102.5370941166282</v>
+        <v>99.830871347998425</v>
       </c>
       <c r="F70">
-        <v>99.830871347998425</v>
+        <v>101.806274931715</v>
       </c>
       <c r="G70">
-        <v>101.806274931715</v>
+        <v>104.1882531550025</v>
       </c>
       <c r="H70">
-        <v>104.1882531550025</v>
+        <v>102.4099559760092</v>
       </c>
       <c r="I70">
-        <v>102.4099559760092</v>
+        <v>99.829055521536105</v>
       </c>
       <c r="J70">
-        <v>99.829055521536105</v>
+        <v>102.5028502263856</v>
       </c>
       <c r="K70">
-        <v>102.5028502263856</v>
+        <v>101.31768628093189</v>
       </c>
       <c r="L70">
-        <v>101.31768628093189</v>
-      </c>
-      <c r="M70">
         <v>101.66455516590101</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>41944</v>
       </c>
+      <c r="B71">
+        <v>101.128846065593</v>
+      </c>
       <c r="C71">
-        <v>101.128846065593</v>
+        <v>99.609472180866391</v>
       </c>
       <c r="D71">
-        <v>99.609472180866391</v>
+        <v>102.6972957239195</v>
       </c>
       <c r="E71">
-        <v>102.6972957239195</v>
+        <v>99.729028622827187</v>
       </c>
       <c r="F71">
-        <v>99.729028622827187</v>
+        <v>100.77732037394701</v>
       </c>
       <c r="G71">
-        <v>100.77732037394701</v>
+        <v>104.4001106837641</v>
       </c>
       <c r="H71">
-        <v>104.4001106837641</v>
+        <v>102.26120405131179</v>
       </c>
       <c r="I71">
-        <v>102.26120405131179</v>
+        <v>97.343606014640741</v>
       </c>
       <c r="J71">
-        <v>97.343606014640741</v>
+        <v>99.179460111017505</v>
       </c>
       <c r="K71">
-        <v>99.179460111017505</v>
+        <v>100.8489962334472</v>
       </c>
       <c r="L71">
-        <v>100.8489962334472</v>
-      </c>
-      <c r="M71">
         <v>101.4900474549914</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>41974</v>
       </c>
+      <c r="B72">
+        <v>100.6924670225672</v>
+      </c>
       <c r="C72">
-        <v>100.6924670225672</v>
+        <v>97.789801960382533</v>
       </c>
       <c r="D72">
-        <v>97.789801960382533</v>
+        <v>103.1865108894453</v>
       </c>
       <c r="E72">
-        <v>103.1865108894453</v>
+        <v>99.99088741439634</v>
       </c>
       <c r="F72">
-        <v>99.99088741439634</v>
+        <v>100.812313459821</v>
       </c>
       <c r="G72">
-        <v>100.812313459821</v>
+        <v>105.73722774177929</v>
       </c>
       <c r="H72">
-        <v>105.73722774177929</v>
+        <v>101.8016163242481</v>
       </c>
       <c r="I72">
-        <v>101.8016163242481</v>
+        <v>97.023097825910554</v>
       </c>
       <c r="J72">
-        <v>97.023097825910554</v>
+        <v>95.978521080084988</v>
       </c>
       <c r="K72">
-        <v>95.978521080084988</v>
+        <v>101.4584757909273</v>
       </c>
       <c r="L72">
-        <v>101.4584757909273</v>
-      </c>
-      <c r="M72">
         <v>101.7496164984116</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>42005</v>
       </c>
+      <c r="B73">
+        <v>100.3813886772698</v>
+      </c>
       <c r="C73">
-        <v>100.3813886772698</v>
+        <v>96.875477368728866</v>
       </c>
       <c r="D73">
-        <v>96.875477368728866</v>
+        <v>103.2484158044461</v>
       </c>
       <c r="E73">
-        <v>103.2484158044461</v>
+        <v>98.90629135266667</v>
       </c>
       <c r="F73">
-        <v>98.90629135266667</v>
+        <v>99.874265598108508</v>
       </c>
       <c r="G73">
-        <v>99.874265598108508</v>
+        <v>106.1465913067738</v>
       </c>
       <c r="H73">
-        <v>106.1465913067738</v>
+        <v>101.3408051858048</v>
       </c>
       <c r="I73">
-        <v>101.3408051858048</v>
+        <v>94.377083640265369</v>
       </c>
       <c r="J73">
-        <v>94.377083640265369</v>
+        <v>95.024821375797913</v>
       </c>
       <c r="K73">
-        <v>95.024821375797913</v>
+        <v>99.834909010290161</v>
       </c>
       <c r="L73">
-        <v>99.834909010290161</v>
-      </c>
-      <c r="M73">
         <v>101.5084445089705</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>42036</v>
       </c>
+      <c r="B74">
+        <v>101.0575045641</v>
+      </c>
       <c r="C74">
-        <v>101.0575045641</v>
+        <v>98.169330486721648</v>
       </c>
       <c r="D74">
-        <v>98.169330486721648</v>
+        <v>103.6913054477872</v>
       </c>
       <c r="E74">
-        <v>103.6913054477872</v>
+        <v>98.86274976512496</v>
       </c>
       <c r="F74">
-        <v>98.86274976512496</v>
+        <v>99.692178531347523</v>
       </c>
       <c r="G74">
-        <v>99.692178531347523</v>
+        <v>106.39605848790841</v>
       </c>
       <c r="H74">
-        <v>106.39605848790841</v>
+        <v>101.33760187182961</v>
       </c>
       <c r="I74">
-        <v>101.33760187182961</v>
+        <v>93.733786901406503</v>
       </c>
       <c r="J74">
+        <v>97.138783787025673</v>
+      </c>
+      <c r="K74">
+        <v>99.637390688612356</v>
+      </c>
+      <c r="L74">
+        <v>101.6461868615305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B75">
+        <v>102.13075651573109</v>
+      </c>
+      <c r="C75">
+        <v>101.7707533765418</v>
+      </c>
+      <c r="D75">
+        <v>103.8465586228142</v>
+      </c>
+      <c r="E75">
+        <v>98.761387437022677</v>
+      </c>
+      <c r="F75">
+        <v>99.667453896017022</v>
+      </c>
+      <c r="G75">
+        <v>106.6099922399525</v>
+      </c>
+      <c r="H75">
+        <v>102.0528676368279</v>
+      </c>
+      <c r="I75">
         <v>93.733786901406503</v>
       </c>
-      <c r="K74">
-        <v>97.138783787025673</v>
-      </c>
-      <c r="L74">
-        <v>99.637390688612356</v>
-      </c>
-      <c r="M74">
-        <v>101.6461868615305</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>42064</v>
-      </c>
-      <c r="C75">
-        <v>102.13075651573109</v>
-      </c>
-      <c r="D75">
-        <v>101.7707533765418</v>
-      </c>
-      <c r="E75">
-        <v>103.8465586228142</v>
-      </c>
-      <c r="F75">
-        <v>98.761387437022677</v>
-      </c>
-      <c r="G75">
-        <v>99.667453896017022</v>
-      </c>
-      <c r="H75">
-        <v>106.6099922399525</v>
-      </c>
-      <c r="I75">
-        <v>102.0528676368279</v>
-      </c>
       <c r="J75">
+        <v>101.5247341397464</v>
+      </c>
+      <c r="K75">
+        <v>99.054221669494524</v>
+      </c>
+      <c r="L75">
+        <v>101.7441467292312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B76">
+        <v>103.15997049012471</v>
+      </c>
+      <c r="C76">
+        <v>105.34992218521499</v>
+      </c>
+      <c r="D76">
+        <v>103.5634149184929</v>
+      </c>
+      <c r="E76">
+        <v>98.74097294398824</v>
+      </c>
+      <c r="F76">
+        <v>99.702705256745929</v>
+      </c>
+      <c r="G76">
+        <v>106.74700384469961</v>
+      </c>
+      <c r="H76">
+        <v>101.8300736541847</v>
+      </c>
+      <c r="I76">
         <v>93.733786901406503</v>
       </c>
-      <c r="K75">
-        <v>101.5247341397464</v>
-      </c>
-      <c r="L75">
-        <v>99.054221669494524</v>
-      </c>
-      <c r="M75">
-        <v>101.7441467292312</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
-        <v>42095</v>
-      </c>
-      <c r="C76">
-        <v>103.15997049012471</v>
-      </c>
-      <c r="D76">
-        <v>105.34992218521499</v>
-      </c>
-      <c r="E76">
-        <v>103.5634149184929</v>
-      </c>
-      <c r="F76">
-        <v>98.74097294398824</v>
-      </c>
-      <c r="G76">
-        <v>99.702705256745929</v>
-      </c>
-      <c r="H76">
-        <v>106.74700384469961</v>
-      </c>
-      <c r="I76">
-        <v>101.8300736541847</v>
-      </c>
       <c r="J76">
-        <v>93.733786901406503</v>
+        <v>105.5508056698083</v>
       </c>
       <c r="K76">
-        <v>105.5508056698083</v>
+        <v>98.322555109401506</v>
       </c>
       <c r="L76">
-        <v>98.322555109401506</v>
-      </c>
-      <c r="M76">
         <v>101.917999190532</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>42125</v>
       </c>
+      <c r="B77">
+        <v>103.7459841319737</v>
+      </c>
       <c r="C77">
-        <v>103.7459841319737</v>
+        <v>105.548184889094</v>
       </c>
       <c r="D77">
-        <v>105.548184889094</v>
+        <v>105.037353706269</v>
       </c>
       <c r="E77">
-        <v>105.037353706269</v>
+        <v>98.740189002468313</v>
       </c>
       <c r="F77">
-        <v>98.740189002468313</v>
+        <v>100.31007315226709</v>
       </c>
       <c r="G77">
-        <v>100.31007315226709</v>
+        <v>106.99363324501449</v>
       </c>
       <c r="H77">
-        <v>106.99363324501449</v>
+        <v>101.5964257243065</v>
       </c>
       <c r="I77">
-        <v>101.5964257243065</v>
+        <v>94.787166557346382</v>
       </c>
       <c r="J77">
-        <v>94.787166557346382</v>
+        <v>106.46176583600359</v>
       </c>
       <c r="K77">
-        <v>106.46176583600359</v>
+        <v>100.3836500140669</v>
       </c>
       <c r="L77">
-        <v>100.3836500140669</v>
-      </c>
-      <c r="M77">
         <v>102.2830779788423</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>42156</v>
       </c>
+      <c r="B78">
+        <v>103.4323212880862</v>
+      </c>
       <c r="C78">
-        <v>103.4323212880862</v>
+        <v>103.95403112949251</v>
       </c>
       <c r="D78">
-        <v>103.95403112949251</v>
+        <v>105.0577579410336</v>
       </c>
       <c r="E78">
-        <v>105.0577579410336</v>
+        <v>99.707834613450473</v>
       </c>
       <c r="F78">
-        <v>99.707834613450473</v>
+        <v>101.1780104813318</v>
       </c>
       <c r="G78">
-        <v>101.1780104813318</v>
+        <v>107.1254351495808</v>
       </c>
       <c r="H78">
-        <v>107.1254351495808</v>
+        <v>101.3675705329176</v>
       </c>
       <c r="I78">
-        <v>101.3675705329176</v>
+        <v>95.786058216610655</v>
       </c>
       <c r="J78">
-        <v>95.786058216610655</v>
+        <v>104.5849601933127</v>
       </c>
       <c r="K78">
-        <v>104.5849601933127</v>
+        <v>100.78821518997459</v>
       </c>
       <c r="L78">
-        <v>100.78821518997459</v>
-      </c>
-      <c r="M78">
         <v>102.6640701504744</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>42186</v>
       </c>
+      <c r="B79">
+        <v>102.8902240008496</v>
+      </c>
       <c r="C79">
-        <v>102.8902240008496</v>
+        <v>101.8213440790324</v>
       </c>
       <c r="D79">
-        <v>101.8213440790324</v>
+        <v>105.01244955167149</v>
       </c>
       <c r="E79">
-        <v>105.01244955167149</v>
+        <v>99.636977636992441</v>
       </c>
       <c r="F79">
-        <v>99.636977636992441</v>
+        <v>102.2098774212846</v>
       </c>
       <c r="G79">
-        <v>102.2098774212846</v>
+        <v>106.80756961120871</v>
       </c>
       <c r="H79">
-        <v>106.80756961120871</v>
+        <v>102.2616229577626</v>
       </c>
       <c r="I79">
-        <v>102.2616229577626</v>
+        <v>97.778939947732539</v>
       </c>
       <c r="J79">
-        <v>97.778939947732539</v>
+        <v>102.02160294941061</v>
       </c>
       <c r="K79">
-        <v>102.02160294941061</v>
+        <v>100.9504235612183</v>
       </c>
       <c r="L79">
-        <v>100.9504235612183</v>
-      </c>
-      <c r="M79">
         <v>103.05927720406321</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>42217</v>
       </c>
+      <c r="B80">
+        <v>104.0814424841013</v>
+      </c>
       <c r="C80">
-        <v>104.0814424841013</v>
+        <v>105.040094159284</v>
       </c>
       <c r="D80">
-        <v>105.040094159284</v>
+        <v>105.2845674018798</v>
       </c>
       <c r="E80">
-        <v>105.2845674018798</v>
+        <v>99.622172069102817</v>
       </c>
       <c r="F80">
-        <v>99.622172069102817</v>
+        <v>102.54414547257061</v>
       </c>
       <c r="G80">
-        <v>102.54414547257061</v>
+        <v>107.187637102404</v>
       </c>
       <c r="H80">
-        <v>107.187637102404</v>
+        <v>102.13285179657299</v>
       </c>
       <c r="I80">
-        <v>102.13285179657299</v>
+        <v>98.368617790041185</v>
       </c>
       <c r="J80">
-        <v>98.368617790041185</v>
+        <v>107.1238106861865</v>
       </c>
       <c r="K80">
-        <v>107.1238106861865</v>
+        <v>102.0807552051769</v>
       </c>
       <c r="L80">
-        <v>102.0807552051769</v>
-      </c>
-      <c r="M80">
         <v>103.0537288542325</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>42248</v>
       </c>
+      <c r="B81">
+        <v>105.6069584084635</v>
+      </c>
       <c r="C81">
-        <v>105.6069584084635</v>
+        <v>108.4691214530653</v>
       </c>
       <c r="D81">
-        <v>108.4691214530653</v>
+        <v>106.89180354676169</v>
       </c>
       <c r="E81">
-        <v>106.89180354676169</v>
+        <v>99.620142018297159</v>
       </c>
       <c r="F81">
-        <v>99.620142018297159</v>
+        <v>102.6181911246441</v>
       </c>
       <c r="G81">
-        <v>102.6181911246441</v>
+        <v>107.20987934529251</v>
       </c>
       <c r="H81">
-        <v>107.20987934529251</v>
+        <v>101.9454418083413</v>
       </c>
       <c r="I81">
-        <v>101.9454418083413</v>
+        <v>98.17360099563632</v>
       </c>
       <c r="J81">
-        <v>98.17360099563632</v>
+        <v>111.4345556410189</v>
       </c>
       <c r="K81">
-        <v>111.4345556410189</v>
+        <v>105.51392603982229</v>
       </c>
       <c r="L81">
-        <v>105.51392603982229</v>
-      </c>
-      <c r="M81">
         <v>103.2359929578727</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>42278</v>
       </c>
+      <c r="B82">
+        <v>105.6424005306547</v>
+      </c>
       <c r="C82">
-        <v>105.6424005306547</v>
+        <v>108.6925306516852</v>
       </c>
       <c r="D82">
-        <v>108.6925306516852</v>
+        <v>106.763072054684</v>
       </c>
       <c r="E82">
-        <v>106.763072054684</v>
+        <v>99.616840698808431</v>
       </c>
       <c r="F82">
-        <v>99.616840698808431</v>
+        <v>101.946569124543</v>
       </c>
       <c r="G82">
-        <v>101.946569124543</v>
+        <v>107.2829549021136</v>
       </c>
       <c r="H82">
-        <v>107.2829549021136</v>
+        <v>101.96242916833231</v>
       </c>
       <c r="I82">
-        <v>101.96242916833231</v>
+        <v>97.656929757408832</v>
       </c>
       <c r="J82">
-        <v>97.656929757408832</v>
+        <v>111.9990662618255</v>
       </c>
       <c r="K82">
-        <v>111.9990662618255</v>
+        <v>105.1880596594779</v>
       </c>
       <c r="L82">
-        <v>105.1880596594779</v>
-      </c>
-      <c r="M82">
         <v>102.9430737911519</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>42309</v>
       </c>
+      <c r="B83">
+        <v>107.2800000741028</v>
+      </c>
       <c r="C83">
-        <v>107.2800000741028</v>
+        <v>111.9259153916238</v>
       </c>
       <c r="D83">
-        <v>111.9259153916238</v>
+        <v>106.49865364013451</v>
       </c>
       <c r="E83">
-        <v>106.49865364013451</v>
+        <v>105.83939992421401</v>
       </c>
       <c r="F83">
-        <v>105.83939992421401</v>
+        <v>101.7809097790195</v>
       </c>
       <c r="G83">
-        <v>101.7809097790195</v>
+        <v>107.5316493065762</v>
       </c>
       <c r="H83">
-        <v>107.5316493065762</v>
+        <v>102.0897278883068</v>
       </c>
       <c r="I83">
-        <v>102.0897278883068</v>
+        <v>96.874014939935407</v>
       </c>
       <c r="J83">
-        <v>96.874014939935407</v>
+        <v>115.57353041862891</v>
       </c>
       <c r="K83">
-        <v>115.57353041862891</v>
+        <v>104.2417911418284</v>
       </c>
       <c r="L83">
-        <v>104.2417911418284</v>
-      </c>
-      <c r="M83">
         <v>103.77888096303271</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>42339</v>
       </c>
+      <c r="B84">
+        <v>106.3877313763707</v>
+      </c>
       <c r="C84">
-        <v>106.3877313763707</v>
+        <v>109.3696126031317</v>
       </c>
       <c r="D84">
-        <v>109.3696126031317</v>
+        <v>106.2028572863592</v>
       </c>
       <c r="E84">
-        <v>106.2028572863592</v>
+        <v>105.95822254577391</v>
       </c>
       <c r="F84">
-        <v>105.95822254577391</v>
+        <v>102.1065586015736</v>
       </c>
       <c r="G84">
-        <v>102.1065586015736</v>
+        <v>107.2563251107678</v>
       </c>
       <c r="H84">
-        <v>107.2563251107678</v>
+        <v>101.77407297221831</v>
       </c>
       <c r="I84">
-        <v>101.77407297221831</v>
+        <v>97.268558453268611</v>
       </c>
       <c r="J84">
-        <v>97.268558453268611</v>
+        <v>111.5067722817125</v>
       </c>
       <c r="K84">
-        <v>111.5067722817125</v>
+        <v>103.0333767979822</v>
       </c>
       <c r="L84">
-        <v>103.0333767979822</v>
-      </c>
-      <c r="M84">
         <v>104.0752724701794</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>42370</v>
       </c>
+      <c r="B85">
+        <v>105.74677157550769</v>
+      </c>
       <c r="C85">
-        <v>105.74677157550769</v>
+        <v>107.0257798751467</v>
       </c>
       <c r="D85">
-        <v>107.0257798751467</v>
+        <v>106.38746111246451</v>
       </c>
       <c r="E85">
-        <v>106.38746111246451</v>
+        <v>105.8799475371351</v>
       </c>
       <c r="F85">
-        <v>105.8799475371351</v>
+        <v>101.77582384310691</v>
       </c>
       <c r="G85">
-        <v>101.77582384310691</v>
+        <v>107.3772861984089</v>
       </c>
       <c r="H85">
-        <v>107.3772861984089</v>
+        <v>101.73848818943731</v>
       </c>
       <c r="I85">
-        <v>101.73848818943731</v>
+        <v>96.539715386762126</v>
       </c>
       <c r="J85">
-        <v>96.539715386762126</v>
+        <v>107.7680076215683</v>
       </c>
       <c r="K85">
-        <v>107.7680076215683</v>
+        <v>103.8223315358144</v>
       </c>
       <c r="L85">
-        <v>103.8223315358144</v>
-      </c>
-      <c r="M85">
         <v>104.112570769828</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>42401</v>
       </c>
+      <c r="B86">
+        <v>106.31142352205519</v>
+      </c>
       <c r="C86">
-        <v>106.31142352205519</v>
+        <v>107.93214410786391</v>
       </c>
       <c r="D86">
-        <v>107.93214410786391</v>
+        <v>106.6821923090671</v>
       </c>
       <c r="E86">
-        <v>106.6821923090671</v>
+        <v>105.8749210215687</v>
       </c>
       <c r="F86">
-        <v>105.8749210215687</v>
+        <v>101.9376244639278</v>
       </c>
       <c r="G86">
-        <v>101.9376244639278</v>
+        <v>107.40889357789111</v>
       </c>
       <c r="H86">
-        <v>107.40889357789111</v>
+        <v>101.4126099660151</v>
       </c>
       <c r="I86">
-        <v>101.4126099660151</v>
+        <v>97.255556322865147</v>
       </c>
       <c r="J86">
-        <v>97.255556322865147</v>
+        <v>108.84340546747021</v>
       </c>
       <c r="K86">
-        <v>108.84340546747021</v>
+        <v>102.965666767884</v>
       </c>
       <c r="L86">
-        <v>102.965666767884</v>
-      </c>
-      <c r="M86">
         <v>104.56738212848509</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>42430</v>
       </c>
+      <c r="B87">
+        <v>107.68830875341069</v>
+      </c>
       <c r="C87">
-        <v>107.68830875341069</v>
+        <v>111.4384369094445</v>
       </c>
       <c r="D87">
-        <v>111.4384369094445</v>
+        <v>107.13147856414869</v>
       </c>
       <c r="E87">
-        <v>107.13147856414869</v>
+        <v>105.87483557578081</v>
       </c>
       <c r="F87">
-        <v>105.87483557578081</v>
+        <v>101.79545543575421</v>
       </c>
       <c r="G87">
-        <v>101.79545543575421</v>
+        <v>107.7621380753581</v>
       </c>
       <c r="H87">
-        <v>107.7621380753581</v>
+        <v>101.7010302802225</v>
       </c>
       <c r="I87">
-        <v>101.7010302802225</v>
+        <v>96.549383636826235</v>
       </c>
       <c r="J87">
-        <v>96.549383636826235</v>
+        <v>113.3034620386275</v>
       </c>
       <c r="K87">
-        <v>113.3034620386275</v>
+        <v>104.2193846424471</v>
       </c>
       <c r="L87">
-        <v>104.2193846424471</v>
-      </c>
-      <c r="M87">
         <v>104.7188946820246</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>42461</v>
       </c>
+      <c r="B88">
+        <v>108.1322550184984</v>
+      </c>
       <c r="C88">
-        <v>108.1322550184984</v>
+        <v>112.18555677916029</v>
       </c>
       <c r="D88">
-        <v>112.18555677916029</v>
+        <v>107.693331315508</v>
       </c>
       <c r="E88">
-        <v>107.693331315508</v>
+        <v>105.907820676857</v>
       </c>
       <c r="F88">
-        <v>105.907820676857</v>
+        <v>103.85033729461669</v>
       </c>
       <c r="G88">
-        <v>103.85033729461669</v>
+        <v>108.73357589684839</v>
       </c>
       <c r="H88">
-        <v>108.73357589684839</v>
+        <v>101.1408120208704</v>
       </c>
       <c r="I88">
-        <v>101.1408120208704</v>
+        <v>100.9204977301213</v>
       </c>
       <c r="J88">
-        <v>100.9204977301213</v>
+        <v>113.674466161029</v>
       </c>
       <c r="K88">
-        <v>113.674466161029</v>
+        <v>105.5839544255707</v>
       </c>
       <c r="L88">
-        <v>105.5839544255707</v>
-      </c>
-      <c r="M88">
         <v>105.63773538600221</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>42491</v>
       </c>
+      <c r="B89">
+        <v>108.6484083546289</v>
+      </c>
       <c r="C89">
-        <v>108.6484083546289</v>
+        <v>112.84061556472091</v>
       </c>
       <c r="D89">
-        <v>112.84061556472091</v>
+        <v>108.21043545118459</v>
       </c>
       <c r="E89">
-        <v>108.21043545118459</v>
+        <v>105.90914153375179</v>
       </c>
       <c r="F89">
-        <v>105.90914153375179</v>
+        <v>104.43945423882479</v>
       </c>
       <c r="G89">
-        <v>104.43945423882479</v>
+        <v>109.7288249498542</v>
       </c>
       <c r="H89">
-        <v>109.7288249498542</v>
+        <v>100.67206847142729</v>
       </c>
       <c r="I89">
-        <v>100.67206847142729</v>
+        <v>101.9166551611394</v>
       </c>
       <c r="J89">
-        <v>101.9166551611394</v>
+        <v>114.26776929008891</v>
       </c>
       <c r="K89">
-        <v>114.26776929008891</v>
+        <v>107.5214113456947</v>
       </c>
       <c r="L89">
-        <v>107.5214113456947</v>
-      </c>
-      <c r="M89">
         <v>106.0138262785613</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>42522</v>
       </c>
+      <c r="B90">
+        <v>109.75058281612139</v>
+      </c>
       <c r="C90">
-        <v>109.75058281612139</v>
+        <v>115.4940859173291</v>
       </c>
       <c r="D90">
-        <v>115.4940859173291</v>
+        <v>108.2498933867362</v>
       </c>
       <c r="E90">
-        <v>108.2498933867362</v>
+        <v>105.9068665743979</v>
       </c>
       <c r="F90">
-        <v>105.9068665743979</v>
+        <v>105.09315591709399</v>
       </c>
       <c r="G90">
-        <v>105.09315591709399</v>
+        <v>109.8747062713756</v>
       </c>
       <c r="H90">
-        <v>109.8747062713756</v>
+        <v>100.87297444876739</v>
       </c>
       <c r="I90">
-        <v>100.87297444876739</v>
+        <v>102.9948858957185</v>
       </c>
       <c r="J90">
-        <v>102.9948858957185</v>
+        <v>117.17147856364031</v>
       </c>
       <c r="K90">
-        <v>117.17147856364031</v>
+        <v>104.91241100297449</v>
       </c>
       <c r="L90">
-        <v>104.91241100297449</v>
-      </c>
-      <c r="M90">
         <v>106.92771449714169</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>42552</v>
       </c>
+      <c r="B91">
+        <v>110.57780225126</v>
+      </c>
       <c r="C91">
-        <v>110.57780225126</v>
+        <v>118.54758873867399</v>
       </c>
       <c r="D91">
-        <v>118.54758873867399</v>
+        <v>107.9741001628787</v>
       </c>
       <c r="E91">
-        <v>107.9741001628787</v>
+        <v>105.74116780155779</v>
       </c>
       <c r="F91">
-        <v>105.74116780155779</v>
+        <v>107.510931927877</v>
       </c>
       <c r="G91">
-        <v>107.510931927877</v>
+        <v>110.29788988735601</v>
       </c>
       <c r="H91">
-        <v>110.29788988735601</v>
+        <v>100.99640926732449</v>
       </c>
       <c r="I91">
-        <v>100.99640926732449</v>
+        <v>107.89159699301121</v>
       </c>
       <c r="J91">
-        <v>107.89159699301121</v>
+        <v>121.35825339354361</v>
       </c>
       <c r="K91">
-        <v>121.35825339354361</v>
+        <v>107.03734964234231</v>
       </c>
       <c r="L91">
-        <v>107.03734964234231</v>
-      </c>
-      <c r="M91">
         <v>107.3862106497004</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>42583</v>
       </c>
+      <c r="B92">
+        <v>111.1166363577524</v>
+      </c>
       <c r="C92">
-        <v>111.1166363577524</v>
+        <v>119.71722402891081</v>
       </c>
       <c r="D92">
-        <v>119.71722402891081</v>
+        <v>108.5621276462256</v>
       </c>
       <c r="E92">
-        <v>108.5621276462256</v>
+        <v>106.12716222528491</v>
       </c>
       <c r="F92">
-        <v>106.12716222528491</v>
+        <v>108.13577552697301</v>
       </c>
       <c r="G92">
-        <v>108.13577552697301</v>
+        <v>111.11246266099209</v>
       </c>
       <c r="H92">
-        <v>111.11246266099209</v>
+        <v>101.389781753242</v>
       </c>
       <c r="I92">
-        <v>101.389781753242</v>
+        <v>108.1349967781825</v>
       </c>
       <c r="J92">
-        <v>108.1349967781825</v>
+        <v>122.826595828761</v>
       </c>
       <c r="K92">
-        <v>122.826595828761</v>
+        <v>108.2069720479885</v>
       </c>
       <c r="L92">
-        <v>108.2069720479885</v>
-      </c>
-      <c r="M92">
         <v>107.67328062750219</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>42614</v>
       </c>
+      <c r="B93">
+        <v>111.85034731993829</v>
+      </c>
       <c r="C93">
-        <v>111.85034731993829</v>
+        <v>122.4660092225467</v>
       </c>
       <c r="D93">
-        <v>122.4660092225467</v>
+        <v>107.95096248399059</v>
       </c>
       <c r="E93">
-        <v>107.95096248399059</v>
+        <v>105.60351516079589</v>
       </c>
       <c r="F93">
-        <v>105.60351516079589</v>
+        <v>108.347957257942</v>
       </c>
       <c r="G93">
-        <v>108.347957257942</v>
+        <v>111.4288678048656</v>
       </c>
       <c r="H93">
-        <v>111.4288678048656</v>
+        <v>101.9529670480964</v>
       </c>
       <c r="I93">
-        <v>101.9529670480964</v>
+        <v>108.39967113232851</v>
       </c>
       <c r="J93">
-        <v>108.39967113232851</v>
+        <v>125.3034839492308</v>
       </c>
       <c r="K93">
-        <v>125.3034839492308</v>
+        <v>105.229342982527</v>
       </c>
       <c r="L93">
-        <v>105.229342982527</v>
-      </c>
-      <c r="M93">
         <v>108.2071904127089</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>42644</v>
       </c>
+      <c r="B94">
+        <v>113.87894195373011</v>
+      </c>
       <c r="C94">
-        <v>113.87894195373011</v>
+        <v>129.13625283463611</v>
       </c>
       <c r="D94">
-        <v>129.13625283463611</v>
+        <v>108.2235121481672</v>
       </c>
       <c r="E94">
-        <v>108.2235121481672</v>
+        <v>105.57681354365199</v>
       </c>
       <c r="F94">
-        <v>105.57681354365199</v>
+        <v>108.3432399159686</v>
       </c>
       <c r="G94">
-        <v>108.3432399159686</v>
+        <v>113.2527342053333</v>
       </c>
       <c r="H94">
-        <v>113.2527342053333</v>
+        <v>103.52563913296071</v>
       </c>
       <c r="I94">
-        <v>103.52563913296071</v>
+        <v>106.5351224057668</v>
       </c>
       <c r="J94">
-        <v>106.5351224057668</v>
+        <v>133.02301201095389</v>
       </c>
       <c r="K94">
-        <v>133.02301201095389</v>
+        <v>105.8949760210065</v>
       </c>
       <c r="L94">
-        <v>105.8949760210065</v>
-      </c>
-      <c r="M94">
         <v>108.3562527346137</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>42675</v>
       </c>
+      <c r="B95">
+        <v>113.6678650920159</v>
+      </c>
       <c r="C95">
-        <v>113.6678650920159</v>
+        <v>128.848220539545</v>
       </c>
       <c r="D95">
-        <v>128.848220539545</v>
+        <v>107.7500980157804</v>
       </c>
       <c r="E95">
-        <v>107.7500980157804</v>
+        <v>106.0730969080046</v>
       </c>
       <c r="F95">
-        <v>106.0730969080046</v>
+        <v>109.5864062512097</v>
       </c>
       <c r="G95">
-        <v>109.5864062512097</v>
+        <v>114.5598033048917</v>
       </c>
       <c r="H95">
-        <v>114.5598033048917</v>
+        <v>103.4211345083684</v>
       </c>
       <c r="I95">
-        <v>103.4211345083684</v>
+        <v>108.8339681914622</v>
       </c>
       <c r="J95">
-        <v>108.8339681914622</v>
+        <v>131.4631962780648</v>
       </c>
       <c r="K95">
-        <v>131.4631962780648</v>
+        <v>106.00150262102029</v>
       </c>
       <c r="L95">
-        <v>106.00150262102029</v>
-      </c>
-      <c r="M95">
         <v>108.9251445337823</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>42705</v>
       </c>
+      <c r="B96">
+        <v>113.9007674676543</v>
+      </c>
       <c r="C96">
-        <v>113.9007674676543</v>
+        <v>129.53704058791581</v>
       </c>
       <c r="D96">
-        <v>129.53704058791581</v>
+        <v>107.7803276491981</v>
       </c>
       <c r="E96">
-        <v>107.7803276491981</v>
+        <v>106.087226006731</v>
       </c>
       <c r="F96">
-        <v>106.087226006731</v>
+        <v>110.2247702189444</v>
       </c>
       <c r="G96">
-        <v>110.2247702189444</v>
+        <v>115.5707196194564</v>
       </c>
       <c r="H96">
-        <v>115.5707196194564</v>
+        <v>103.6534473282443</v>
       </c>
       <c r="I96">
-        <v>103.6534473282443</v>
+        <v>109.6552613548894</v>
       </c>
       <c r="J96">
-        <v>109.6552613548894</v>
+        <v>130.70958420008279</v>
       </c>
       <c r="K96">
-        <v>130.70958420008279</v>
+        <v>105.79902591757271</v>
       </c>
       <c r="L96">
-        <v>105.79902591757271</v>
-      </c>
-      <c r="M96">
         <v>109.57161930940811</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>42736</v>
       </c>
+      <c r="B97">
+        <v>113.218997177107</v>
+      </c>
       <c r="C97">
-        <v>113.218997177107</v>
+        <v>126.7745765765596</v>
       </c>
       <c r="D97">
-        <v>126.7745765765596</v>
+        <v>108.0843993731397</v>
       </c>
       <c r="E97">
-        <v>108.0843993731397</v>
+        <v>106.205660110022</v>
       </c>
       <c r="F97">
-        <v>106.205660110022</v>
+        <v>110.3258026350391</v>
       </c>
       <c r="G97">
-        <v>110.3258026350391</v>
+        <v>114.39501132628411</v>
       </c>
       <c r="H97">
-        <v>114.39501132628411</v>
+        <v>103.5949030338689</v>
       </c>
       <c r="I97">
-        <v>103.5949030338689</v>
+        <v>109.7351898927553</v>
       </c>
       <c r="J97">
-        <v>109.7351898927553</v>
+        <v>126.9697090220474</v>
       </c>
       <c r="K97">
-        <v>126.9697090220474</v>
+        <v>105.1005387974119</v>
       </c>
       <c r="L97">
-        <v>105.1005387974119</v>
-      </c>
-      <c r="M97">
         <v>109.8710125096992</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>42767</v>
       </c>
+      <c r="B98">
+        <v>114.6743163265995</v>
+      </c>
       <c r="C98">
-        <v>114.6743163265995</v>
+        <v>129.57935191349631</v>
       </c>
       <c r="D98">
-        <v>129.57935191349631</v>
+        <v>108.99334456975269</v>
       </c>
       <c r="E98">
-        <v>108.99334456975269</v>
+        <v>106.2182427903095</v>
       </c>
       <c r="F98">
-        <v>106.2182427903095</v>
+        <v>110.89478410960589</v>
       </c>
       <c r="G98">
-        <v>110.89478410960589</v>
+        <v>114.87062498290329</v>
       </c>
       <c r="H98">
-        <v>114.87062498290329</v>
+        <v>103.7526425988893</v>
       </c>
       <c r="I98">
-        <v>103.7526425988893</v>
+        <v>110.3568626351956</v>
       </c>
       <c r="J98">
-        <v>110.3568626351956</v>
+        <v>130.67028637733199</v>
       </c>
       <c r="K98">
-        <v>130.67028637733199</v>
+        <v>107.7101265873675</v>
       </c>
       <c r="L98">
-        <v>107.7101265873675</v>
-      </c>
-      <c r="M98">
         <v>110.3806692108936</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>42795</v>
       </c>
+      <c r="B99">
+        <v>115.538627508947</v>
+      </c>
       <c r="C99">
-        <v>115.538627508947</v>
+        <v>131.45224010875151</v>
       </c>
       <c r="D99">
-        <v>131.45224010875151</v>
+        <v>109.86296518803459</v>
       </c>
       <c r="E99">
-        <v>109.86296518803459</v>
+        <v>106.261984250346</v>
       </c>
       <c r="F99">
-        <v>106.261984250346</v>
+        <v>111.0387228029125</v>
       </c>
       <c r="G99">
-        <v>111.0387228029125</v>
+        <v>115.8408408548304</v>
       </c>
       <c r="H99">
-        <v>115.8408408548304</v>
+        <v>103.2162341187295</v>
       </c>
       <c r="I99">
-        <v>103.2162341187295</v>
+        <v>110.5414014878675</v>
       </c>
       <c r="J99">
-        <v>110.5414014878675</v>
+        <v>132.94655246646849</v>
       </c>
       <c r="K99">
-        <v>132.94655246646849</v>
+        <v>111.42969911977281</v>
       </c>
       <c r="L99">
-        <v>111.42969911977281</v>
-      </c>
-      <c r="M99">
         <v>110.37378204255771</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>42826</v>
       </c>
+      <c r="B100">
+        <v>115.91696790959089</v>
+      </c>
       <c r="C100">
-        <v>115.91696790959089</v>
+        <v>131.97989880769731</v>
       </c>
       <c r="D100">
-        <v>131.97989880769731</v>
+        <v>110.1481785333597</v>
       </c>
       <c r="E100">
-        <v>110.1481785333597</v>
+        <v>106.1803212263178</v>
       </c>
       <c r="F100">
-        <v>106.1803212263178</v>
+        <v>111.5731218553036</v>
       </c>
       <c r="G100">
-        <v>111.5731218553036</v>
+        <v>116.91040446037491</v>
       </c>
       <c r="H100">
-        <v>116.91040446037491</v>
+        <v>103.3364708064487</v>
       </c>
       <c r="I100">
-        <v>103.3364708064487</v>
+        <v>110.8652684567389</v>
       </c>
       <c r="J100">
-        <v>110.8652684567389</v>
+        <v>133.4656531056996</v>
       </c>
       <c r="K100">
-        <v>133.4656531056996</v>
+        <v>112.0530752921174</v>
       </c>
       <c r="L100">
-        <v>112.0530752921174</v>
-      </c>
-      <c r="M100">
         <v>110.7476385550552</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>42856</v>
       </c>
+      <c r="B101">
+        <v>115.6496321656409</v>
+      </c>
       <c r="C101">
-        <v>115.6496321656409</v>
+        <v>131.0266910457089</v>
       </c>
       <c r="D101">
-        <v>131.0266910457089</v>
+        <v>110.253973842516</v>
       </c>
       <c r="E101">
-        <v>110.253973842516</v>
+        <v>106.2496062273255</v>
       </c>
       <c r="F101">
-        <v>106.2496062273255</v>
+        <v>111.5503681805846</v>
       </c>
       <c r="G101">
-        <v>111.5503681805846</v>
+        <v>116.6025080932281</v>
       </c>
       <c r="H101">
-        <v>116.6025080932281</v>
+        <v>103.2251387596985</v>
       </c>
       <c r="I101">
-        <v>103.2251387596985</v>
+        <v>110.7092640499325</v>
       </c>
       <c r="J101">
-        <v>110.7092640499325</v>
+        <v>130.24885174726171</v>
       </c>
       <c r="K101">
-        <v>130.24885174726171</v>
+        <v>111.8460619498136</v>
       </c>
       <c r="L101">
-        <v>111.8460619498136</v>
-      </c>
-      <c r="M101">
         <v>111.2433882834878</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
         <v>42887</v>
       </c>
+      <c r="B102">
+        <v>114.4318291861895</v>
+      </c>
       <c r="C102">
-        <v>114.4318291861895</v>
+        <v>127.5274477556891</v>
       </c>
       <c r="D102">
-        <v>127.5274477556891</v>
+        <v>109.9342968224022</v>
       </c>
       <c r="E102">
-        <v>109.9342968224022</v>
+        <v>105.6757325027681</v>
       </c>
       <c r="F102">
-        <v>105.6757325027681</v>
+        <v>111.842350029708</v>
       </c>
       <c r="G102">
-        <v>111.842350029708</v>
+        <v>116.73073582275541</v>
       </c>
       <c r="H102">
-        <v>116.73073582275541</v>
+        <v>103.81649547399969</v>
       </c>
       <c r="I102">
-        <v>103.81649547399969</v>
+        <v>110.9447591263406</v>
       </c>
       <c r="J102">
-        <v>110.9447591263406</v>
+        <v>125.25223090723441</v>
       </c>
       <c r="K102">
-        <v>125.25223090723441</v>
+        <v>110.7830929997434</v>
       </c>
       <c r="L102">
-        <v>110.7830929997434</v>
-      </c>
-      <c r="M102">
         <v>111.2319474176315</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>42917</v>
       </c>
+      <c r="B103">
+        <v>114.23223947565469</v>
+      </c>
       <c r="C103">
-        <v>114.23223947565469</v>
+        <v>126.5975972070966</v>
       </c>
       <c r="D103">
-        <v>126.5975972070966</v>
+        <v>109.9941626935634</v>
       </c>
       <c r="E103">
-        <v>109.9941626935634</v>
+        <v>105.6087864823248</v>
       </c>
       <c r="F103">
-        <v>105.6087864823248</v>
+        <v>111.9854636590011</v>
       </c>
       <c r="G103">
-        <v>111.9854636590011</v>
+        <v>116.9037806426754</v>
       </c>
       <c r="H103">
-        <v>116.9037806426754</v>
+        <v>103.6501849514282</v>
       </c>
       <c r="I103">
-        <v>103.6501849514282</v>
+        <v>109.68694410369</v>
       </c>
       <c r="J103">
-        <v>109.68694410369</v>
+        <v>124.42994602723221</v>
       </c>
       <c r="K103">
-        <v>124.42994602723221</v>
+        <v>110.22500385727859</v>
       </c>
       <c r="L103">
-        <v>110.22500385727859</v>
-      </c>
-      <c r="M103">
         <v>111.2929450219459</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <v>42948</v>
       </c>
+      <c r="B104">
+        <v>114.5476316076585</v>
+      </c>
       <c r="C104">
-        <v>114.5476316076585</v>
+        <v>128.21811187307131</v>
       </c>
       <c r="D104">
-        <v>128.21811187307131</v>
+        <v>109.55806553994459</v>
       </c>
       <c r="E104">
-        <v>109.55806553994459</v>
+        <v>106.27547521071391</v>
       </c>
       <c r="F104">
-        <v>106.27547521071391</v>
+        <v>112.1330270002306</v>
       </c>
       <c r="G104">
-        <v>112.1330270002306</v>
+        <v>116.95857166107049</v>
       </c>
       <c r="H104">
-        <v>116.95857166107049</v>
+        <v>103.6944685856963</v>
       </c>
       <c r="I104">
-        <v>103.6944685856963</v>
+        <v>109.961667337911</v>
       </c>
       <c r="J104">
-        <v>109.961667337911</v>
+        <v>127.479860306801</v>
       </c>
       <c r="K104">
-        <v>127.479860306801</v>
+        <v>109.06291083202591</v>
       </c>
       <c r="L104">
-        <v>109.06291083202591</v>
-      </c>
-      <c r="M104">
         <v>111.1331946136297</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
         <v>42979</v>
       </c>
+      <c r="B105">
+        <v>116.0852248070376</v>
+      </c>
       <c r="C105">
-        <v>116.0852248070376</v>
+        <v>133.3006279799838</v>
       </c>
       <c r="D105">
-        <v>133.3006279799838</v>
+        <v>110.55427436593379</v>
       </c>
       <c r="E105">
-        <v>110.55427436593379</v>
+        <v>105.62966630222689</v>
       </c>
       <c r="F105">
-        <v>105.62966630222689</v>
+        <v>112.3708883669087</v>
       </c>
       <c r="G105">
-        <v>112.3708883669087</v>
+        <v>118.16924826424091</v>
       </c>
       <c r="H105">
-        <v>118.16924826424091</v>
+        <v>102.8894939405499</v>
       </c>
       <c r="I105">
-        <v>102.8894939405499</v>
+        <v>111.2065901769268</v>
       </c>
       <c r="J105">
-        <v>111.2065901769268</v>
+        <v>134.50012539906439</v>
       </c>
       <c r="K105">
-        <v>134.50012539906439</v>
+        <v>112.46875966991369</v>
       </c>
       <c r="L105">
-        <v>112.46875966991369</v>
-      </c>
-      <c r="M105">
         <v>111.001902791319</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
         <v>43009</v>
       </c>
+      <c r="B106">
+        <v>117.36975769425059</v>
+      </c>
       <c r="C106">
-        <v>117.36975769425059</v>
+        <v>137.61837090682781</v>
       </c>
       <c r="D106">
-        <v>137.61837090682781</v>
+        <v>110.8418842954584</v>
       </c>
       <c r="E106">
-        <v>110.8418842954584</v>
+        <v>105.73573421710149</v>
       </c>
       <c r="F106">
-        <v>105.73573421710149</v>
+        <v>114.1116045044953</v>
       </c>
       <c r="G106">
-        <v>114.1116045044953</v>
+        <v>120.11329051782479</v>
       </c>
       <c r="H106">
-        <v>120.11329051782479</v>
+        <v>103.0927329928371</v>
       </c>
       <c r="I106">
-        <v>103.0927329928371</v>
+        <v>112.6248505617688</v>
       </c>
       <c r="J106">
-        <v>112.6248505617688</v>
+        <v>140.28871794495501</v>
       </c>
       <c r="K106">
-        <v>140.28871794495501</v>
+        <v>113.3920273080785</v>
       </c>
       <c r="L106">
-        <v>113.3920273080785</v>
-      </c>
-      <c r="M106">
         <v>111.53563013717751</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
-        <v>105</v>
-      </c>
-      <c r="B107" s="2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
         <v>43040</v>
       </c>
+      <c r="B107">
+        <v>115.40590641536581</v>
+      </c>
       <c r="C107">
-        <v>115.40590641536581</v>
+        <v>131.05560485543319</v>
       </c>
       <c r="D107">
-        <v>131.05560485543319</v>
+        <v>109.9319177080156</v>
       </c>
       <c r="E107">
-        <v>109.9319177080156</v>
+        <v>105.9556875526111</v>
       </c>
       <c r="F107">
-        <v>105.9556875526111</v>
+        <v>114.6570155270354</v>
       </c>
       <c r="G107">
-        <v>114.6570155270354</v>
+        <v>118.93011890161389</v>
       </c>
       <c r="H107">
-        <v>118.93011890161389</v>
+        <v>104.032274614855</v>
       </c>
       <c r="I107">
-        <v>104.032274614855</v>
+        <v>114.8122389274063</v>
       </c>
       <c r="J107">
-        <v>114.8122389274063</v>
+        <v>131.27148119369321</v>
       </c>
       <c r="K107">
-        <v>131.27148119369321</v>
+        <v>111.5933882025403</v>
       </c>
       <c r="L107">
-        <v>111.5933882025403</v>
-      </c>
-      <c r="M107">
         <v>111.74166872665531</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
         <v>43070</v>
       </c>
+      <c r="B108">
+        <v>113.5242853454381</v>
+      </c>
       <c r="C108">
-        <v>113.5242853454381</v>
+        <v>123.34889658809909</v>
       </c>
       <c r="D108">
-        <v>123.34889658809909</v>
+        <v>110.357596583554</v>
       </c>
       <c r="E108">
-        <v>110.357596583554</v>
+        <v>107.0454921778165</v>
       </c>
       <c r="F108">
-        <v>107.0454921778165</v>
+        <v>114.7662942558821</v>
       </c>
       <c r="G108">
-        <v>114.7662942558821</v>
+        <v>119.3594711348217</v>
       </c>
       <c r="H108">
-        <v>119.3594711348217</v>
+        <v>104.0434737762947</v>
       </c>
       <c r="I108">
-        <v>104.0434737762947</v>
+        <v>114.50640969194831</v>
       </c>
       <c r="J108">
-        <v>114.50640969194831</v>
+        <v>121.4814138564208</v>
       </c>
       <c r="K108">
-        <v>121.4814138564208</v>
+        <v>112.8325453233293</v>
       </c>
       <c r="L108">
-        <v>112.8325453233293</v>
-      </c>
-      <c r="M108">
         <v>111.7882876127251</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
-        <v>107</v>
-      </c>
-      <c r="B109" s="2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
         <v>43101</v>
       </c>
+      <c r="B109">
+        <v>113.71494714887901</v>
+      </c>
       <c r="C109">
-        <v>113.71494714887901</v>
+        <v>123.5554437561279</v>
       </c>
       <c r="D109">
-        <v>123.5554437561279</v>
+        <v>110.4980326552715</v>
       </c>
       <c r="E109">
-        <v>110.4980326552715</v>
+        <v>107.0053793396778</v>
       </c>
       <c r="F109">
-        <v>107.0053793396778</v>
+        <v>114.949782959092</v>
       </c>
       <c r="G109">
-        <v>114.949782959092</v>
+        <v>118.729565557635</v>
       </c>
       <c r="H109">
-        <v>118.729565557635</v>
+        <v>104.23764305321509</v>
       </c>
       <c r="I109">
-        <v>104.23764305321509</v>
+        <v>114.6269649276725</v>
       </c>
       <c r="J109">
-        <v>114.6269649276725</v>
+        <v>121.7476347480616</v>
       </c>
       <c r="K109">
-        <v>121.7476347480616</v>
+        <v>112.9446029959078</v>
       </c>
       <c r="L109">
-        <v>112.9446029959078</v>
-      </c>
-      <c r="M109">
         <v>111.96750190956659</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>43132</v>
       </c>
+      <c r="B110">
+        <v>114.42996009771581</v>
+      </c>
       <c r="C110">
-        <v>114.42996009771581</v>
+        <v>124.3053478802544</v>
       </c>
       <c r="D110">
-        <v>124.3053478802544</v>
+        <v>112.15607730808421</v>
       </c>
       <c r="E110">
-        <v>112.15607730808421</v>
+        <v>106.2439068248738</v>
       </c>
       <c r="F110">
-        <v>106.2439068248738</v>
+        <v>115.3413247543334</v>
       </c>
       <c r="G110">
-        <v>115.3413247543334</v>
+        <v>119.1004286657991</v>
       </c>
       <c r="H110">
-        <v>119.1004286657991</v>
+        <v>104.4429593219627</v>
       </c>
       <c r="I110">
-        <v>104.4429593219627</v>
+        <v>115.39738993377721</v>
       </c>
       <c r="J110">
-        <v>115.39738993377721</v>
+        <v>123.7204980719016</v>
       </c>
       <c r="K110">
-        <v>123.7204980719016</v>
+        <v>116.9735204339089</v>
       </c>
       <c r="L110">
-        <v>116.9735204339089</v>
-      </c>
-      <c r="M110">
         <v>112.0363575373912</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>43160</v>
       </c>
+      <c r="B111">
+        <v>115.1033953525408</v>
+      </c>
       <c r="C111">
-        <v>115.1033953525408</v>
+        <v>126.6091346321209</v>
       </c>
       <c r="D111">
-        <v>126.6091346321209</v>
+        <v>112.27056264777261</v>
       </c>
       <c r="E111">
-        <v>112.27056264777261</v>
+        <v>106.3181952604935</v>
       </c>
       <c r="F111">
-        <v>106.3181952604935</v>
+        <v>116.6569984554985</v>
       </c>
       <c r="G111">
-        <v>116.6569984554985</v>
+        <v>120.1449645254758</v>
       </c>
       <c r="H111">
-        <v>120.1449645254758</v>
+        <v>104.86016417641</v>
       </c>
       <c r="I111">
-        <v>104.86016417641</v>
+        <v>118.8219150011172</v>
       </c>
       <c r="J111">
-        <v>118.8219150011172</v>
+        <v>127.5959938402337</v>
       </c>
       <c r="K111">
-        <v>127.5959938402337</v>
+        <v>117.8708703917389</v>
       </c>
       <c r="L111">
-        <v>117.8708703917389</v>
-      </c>
-      <c r="M111">
         <v>112.22946707745611</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <v>110</v>
-      </c>
-      <c r="B112" s="2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
         <v>43200</v>
       </c>
+      <c r="B112">
+        <v>116.8716168717818</v>
+      </c>
       <c r="C112">
-        <v>116.8716168717818</v>
+        <v>128.6610930074213</v>
       </c>
       <c r="D112">
-        <v>128.6610930074213</v>
+        <v>114.3226597808569</v>
       </c>
       <c r="E112">
-        <v>114.3226597808569</v>
+        <v>113.784552808318</v>
       </c>
       <c r="F112">
-        <v>113.784552808318</v>
+        <v>117.0500257432559</v>
       </c>
       <c r="G112">
-        <v>117.0500257432559</v>
+        <v>119.7248266375494</v>
       </c>
       <c r="H112">
-        <v>119.7248266375494</v>
+        <v>104.9763993112054</v>
       </c>
       <c r="I112">
-        <v>104.9763993112054</v>
+        <v>120.03933148737509</v>
       </c>
       <c r="J112">
-        <v>120.03933148737509</v>
+        <v>130.15050054405191</v>
       </c>
       <c r="K112">
-        <v>130.15050054405191</v>
+        <v>123.99310106406701</v>
       </c>
       <c r="L112">
-        <v>123.99310106406701</v>
-      </c>
-      <c r="M112">
         <v>113.03740458440799</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
-        <v>111</v>
-      </c>
-      <c r="B113" s="2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
         <v>43230</v>
       </c>
+      <c r="B113">
+        <v>118.3300232856238</v>
+      </c>
       <c r="C113">
-        <v>118.3300232856238</v>
+        <v>132.42276176104471</v>
       </c>
       <c r="D113">
-        <v>132.42276176104471</v>
+        <v>116.1392918068134</v>
       </c>
       <c r="E113">
-        <v>116.1392918068134</v>
+        <v>113.57677553325919</v>
       </c>
       <c r="F113">
-        <v>113.57677553325919</v>
+        <v>117.5129023692395</v>
       </c>
       <c r="G113">
-        <v>117.5129023692395</v>
+        <v>120.0091007188812</v>
       </c>
       <c r="H113">
-        <v>120.0091007188812</v>
+        <v>105.2630995666234</v>
       </c>
       <c r="I113">
-        <v>105.2630995666234</v>
+        <v>120.9539808364283</v>
       </c>
       <c r="J113">
-        <v>120.9539808364283</v>
+        <v>135.00356899577909</v>
       </c>
       <c r="K113">
-        <v>135.00356899577909</v>
+        <v>128.95239944671101</v>
       </c>
       <c r="L113">
-        <v>128.95239944671101</v>
-      </c>
-      <c r="M113">
         <v>113.19691430566979</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
         <v>43261</v>
       </c>
+      <c r="B114">
+        <v>117.0943243387449</v>
+      </c>
       <c r="C114">
-        <v>117.0943243387449</v>
+        <v>129.46571988410329</v>
       </c>
       <c r="D114">
-        <v>129.46571988410329</v>
+        <v>114.3536837337201</v>
       </c>
       <c r="E114">
-        <v>114.3536837337201</v>
+        <v>114.74604399622341</v>
       </c>
       <c r="F114">
-        <v>114.74604399622341</v>
+        <v>117.1317691159288</v>
       </c>
       <c r="G114">
-        <v>117.1317691159288</v>
+        <v>119.6359349132204</v>
       </c>
       <c r="H114">
-        <v>119.6359349132204</v>
+        <v>105.2657202976927</v>
       </c>
       <c r="I114">
-        <v>105.2657202976927</v>
+        <v>120.863371882184</v>
       </c>
       <c r="J114">
-        <v>120.863371882184</v>
+        <v>131.54942201389031</v>
       </c>
       <c r="K114">
-        <v>131.54942201389031</v>
+        <v>124.15120007798561</v>
       </c>
       <c r="L114">
-        <v>124.15120007798561</v>
-      </c>
-      <c r="M114">
         <v>112.98459339982431</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
-        <v>113</v>
-      </c>
-      <c r="B115" s="2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
         <v>43291</v>
       </c>
+      <c r="B115">
+        <v>115.5481234658002</v>
+      </c>
       <c r="C115">
-        <v>115.5481234658002</v>
+        <v>124.8053435471399</v>
       </c>
       <c r="D115">
-        <v>124.8053435471399</v>
+        <v>113.39272319069509</v>
       </c>
       <c r="E115">
-        <v>113.39272319069509</v>
+        <v>114.74398500692369</v>
       </c>
       <c r="F115">
-        <v>114.74398500692369</v>
+        <v>117.30225041438371</v>
       </c>
       <c r="G115">
-        <v>117.30225041438371</v>
+        <v>118.8365021791498</v>
       </c>
       <c r="H115">
-        <v>118.8365021791498</v>
+        <v>105.2631345744348</v>
       </c>
       <c r="I115">
-        <v>105.2631345744348</v>
+        <v>122.57554727456851</v>
       </c>
       <c r="J115">
-        <v>122.57554727456851</v>
+        <v>126.24131553557091</v>
       </c>
       <c r="K115">
-        <v>126.24131553557091</v>
+        <v>121.2435607479833</v>
       </c>
       <c r="L115">
-        <v>121.2435607479833</v>
-      </c>
-      <c r="M115">
         <v>112.83831067784099</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
-        <v>114</v>
-      </c>
-      <c r="B116" s="2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
         <v>43322</v>
       </c>
+      <c r="B116">
+        <v>116.0824918405976</v>
+      </c>
       <c r="C116">
-        <v>116.0824918405976</v>
+        <v>125.9414662309116</v>
       </c>
       <c r="D116">
-        <v>125.9414662309116</v>
+        <v>113.5668275109265</v>
       </c>
       <c r="E116">
-        <v>113.5668275109265</v>
+        <v>116.06188695078841</v>
       </c>
       <c r="F116">
-        <v>116.06188695078841</v>
+        <v>117.5943222719529</v>
       </c>
       <c r="G116">
-        <v>117.5943222719529</v>
+        <v>119.803993818885</v>
       </c>
       <c r="H116">
-        <v>119.803993818885</v>
+        <v>105.3148459333774</v>
       </c>
       <c r="I116">
-        <v>105.3148459333774</v>
+        <v>122.7679126019561</v>
       </c>
       <c r="J116">
-        <v>122.7679126019561</v>
+        <v>128.97166078484071</v>
       </c>
       <c r="K116">
-        <v>128.97166078484071</v>
+        <v>121.465602448496</v>
       </c>
       <c r="L116">
-        <v>121.465602448496</v>
-      </c>
-      <c r="M116">
         <v>112.8807971581785</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
-        <v>115</v>
-      </c>
-      <c r="B117" s="2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
         <v>43353</v>
       </c>
+      <c r="B117">
+        <v>116.2364594540537</v>
+      </c>
       <c r="C117">
-        <v>116.2364594540537</v>
+        <v>124.6741233614524</v>
       </c>
       <c r="D117">
-        <v>124.6741233614524</v>
+        <v>114.972758061457</v>
       </c>
       <c r="E117">
-        <v>114.972758061457</v>
+        <v>116.43295658193441</v>
       </c>
       <c r="F117">
-        <v>116.43295658193441</v>
+        <v>117.9181998569052</v>
       </c>
       <c r="G117">
-        <v>117.9181998569052</v>
+        <v>119.7586523878537</v>
       </c>
       <c r="H117">
-        <v>119.7586523878537</v>
+        <v>105.3608337376097</v>
       </c>
       <c r="I117">
-        <v>105.3608337376097</v>
+        <v>122.7454370633052</v>
       </c>
       <c r="J117">
-        <v>122.7454370633052</v>
+        <v>129.09246807420769</v>
       </c>
       <c r="K117">
-        <v>129.09246807420769</v>
+        <v>125.4270745278488</v>
       </c>
       <c r="L117">
-        <v>125.4270745278488</v>
-      </c>
-      <c r="M117">
         <v>112.7561145044716</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
-        <v>116</v>
-      </c>
-      <c r="B118" s="2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
         <v>43383</v>
       </c>
+      <c r="B118">
+        <v>115.3499363244796</v>
+      </c>
       <c r="C118">
-        <v>115.3499363244796</v>
+        <v>120.8274994121285</v>
       </c>
       <c r="D118">
-        <v>120.8274994121285</v>
+        <v>114.5883652093394</v>
       </c>
       <c r="E118">
-        <v>114.5883652093394</v>
+        <v>116.99495930900071</v>
       </c>
       <c r="F118">
-        <v>116.99495930900071</v>
+        <v>117.82252468768669</v>
       </c>
       <c r="G118">
-        <v>117.82252468768669</v>
+        <v>119.08349745730141</v>
       </c>
       <c r="H118">
-        <v>119.08349745730141</v>
+        <v>105.66657548633231</v>
       </c>
       <c r="I118">
-        <v>105.66657548633231</v>
+        <v>123.10601720110419</v>
       </c>
       <c r="J118">
-        <v>123.10601720110419</v>
+        <v>123.9691863202156</v>
       </c>
       <c r="K118">
-        <v>123.9691863202156</v>
+        <v>123.9966499798056</v>
       </c>
       <c r="L118">
-        <v>123.9966499798056</v>
-      </c>
-      <c r="M118">
         <v>113.0150194107715</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
         <v>43414</v>
       </c>
+      <c r="B119">
+        <v>114.3808630589461</v>
+      </c>
       <c r="C119">
-        <v>114.3808630589461</v>
+        <v>117.88246285125911</v>
       </c>
       <c r="D119">
-        <v>117.88246285125911</v>
+        <v>113.2192054031302</v>
       </c>
       <c r="E119">
-        <v>113.2192054031302</v>
+        <v>117.6322606991943</v>
       </c>
       <c r="F119">
-        <v>117.6322606991943</v>
+        <v>118.4484486826329</v>
       </c>
       <c r="G119">
-        <v>118.4484486826329</v>
+        <v>119.03121384669279</v>
       </c>
       <c r="H119">
-        <v>119.03121384669279</v>
+        <v>106.38074937693899</v>
       </c>
       <c r="I119">
-        <v>106.38074937693899</v>
+        <v>124.6281784810834</v>
       </c>
       <c r="J119">
-        <v>124.6281784810834</v>
+        <v>120.217906634928</v>
       </c>
       <c r="K119">
-        <v>120.217906634928</v>
+        <v>121.4416030821132</v>
       </c>
       <c r="L119">
-        <v>121.4416030821132</v>
-      </c>
-      <c r="M119">
         <v>113.228219601541</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
         <v>43444</v>
       </c>
+      <c r="B120">
+        <v>114.0427665732599</v>
+      </c>
       <c r="C120">
-        <v>114.0427665732599</v>
+        <v>116.6646652725412</v>
       </c>
       <c r="D120">
-        <v>116.6646652725412</v>
+        <v>113.1018902141345</v>
       </c>
       <c r="E120">
-        <v>113.1018902141345</v>
+        <v>117.9355772264641</v>
       </c>
       <c r="F120">
-        <v>117.9355772264641</v>
+        <v>118.62851114198691</v>
       </c>
       <c r="G120">
-        <v>118.62851114198691</v>
+        <v>119.3039325071162</v>
       </c>
       <c r="H120">
-        <v>119.3039325071162</v>
+        <v>106.9630045430211</v>
       </c>
       <c r="I120">
-        <v>106.9630045430211</v>
+        <v>124.63970584590299</v>
       </c>
       <c r="J120">
-        <v>124.63970584590299</v>
+        <v>118.43042681754829</v>
       </c>
       <c r="K120">
-        <v>118.43042681754829</v>
+        <v>120.5610496523955</v>
       </c>
       <c r="L120">
-        <v>120.5610496523955</v>
-      </c>
-      <c r="M120">
         <v>113.38718262308841</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
         <v>43475</v>
       </c>
+      <c r="B121">
+        <v>114.29836405970509</v>
+      </c>
       <c r="C121">
-        <v>114.29836405970509</v>
+        <v>116.56461131781801</v>
       </c>
       <c r="D121">
-        <v>116.56461131781801</v>
+        <v>113.3930492953782</v>
       </c>
       <c r="E121">
-        <v>113.3930492953782</v>
+        <v>118.276391077556</v>
       </c>
       <c r="F121">
-        <v>118.276391077556</v>
+        <v>117.9986268464999</v>
       </c>
       <c r="G121">
-        <v>117.9986268464999</v>
+        <v>118.927313193484</v>
       </c>
       <c r="H121">
-        <v>118.927313193484</v>
+        <v>107.18383047957241</v>
       </c>
       <c r="I121">
-        <v>107.18383047957241</v>
+        <v>121.5058629649758</v>
       </c>
       <c r="J121">
-        <v>121.5058629649758</v>
+        <v>118.4625674178415</v>
       </c>
       <c r="K121">
-        <v>118.4625674178415</v>
+        <v>118.28554352095949</v>
       </c>
       <c r="L121">
-        <v>118.28554352095949</v>
-      </c>
-      <c r="M121">
         <v>113.6461364667913</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>120</v>
-      </c>
-      <c r="B122" s="2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
         <v>43506</v>
       </c>
+      <c r="B122">
+        <v>114.64995138315</v>
+      </c>
       <c r="C122">
-        <v>114.64995138315</v>
+        <v>117.6084585489582</v>
       </c>
       <c r="D122">
-        <v>117.6084585489582</v>
+        <v>113.52104123496299</v>
       </c>
       <c r="E122">
-        <v>113.52104123496299</v>
+        <v>117.973329418471</v>
       </c>
       <c r="F122">
-        <v>117.973329418471</v>
+        <v>118.3285443581555</v>
       </c>
       <c r="G122">
-        <v>118.3285443581555</v>
+        <v>119.0440786955685</v>
       </c>
       <c r="H122">
-        <v>119.0440786955685</v>
+        <v>107.1249089959681</v>
       </c>
       <c r="I122">
-        <v>107.1249089959681</v>
+        <v>121.73982097311711</v>
       </c>
       <c r="J122">
-        <v>121.73982097311711</v>
+        <v>119.93375935854679</v>
       </c>
       <c r="K122">
-        <v>119.93375935854679</v>
+        <v>118.24718785568029</v>
       </c>
       <c r="L122">
-        <v>118.24718785568029</v>
-      </c>
-      <c r="M122">
         <v>113.7971687220903</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>121</v>
-      </c>
-      <c r="B123" s="2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
         <v>43534</v>
       </c>
+      <c r="B123">
+        <v>116.0232062474408</v>
+      </c>
       <c r="C123">
-        <v>116.0232062474408</v>
+        <v>122.33769491357801</v>
       </c>
       <c r="D123">
-        <v>122.33769491357801</v>
+        <v>113.53463610498579</v>
       </c>
       <c r="E123">
-        <v>113.53463610498579</v>
+        <v>118.0849664253406</v>
       </c>
       <c r="F123">
-        <v>118.0849664253406</v>
+        <v>119.169877782947</v>
       </c>
       <c r="G123">
-        <v>119.169877782947</v>
+        <v>120.9598323880149</v>
       </c>
       <c r="H123">
-        <v>120.9598323880149</v>
+        <v>107.3068310351651</v>
       </c>
       <c r="I123">
-        <v>107.3068310351651</v>
+        <v>122.1493443958156</v>
       </c>
       <c r="J123">
-        <v>122.1493443958156</v>
+        <v>125.5914847773445</v>
       </c>
       <c r="K123">
-        <v>125.5914847773445</v>
+        <v>118.06328015673721</v>
       </c>
       <c r="L123">
-        <v>118.06328015673721</v>
-      </c>
-      <c r="M123">
         <v>114.2749404793764</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
-        <v>122</v>
-      </c>
-      <c r="B124" s="2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
         <v>43565</v>
       </c>
+      <c r="B124">
+        <v>116.44379132879639</v>
+      </c>
       <c r="C124">
-        <v>116.44379132879639</v>
+        <v>123.1527694784596</v>
       </c>
       <c r="D124">
-        <v>123.1527694784596</v>
+        <v>114.2609584858599</v>
       </c>
       <c r="E124">
-        <v>114.2609584858599</v>
+        <v>118.1545397353584</v>
       </c>
       <c r="F124">
-        <v>118.1545397353584</v>
+        <v>119.41434562620179</v>
       </c>
       <c r="G124">
-        <v>119.41434562620179</v>
+        <v>120.91231035947909</v>
       </c>
       <c r="H124">
-        <v>120.91231035947909</v>
+        <v>107.3946672213561</v>
       </c>
       <c r="I124">
-        <v>107.3946672213561</v>
+        <v>122.60123906898249</v>
       </c>
       <c r="J124">
-        <v>122.60123906898249</v>
+        <v>126.3914380931314</v>
       </c>
       <c r="K124">
-        <v>126.3914380931314</v>
+        <v>119.8596068800164</v>
       </c>
       <c r="L124">
-        <v>119.8596068800164</v>
-      </c>
-      <c r="M124">
         <v>114.443178420389</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
         <v>43595</v>
       </c>
+      <c r="B125">
+        <v>117.4516937143573</v>
+      </c>
       <c r="C125">
-        <v>117.4516937143573</v>
+        <v>126.5743943785493</v>
       </c>
       <c r="D125">
-        <v>126.5743943785493</v>
+        <v>114.5734537292563</v>
       </c>
       <c r="E125">
-        <v>114.5734537292563</v>
+        <v>118.01137475129801</v>
       </c>
       <c r="F125">
-        <v>118.01137475129801</v>
+        <v>120.5044177511124</v>
       </c>
       <c r="G125">
-        <v>120.5044177511124</v>
+        <v>122.008125827887</v>
       </c>
       <c r="H125">
-        <v>122.008125827887</v>
+        <v>107.7179097194217</v>
       </c>
       <c r="I125">
-        <v>107.7179097194217</v>
+        <v>124.7369819205055</v>
       </c>
       <c r="J125">
-        <v>124.7369819205055</v>
+        <v>130.3211921819927</v>
       </c>
       <c r="K125">
-        <v>130.3211921819927</v>
+        <v>121.2913669561496</v>
       </c>
       <c r="L125">
-        <v>121.2913669561496</v>
-      </c>
-      <c r="M125">
         <v>114.8415977364355</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
-        <v>124</v>
-      </c>
-      <c r="B126" s="2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>43626</v>
       </c>
+      <c r="B126">
+        <v>117.1090917502959</v>
+      </c>
       <c r="C126">
-        <v>117.1090917502959</v>
+        <v>125.4434935240905</v>
       </c>
       <c r="D126">
-        <v>125.4434935240905</v>
+        <v>114.2897017429212</v>
       </c>
       <c r="E126">
-        <v>114.2897017429212</v>
+        <v>118.25749731772861</v>
       </c>
       <c r="F126">
-        <v>118.25749731772861</v>
+        <v>121.5143849511021</v>
       </c>
       <c r="G126">
-        <v>121.5143849511021</v>
+        <v>123.6951905284774</v>
       </c>
       <c r="H126">
-        <v>123.6951905284774</v>
+        <v>108.84597254742781</v>
       </c>
       <c r="I126">
-        <v>108.84597254742781</v>
+        <v>124.9509370803121</v>
       </c>
       <c r="J126">
-        <v>124.9509370803121</v>
+        <v>127.4636611092866</v>
       </c>
       <c r="K126">
-        <v>127.4636611092866</v>
+        <v>120.53391808334941</v>
       </c>
       <c r="L126">
-        <v>120.53391808334941</v>
-      </c>
-      <c r="M126">
         <v>115.448894392176</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
-        <v>125</v>
-      </c>
-      <c r="B127" s="2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>43656</v>
       </c>
+      <c r="B127">
+        <v>116.93309619056539</v>
+      </c>
       <c r="C127">
-        <v>116.93309619056539</v>
+        <v>124.4357830809211</v>
       </c>
       <c r="D127">
-        <v>124.4357830809211</v>
+        <v>114.170013165827</v>
       </c>
       <c r="E127">
-        <v>114.170013165827</v>
+        <v>118.6267959759918</v>
       </c>
       <c r="F127">
-        <v>118.6267959759918</v>
+        <v>122.10299499412911</v>
       </c>
       <c r="G127">
-        <v>122.10299499412911</v>
+        <v>125.4683932761485</v>
       </c>
       <c r="H127">
-        <v>125.4683932761485</v>
+        <v>109.1300987571822</v>
       </c>
       <c r="I127">
-        <v>109.1300987571822</v>
+        <v>124.48828751894639</v>
       </c>
       <c r="J127">
-        <v>124.48828751894639</v>
+        <v>126.44440177546591</v>
       </c>
       <c r="K127">
-        <v>126.44440177546591</v>
+        <v>119.7162693334395</v>
       </c>
       <c r="L127">
-        <v>119.7162693334395</v>
-      </c>
-      <c r="M127">
         <v>115.7284932359178</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
-        <v>126</v>
-      </c>
-      <c r="B128" s="2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>43687</v>
       </c>
+      <c r="B128">
+        <v>118.13887624365449</v>
+      </c>
       <c r="C128">
-        <v>118.13887624365449</v>
+        <v>128.54635078557791</v>
       </c>
       <c r="D128">
-        <v>128.54635078557791</v>
+        <v>114.28390017837749</v>
       </c>
       <c r="E128">
-        <v>114.28390017837749</v>
+        <v>118.9161305509887</v>
       </c>
       <c r="F128">
-        <v>118.9161305509887</v>
+        <v>122.46637598894399</v>
       </c>
       <c r="G128">
-        <v>122.46637598894399</v>
+        <v>125.297691087548</v>
       </c>
       <c r="H128">
-        <v>125.297691087548</v>
+        <v>109.5329578619791</v>
       </c>
       <c r="I128">
-        <v>109.5329578619791</v>
+        <v>124.0180159478905</v>
       </c>
       <c r="J128">
-        <v>124.0180159478905</v>
+        <v>132.19491845500221</v>
       </c>
       <c r="K128">
-        <v>132.19491845500221</v>
+        <v>120.13840190535809</v>
       </c>
       <c r="L128">
-        <v>120.13840190535809</v>
-      </c>
-      <c r="M128">
         <v>115.8264024313095</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
-        <v>127</v>
-      </c>
-      <c r="B129" s="2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>43718</v>
       </c>
+      <c r="B129">
+        <v>119.39743805766309</v>
+      </c>
       <c r="C129">
-        <v>119.39743805766309</v>
+        <v>132.28016785032781</v>
       </c>
       <c r="D129">
-        <v>132.28016785032781</v>
+        <v>114.9099584762851</v>
       </c>
       <c r="E129">
-        <v>114.9099584762851</v>
+        <v>118.82055564894139</v>
       </c>
       <c r="F129">
-        <v>118.82055564894139</v>
+        <v>122.9182473419138</v>
       </c>
       <c r="G129">
-        <v>122.9182473419138</v>
+        <v>126.11632422163279</v>
       </c>
       <c r="H129">
-        <v>126.11632422163279</v>
+        <v>109.5106540817188</v>
       </c>
       <c r="I129">
-        <v>109.5106540817188</v>
+        <v>124.2510255592755</v>
       </c>
       <c r="J129">
-        <v>124.2510255592755</v>
+        <v>137.9212811295298</v>
       </c>
       <c r="K129">
-        <v>137.9212811295298</v>
+        <v>121.52386304408169</v>
       </c>
       <c r="L129">
-        <v>121.52386304408169</v>
-      </c>
-      <c r="M129">
         <v>115.9228855194571</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <v>128</v>
-      </c>
-      <c r="B130" s="2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
         <v>43748</v>
       </c>
+      <c r="B130">
+        <v>120.2352734696274</v>
+      </c>
       <c r="C130">
-        <v>120.2352734696274</v>
+        <v>134.52103108064259</v>
       </c>
       <c r="D130">
-        <v>134.52103108064259</v>
+        <v>114.7390420011634</v>
       </c>
       <c r="E130">
-        <v>114.7390420011634</v>
+        <v>118.9328914809044</v>
       </c>
       <c r="F130">
-        <v>118.9328914809044</v>
+        <v>123.3933656090138</v>
       </c>
       <c r="G130">
-        <v>123.3933656090138</v>
+        <v>125.67555150396019</v>
       </c>
       <c r="H130">
-        <v>125.67555150396019</v>
+        <v>109.8760872091529</v>
       </c>
       <c r="I130">
-        <v>109.8760872091529</v>
+        <v>125.1329056722668</v>
       </c>
       <c r="J130">
-        <v>125.1329056722668</v>
+        <v>141.13021070911631</v>
       </c>
       <c r="K130">
-        <v>141.13021070911631</v>
+        <v>121.0506956258854</v>
       </c>
       <c r="L130">
-        <v>121.0506956258854</v>
-      </c>
-      <c r="M130">
         <v>116.283957775215</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
-        <v>129</v>
-      </c>
-      <c r="B131" s="2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>43779</v>
       </c>
+      <c r="B131">
+        <v>122.9410942102775</v>
+      </c>
       <c r="C131">
-        <v>122.9410942102775</v>
+        <v>141.60484312272601</v>
       </c>
       <c r="D131">
-        <v>141.60484312272601</v>
+        <v>115.4974383050303</v>
       </c>
       <c r="E131">
-        <v>115.4974383050303</v>
+        <v>118.8160067039733</v>
       </c>
       <c r="F131">
-        <v>118.8160067039733</v>
+        <v>124.31036674991699</v>
       </c>
       <c r="G131">
-        <v>124.31036674991699</v>
+        <v>124.0047409994116</v>
       </c>
       <c r="H131">
-        <v>124.0047409994116</v>
+        <v>109.73184359973411</v>
       </c>
       <c r="I131">
-        <v>109.73184359973411</v>
+        <v>126.08352669853559</v>
       </c>
       <c r="J131">
-        <v>126.08352669853559</v>
+        <v>150.5893033231485</v>
       </c>
       <c r="K131">
-        <v>150.5893033231485</v>
+        <v>123.42948648488</v>
       </c>
       <c r="L131">
-        <v>123.42948648488</v>
-      </c>
-      <c r="M131">
         <v>117.10556165705179</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
-        <v>130</v>
-      </c>
-      <c r="B132" s="2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
         <v>43809</v>
       </c>
+      <c r="B132">
+        <v>122.45352097837549</v>
+      </c>
       <c r="C132">
-        <v>122.45352097837549</v>
+        <v>138.50819873262441</v>
       </c>
       <c r="D132">
-        <v>138.50819873262441</v>
+        <v>115.53677138289891</v>
       </c>
       <c r="E132">
-        <v>115.53677138289891</v>
+        <v>119.3818594509402</v>
       </c>
       <c r="F132">
-        <v>119.3818594509402</v>
+        <v>124.1770060007166</v>
       </c>
       <c r="G132">
-        <v>124.1770060007166</v>
+        <v>123.4969070002723</v>
       </c>
       <c r="H132">
-        <v>123.4969070002723</v>
+        <v>109.6048384419482</v>
       </c>
       <c r="I132">
-        <v>109.6048384419482</v>
+        <v>125.95581981032289</v>
       </c>
       <c r="J132">
-        <v>125.95581981032289</v>
+        <v>146.34894269759141</v>
       </c>
       <c r="K132">
-        <v>146.34894269759141</v>
+        <v>123.528206173272</v>
       </c>
       <c r="L132">
-        <v>123.528206173272</v>
-      </c>
-      <c r="M132">
         <v>117.4341021098486</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
-        <v>131</v>
-      </c>
-      <c r="B133" s="2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
         <v>43840</v>
       </c>
+      <c r="B133">
+        <v>123.2360163944423</v>
+      </c>
       <c r="C133">
-        <v>123.2360163944423</v>
+        <v>139.42138348362161</v>
       </c>
       <c r="D133">
-        <v>139.42138348362161</v>
+        <v>116.0617324139188</v>
       </c>
       <c r="E133">
-        <v>116.0617324139188</v>
+        <v>119.9537458398127</v>
       </c>
       <c r="F133">
-        <v>119.9537458398127</v>
+        <v>124.7580435121365</v>
       </c>
       <c r="G133">
-        <v>124.7580435121365</v>
+        <v>124.28177049076101</v>
       </c>
       <c r="H133">
-        <v>124.28177049076101</v>
+        <v>109.9457292319406</v>
       </c>
       <c r="I133">
-        <v>109.9457292319406</v>
+        <v>126.67320527812031</v>
       </c>
       <c r="J133">
-        <v>126.67320527812031</v>
+        <v>146.80586957427769</v>
       </c>
       <c r="K133">
-        <v>146.80586957427769</v>
+        <v>124.74795603226239</v>
       </c>
       <c r="L133">
-        <v>124.74795603226239</v>
-      </c>
-      <c r="M133">
         <v>118.1802476879907</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
-        <v>132</v>
-      </c>
-      <c r="B134" s="2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
         <v>43871</v>
       </c>
+      <c r="B134">
+        <v>125.5565625144617</v>
+      </c>
       <c r="C134">
-        <v>125.5565625144617</v>
+        <v>146.31035615315139</v>
       </c>
       <c r="D134">
-        <v>146.31035615315139</v>
+        <v>118.1334850653954</v>
       </c>
       <c r="E134">
-        <v>118.1334850653954</v>
+        <v>119.84454585190559</v>
       </c>
       <c r="F134">
-        <v>119.84454585190559</v>
+        <v>125.4311663989142</v>
       </c>
       <c r="G134">
-        <v>125.4311663989142</v>
+        <v>126.49456231502231</v>
       </c>
       <c r="H134">
-        <v>126.49456231502231</v>
+        <v>110.1099174198142</v>
       </c>
       <c r="I134">
-        <v>110.1099174198142</v>
+        <v>126.6267974446436</v>
       </c>
       <c r="J134">
-        <v>126.6267974446436</v>
+        <v>152.99409635896669</v>
       </c>
       <c r="K134">
-        <v>152.99409635896669</v>
+        <v>130.12552279250309</v>
       </c>
       <c r="L134">
-        <v>130.12552279250309</v>
-      </c>
-      <c r="M134">
         <v>118.94723845554491</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
-        <v>133</v>
-      </c>
-      <c r="B135" s="2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
         <v>43900</v>
       </c>
+      <c r="B135">
+        <v>126.86916790130719</v>
+      </c>
       <c r="C135">
-        <v>126.86916790130719</v>
+        <v>150.6293367746884</v>
       </c>
       <c r="D135">
-        <v>150.6293367746884</v>
+        <v>118.9623778108037</v>
       </c>
       <c r="E135">
-        <v>118.9623778108037</v>
+        <v>119.50198838993551</v>
       </c>
       <c r="F135">
+        <v>126.2318582309176</v>
+      </c>
+      <c r="G135">
+        <v>127.6282655008243</v>
+      </c>
+      <c r="H135">
+        <v>110.4679311020182</v>
+      </c>
+      <c r="I135">
+        <v>127.383476817486</v>
+      </c>
+      <c r="J135">
+        <v>158.28462704167029</v>
+      </c>
+      <c r="K135">
+        <v>132.240748724816</v>
+      </c>
+      <c r="L135">
+        <v>119.22516937946899</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B136">
+        <v>126.371621604296</v>
+      </c>
+      <c r="C136">
+        <v>145.95478583307181</v>
+      </c>
+      <c r="D136">
+        <v>121.73584856027681</v>
+      </c>
+      <c r="E136">
         <v>119.50198838993551</v>
       </c>
-      <c r="G135">
-        <v>126.2318582309176</v>
-      </c>
-      <c r="H135">
-        <v>127.6282655008243</v>
-      </c>
-      <c r="I135">
-        <v>110.4679311020182</v>
-      </c>
-      <c r="J135">
+      <c r="F136">
+        <v>126.9368837271273</v>
+      </c>
+      <c r="G136">
+        <v>129.61067880607001</v>
+      </c>
+      <c r="H136">
+        <v>111.04906593620539</v>
+      </c>
+      <c r="I136">
         <v>127.383476817486</v>
       </c>
-      <c r="K135">
-        <v>158.28462704167029</v>
-      </c>
-      <c r="L135">
-        <v>132.240748724816</v>
-      </c>
-      <c r="M135">
-        <v>119.22516937946899</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
-        <v>134</v>
-      </c>
-      <c r="B136" s="2">
-        <v>43931</v>
-      </c>
-      <c r="C136">
-        <v>126.371621604296</v>
-      </c>
-      <c r="D136">
-        <v>145.95478583307181</v>
-      </c>
-      <c r="E136">
-        <v>121.73584856027681</v>
-      </c>
-      <c r="F136">
-        <v>119.50198838993551</v>
-      </c>
-      <c r="G136">
-        <v>126.9368837271273</v>
-      </c>
-      <c r="H136">
-        <v>129.61067880607001</v>
-      </c>
-      <c r="I136">
-        <v>111.04906593620539</v>
-      </c>
       <c r="J136">
-        <v>127.383476817486</v>
+        <v>151.32112306870371</v>
       </c>
       <c r="K136">
-        <v>151.32112306870371</v>
+        <v>139.6872031699327</v>
       </c>
       <c r="L136">
-        <v>139.6872031699327</v>
-      </c>
-      <c r="M136">
         <v>119.697564896054</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
-        <v>135</v>
-      </c>
-      <c r="B137" s="2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
         <v>43961</v>
       </c>
+      <c r="B137">
+        <v>128.89652437876521</v>
+      </c>
       <c r="C137">
-        <v>128.89652437876521</v>
+        <v>143.49347693163341</v>
       </c>
       <c r="D137">
-        <v>143.49347693163341</v>
+        <v>120.386434760405</v>
       </c>
       <c r="E137">
-        <v>120.386434760405</v>
+        <v>163.09003787968999</v>
       </c>
       <c r="F137">
-        <v>163.09003787968999</v>
+        <v>129.49717991841999</v>
       </c>
       <c r="G137">
-        <v>129.49717991841999</v>
+        <v>129.0009016636393</v>
       </c>
       <c r="H137">
-        <v>129.0009016636393</v>
+        <v>110.98545755329749</v>
       </c>
       <c r="I137">
-        <v>110.98545755329749</v>
+        <v>137.23138189558799</v>
       </c>
       <c r="J137">
-        <v>137.23138189558799</v>
+        <v>148.86905194379611</v>
       </c>
       <c r="K137">
-        <v>148.86905194379611</v>
+        <v>132.0117208781447</v>
       </c>
       <c r="L137">
-        <v>132.0117208781447</v>
-      </c>
-      <c r="M137">
         <v>124.1260224843187</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
-        <v>136</v>
-      </c>
-      <c r="B138" s="2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>43992</v>
       </c>
+      <c r="B138">
+        <v>128.58795027616861</v>
+      </c>
       <c r="C138">
-        <v>128.58795027616861</v>
+        <v>142.53786780775249</v>
       </c>
       <c r="D138">
-        <v>142.53786780775249</v>
+        <v>119.76126999903001</v>
       </c>
       <c r="E138">
-        <v>119.76126999903001</v>
+        <v>163.09043188778409</v>
       </c>
       <c r="F138">
-        <v>163.09043188778409</v>
+        <v>129.4771662615928</v>
       </c>
       <c r="G138">
-        <v>129.4771662615928</v>
+        <v>128.4469736781584</v>
       </c>
       <c r="H138">
-        <v>128.4469736781584</v>
+        <v>111.32456250639621</v>
       </c>
       <c r="I138">
-        <v>111.32456250639621</v>
+        <v>136.22778240613471</v>
       </c>
       <c r="J138">
-        <v>136.22778240613471</v>
+        <v>149.28631122500471</v>
       </c>
       <c r="K138">
-        <v>149.28631122500471</v>
+        <v>130.21534389011049</v>
       </c>
       <c r="L138">
-        <v>130.21534389011049</v>
-      </c>
-      <c r="M138">
         <v>123.8888303005904</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
-        <v>137</v>
-      </c>
-      <c r="B139" s="2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
         <v>44022</v>
       </c>
+      <c r="B139">
+        <v>128.8008902824769</v>
+      </c>
       <c r="C139">
-        <v>128.8008902824769</v>
+        <v>143.01013155971049</v>
       </c>
       <c r="D139">
-        <v>143.01013155971049</v>
+        <v>119.1101702317074</v>
       </c>
       <c r="E139">
-        <v>119.1101702317074</v>
+        <v>163.14262847098971</v>
       </c>
       <c r="F139">
-        <v>163.14262847098971</v>
+        <v>129.8248094089835</v>
       </c>
       <c r="G139">
-        <v>129.8248094089835</v>
+        <v>128.8313195318313</v>
       </c>
       <c r="H139">
-        <v>128.8313195318313</v>
+        <v>111.579247302738</v>
       </c>
       <c r="I139">
-        <v>111.579247302738</v>
+        <v>134.58812280109129</v>
       </c>
       <c r="J139">
-        <v>134.58812280109129</v>
+        <v>151.24975664917179</v>
       </c>
       <c r="K139">
-        <v>151.24975664917179</v>
+        <v>125.7550756545368</v>
       </c>
       <c r="L139">
-        <v>125.7550756545368</v>
-      </c>
-      <c r="M139">
         <v>124.1977721189656</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
-        <v>138</v>
-      </c>
-      <c r="B140" s="2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
         <v>44053</v>
       </c>
+      <c r="B140">
+        <v>129.4042824854296</v>
+      </c>
       <c r="C140">
-        <v>129.4042824854296</v>
+        <v>145.68061251363889</v>
       </c>
       <c r="D140">
-        <v>145.68061251363889</v>
+        <v>119.42415794305469</v>
       </c>
       <c r="E140">
-        <v>119.42415794305469</v>
+        <v>160.69947923597019</v>
       </c>
       <c r="F140">
-        <v>160.69947923597019</v>
+        <v>130.37888347988149</v>
       </c>
       <c r="G140">
-        <v>130.37888347988149</v>
+        <v>130.49331765916489</v>
       </c>
       <c r="H140">
-        <v>130.49331765916489</v>
+        <v>111.7199176248004</v>
       </c>
       <c r="I140">
-        <v>111.7199176248004</v>
+        <v>134.6418399756086</v>
       </c>
       <c r="J140">
-        <v>134.6418399756086</v>
+        <v>155.93366327341721</v>
       </c>
       <c r="K140">
-        <v>155.93366327341721</v>
+        <v>125.2237680291566</v>
       </c>
       <c r="L140">
-        <v>125.2237680291566</v>
-      </c>
-      <c r="M140">
         <v>124.0573495646434</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
-        <v>139</v>
-      </c>
-      <c r="B141" s="2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>44084</v>
       </c>
+      <c r="B141">
+        <v>130.62491336328989</v>
+      </c>
       <c r="C141">
-        <v>130.62491336328989</v>
+        <v>148.863037842257</v>
       </c>
       <c r="D141">
-        <v>148.863037842257</v>
+        <v>120.7531064712644</v>
       </c>
       <c r="E141">
-        <v>120.7531064712644</v>
+        <v>159.95300561456341</v>
       </c>
       <c r="F141">
-        <v>159.95300561456341</v>
+        <v>131.79074149853409</v>
       </c>
       <c r="G141">
-        <v>131.79074149853409</v>
+        <v>133.476612042619</v>
       </c>
       <c r="H141">
-        <v>133.476612042619</v>
+        <v>112.2912293265544</v>
       </c>
       <c r="I141">
-        <v>112.2912293265544</v>
+        <v>137.15364800951679</v>
       </c>
       <c r="J141">
-        <v>137.15364800951679</v>
+        <v>161.89151787398939</v>
       </c>
       <c r="K141">
-        <v>161.89151787398939</v>
+        <v>129.381061246207</v>
       </c>
       <c r="L141">
-        <v>129.381061246207</v>
-      </c>
-      <c r="M141">
         <v>124.1113909295337</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
-        <v>140</v>
-      </c>
-      <c r="B142" s="2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
         <v>44114</v>
       </c>
+      <c r="B142">
+        <v>129.49338710125161</v>
+      </c>
       <c r="C142">
-        <v>129.49338710125161</v>
+        <v>150.25139917844541</v>
       </c>
       <c r="D142">
-        <v>150.25139917844541</v>
+        <v>121.3671597143388</v>
       </c>
       <c r="E142">
-        <v>121.3671597143388</v>
+        <v>137.27270245030689</v>
       </c>
       <c r="F142">
-        <v>137.27270245030689</v>
+        <v>130.55805953973609</v>
       </c>
       <c r="G142">
-        <v>130.55805953973609</v>
+        <v>129.77599819731051</v>
       </c>
       <c r="H142">
-        <v>129.77599819731051</v>
+        <v>112.82912143833779</v>
       </c>
       <c r="I142">
-        <v>112.82912143833779</v>
+        <v>135.71370694732951</v>
       </c>
       <c r="J142">
-        <v>135.71370694732951</v>
+        <v>162.7912073560862</v>
       </c>
       <c r="K142">
-        <v>162.7912073560862</v>
+        <v>130.6624697810102</v>
       </c>
       <c r="L142">
-        <v>130.6624697810102</v>
-      </c>
-      <c r="M142">
         <v>122.3317236614366</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <v>141</v>
-      </c>
-      <c r="B143" s="2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
         <v>44145</v>
       </c>
+      <c r="B143">
+        <v>127.6986960217932</v>
+      </c>
       <c r="C143">
-        <v>127.6986960217932</v>
+        <v>148.1635993581647</v>
       </c>
       <c r="D143">
-        <v>148.1635993581647</v>
+        <v>121.3215050481918</v>
       </c>
       <c r="E143">
-        <v>121.3215050481918</v>
+        <v>119.00630862624649</v>
       </c>
       <c r="F143">
-        <v>119.00630862624649</v>
+        <v>130.9272173982859</v>
       </c>
       <c r="G143">
-        <v>130.9272173982859</v>
+        <v>130.07756821777829</v>
       </c>
       <c r="H143">
-        <v>130.07756821777829</v>
+        <v>114.3008414578521</v>
       </c>
       <c r="I143">
-        <v>114.3008414578521</v>
+        <v>134.67917716034319</v>
       </c>
       <c r="J143">
-        <v>134.67917716034319</v>
+        <v>159.03013110441259</v>
       </c>
       <c r="K143">
-        <v>159.03013110441259</v>
+        <v>130.18636753913461</v>
       </c>
       <c r="L143">
-        <v>130.18636753913461</v>
-      </c>
-      <c r="M143">
         <v>121.4716018807831</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>142</v>
-      </c>
-      <c r="B144" s="2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
         <v>44175</v>
       </c>
+      <c r="B144">
+        <v>126.30892331618389</v>
+      </c>
       <c r="C144">
-        <v>126.30892331618389</v>
+        <v>143.46942041637681</v>
       </c>
       <c r="D144">
-        <v>143.46942041637681</v>
+        <v>120.6835495575321</v>
       </c>
       <c r="E144">
-        <v>120.6835495575321</v>
+        <v>118.81714172136481</v>
       </c>
       <c r="F144">
-        <v>118.81714172136481</v>
+        <v>131.239037098186</v>
       </c>
       <c r="G144">
-        <v>131.239037098186</v>
+        <v>131.2303878961896</v>
       </c>
       <c r="H144">
-        <v>131.2303878961896</v>
+        <v>114.1924437905879</v>
       </c>
       <c r="I144">
-        <v>114.1924437905879</v>
+        <v>134.31042565915649</v>
       </c>
       <c r="J144">
-        <v>134.31042565915649</v>
+        <v>152.34263796338999</v>
       </c>
       <c r="K144">
-        <v>152.34263796338999</v>
+        <v>128.20424721670901</v>
       </c>
       <c r="L144">
-        <v>128.20424721670901</v>
-      </c>
-      <c r="M144">
         <v>121.71949204633231</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
         <v>44206</v>
       </c>
+      <c r="B145">
+        <v>125.468229267129</v>
+      </c>
       <c r="C145">
-        <v>125.468229267129</v>
+        <v>139.96835786333929</v>
       </c>
       <c r="D145">
-        <v>139.96835786333929</v>
+        <v>120.8131229807758</v>
       </c>
       <c r="E145">
-        <v>120.8131229807758</v>
+        <v>119.7696740801502</v>
       </c>
       <c r="F145">
-        <v>119.7696740801502</v>
+        <v>132.20487318718881</v>
       </c>
       <c r="G145">
-        <v>132.20487318718881</v>
+        <v>133.47168518423749</v>
       </c>
       <c r="H145">
-        <v>133.47168518423749</v>
+        <v>114.8218198681429</v>
       </c>
       <c r="I145">
-        <v>114.8218198681429</v>
+        <v>135.0272473628292</v>
       </c>
       <c r="J145">
-        <v>135.0272473628292</v>
+        <v>147.1037447977568</v>
       </c>
       <c r="K145">
-        <v>147.1037447977568</v>
+        <v>129.03124163177219</v>
       </c>
       <c r="L145">
-        <v>129.03124163177219</v>
-      </c>
-      <c r="M145">
         <v>122.16395705333591</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
-        <v>144</v>
-      </c>
-      <c r="B146" s="2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
         <v>44237</v>
       </c>
+      <c r="B146">
+        <v>125.9117688471645</v>
+      </c>
       <c r="C146">
-        <v>125.9117688471645</v>
+        <v>140.3092319909905</v>
       </c>
       <c r="D146">
-        <v>140.3092319909905</v>
+        <v>121.038668549657</v>
       </c>
       <c r="E146">
-        <v>121.038668549657</v>
+        <v>119.89956187669981</v>
       </c>
       <c r="F146">
-        <v>119.89956187669981</v>
+        <v>132.7435154274732</v>
       </c>
       <c r="G146">
-        <v>132.7435154274732</v>
+        <v>134.66666583771271</v>
       </c>
       <c r="H146">
-        <v>134.66666583771271</v>
+        <v>114.8563924663403</v>
       </c>
       <c r="I146">
-        <v>114.8563924663403</v>
+        <v>135.3971172860947</v>
       </c>
       <c r="J146">
-        <v>135.3971172860947</v>
+        <v>147.8669926890349</v>
       </c>
       <c r="K146">
-        <v>147.8669926890349</v>
+        <v>129.53611112402959</v>
       </c>
       <c r="L146">
-        <v>129.53611112402959</v>
-      </c>
-      <c r="M146">
         <v>122.56349609903241</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
-        <v>145</v>
-      </c>
-      <c r="B147" s="2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
         <v>44265</v>
       </c>
+      <c r="B147">
+        <v>127.9223679874421</v>
+      </c>
       <c r="C147">
-        <v>127.9223679874421</v>
+        <v>145.36971733319959</v>
       </c>
       <c r="D147">
-        <v>145.36971733319959</v>
+        <v>121.5879475082759</v>
       </c>
       <c r="E147">
-        <v>121.5879475082759</v>
+        <v>120.1357536412273</v>
       </c>
       <c r="F147">
-        <v>120.1357536412273</v>
+        <v>133.73663808698751</v>
       </c>
       <c r="G147">
-        <v>133.73663808698751</v>
+        <v>135.603349449495</v>
       </c>
       <c r="H147">
-        <v>135.603349449495</v>
+        <v>115.03317764432209</v>
       </c>
       <c r="I147">
-        <v>115.03317764432209</v>
+        <v>137.9948225829736</v>
       </c>
       <c r="J147">
-        <v>137.9948225829736</v>
+        <v>154.33492014119949</v>
       </c>
       <c r="K147">
-        <v>154.33492014119949</v>
+        <v>133.34737120773991</v>
       </c>
       <c r="L147">
-        <v>133.34737120773991</v>
-      </c>
-      <c r="M147">
         <v>123.2006909909837</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
-        <v>146</v>
-      </c>
-      <c r="B148" s="2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
         <v>44296</v>
       </c>
+      <c r="B148">
+        <v>127.66537622912</v>
+      </c>
       <c r="C148">
-        <v>127.66537622912</v>
+        <v>144.73390195151961</v>
       </c>
       <c r="D148">
-        <v>144.73390195151961</v>
+        <v>121.22475622544481</v>
       </c>
       <c r="E148">
-        <v>121.22475622544481</v>
+        <v>119.9963447032009</v>
       </c>
       <c r="F148">
-        <v>119.9963447032009</v>
+        <v>135.48934959150171</v>
       </c>
       <c r="G148">
-        <v>135.48934959150171</v>
+        <v>140.4747373836737</v>
       </c>
       <c r="H148">
-        <v>140.4747373836737</v>
+        <v>115.62927511663651</v>
       </c>
       <c r="I148">
-        <v>115.62927511663651</v>
+        <v>138.58675043745839</v>
       </c>
       <c r="J148">
-        <v>138.58675043745839</v>
+        <v>154.37219852596931</v>
       </c>
       <c r="K148">
-        <v>154.37219852596931</v>
+        <v>130.9205952486904</v>
       </c>
       <c r="L148">
-        <v>130.9205952486904</v>
-      </c>
-      <c r="M148">
         <v>123.6742762933918</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
-        <v>147</v>
-      </c>
-      <c r="B149" s="2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
         <v>44326</v>
       </c>
+      <c r="B149">
+        <v>126.6265034971192</v>
+      </c>
       <c r="C149">
-        <v>126.6265034971192</v>
+        <v>139.9868321990663</v>
       </c>
       <c r="D149">
-        <v>139.9868321990663</v>
+        <v>121.76662032007739</v>
       </c>
       <c r="E149">
-        <v>121.76662032007739</v>
+        <v>120.0966156228961</v>
       </c>
       <c r="F149">
-        <v>120.0966156228961</v>
+        <v>136.26671589915131</v>
       </c>
       <c r="G149">
-        <v>136.26671589915131</v>
+        <v>141.73830073948091</v>
       </c>
       <c r="H149">
-        <v>141.73830073948091</v>
+        <v>116.74124343183431</v>
       </c>
       <c r="I149">
-        <v>116.74124343183431</v>
+        <v>139.34357223634629</v>
       </c>
       <c r="J149">
-        <v>139.34357223634629</v>
+        <v>147.67462342906541</v>
       </c>
       <c r="K149">
-        <v>147.67462342906541</v>
+        <v>132.20354891143629</v>
       </c>
       <c r="L149">
-        <v>132.20354891143629</v>
-      </c>
-      <c r="M149">
         <v>124.1220214734107</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>148</v>
-      </c>
-      <c r="B150" s="2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
         <v>44357</v>
       </c>
+      <c r="B150">
+        <v>126.25625674099599</v>
+      </c>
       <c r="C150">
-        <v>126.25625674099599</v>
+        <v>138.56059520253299</v>
       </c>
       <c r="D150">
-        <v>138.56059520253299</v>
+        <v>121.9380926451729</v>
       </c>
       <c r="E150">
-        <v>121.9380926451729</v>
+        <v>119.0587050868175</v>
       </c>
       <c r="F150">
-        <v>119.0587050868175</v>
+        <v>136.355789174992</v>
       </c>
       <c r="G150">
-        <v>136.355789174992</v>
+        <v>141.7687564792256</v>
       </c>
       <c r="H150">
-        <v>141.7687564792256</v>
+        <v>116.60266452145839</v>
       </c>
       <c r="I150">
-        <v>116.60266452145839</v>
+        <v>139.18313798107309</v>
       </c>
       <c r="J150">
-        <v>139.18313798107309</v>
+        <v>145.94139176104599</v>
       </c>
       <c r="K150">
-        <v>145.94139176104599</v>
+        <v>132.49957495022741</v>
       </c>
       <c r="L150">
-        <v>132.49957495022741</v>
-      </c>
-      <c r="M150">
         <v>124.1075178704297</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
-        <v>149</v>
-      </c>
-      <c r="B151" s="2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
         <v>44387</v>
       </c>
+      <c r="B151">
+        <v>126.1898461060626</v>
+      </c>
       <c r="C151">
-        <v>126.1898461060626</v>
+        <v>138.62443617366969</v>
       </c>
       <c r="D151">
-        <v>138.62443617366969</v>
+        <v>121.68692651684999</v>
       </c>
       <c r="E151">
-        <v>121.68692651684999</v>
+        <v>119.14615940500011</v>
       </c>
       <c r="F151">
-        <v>119.14615940500011</v>
+        <v>136.41170373105001</v>
       </c>
       <c r="G151">
-        <v>136.41170373105001</v>
+        <v>141.92250719046021</v>
       </c>
       <c r="H151">
-        <v>141.92250719046021</v>
+        <v>116.79409018430189</v>
       </c>
       <c r="I151">
-        <v>116.79409018430189</v>
+        <v>138.81030364076011</v>
       </c>
       <c r="J151">
-        <v>138.81030364076011</v>
+        <v>145.97515588947249</v>
       </c>
       <c r="K151">
-        <v>145.97515588947249</v>
+        <v>131.3315384944828</v>
       </c>
       <c r="L151">
-        <v>131.3315384944828</v>
-      </c>
-      <c r="M151">
         <v>124.15451299970211</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
-        <v>150</v>
-      </c>
-      <c r="B152" s="2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
         <v>44418</v>
       </c>
+      <c r="B152">
+        <v>126.2128451179331</v>
+      </c>
       <c r="C152">
-        <v>126.2128451179331</v>
+        <v>138.1354161557168</v>
       </c>
       <c r="D152">
-        <v>138.1354161557168</v>
+        <v>122.0114458164289</v>
       </c>
       <c r="E152">
-        <v>122.0114458164289</v>
+        <v>119.276086987071</v>
       </c>
       <c r="F152">
-        <v>119.276086987071</v>
+        <v>137.74527923956961</v>
       </c>
       <c r="G152">
-        <v>137.74527923956961</v>
+        <v>142.51404470624209</v>
       </c>
       <c r="H152">
-        <v>142.51404470624209</v>
+        <v>117.8382222513785</v>
       </c>
       <c r="I152">
-        <v>117.8382222513785</v>
+        <v>142.0524387215122</v>
       </c>
       <c r="J152">
-        <v>142.0524387215122</v>
+        <v>146.0337612650514</v>
       </c>
       <c r="K152">
-        <v>146.0337612650514</v>
+        <v>131.7860668169694</v>
       </c>
       <c r="L152">
-        <v>131.7860668169694</v>
-      </c>
-      <c r="M152">
         <v>124.5221132468353</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
-        <v>151</v>
-      </c>
-      <c r="B153" s="2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
         <v>44449</v>
       </c>
+      <c r="B153">
+        <v>126.869043209192</v>
+      </c>
       <c r="C153">
-        <v>126.869043209192</v>
+        <v>140.1908373034922</v>
       </c>
       <c r="D153">
-        <v>140.1908373034922</v>
+        <v>122.12378902916841</v>
       </c>
       <c r="E153">
-        <v>122.12378902916841</v>
+        <v>119.02706659293069</v>
       </c>
       <c r="F153">
-        <v>119.02706659293069</v>
+        <v>138.92519773574989</v>
       </c>
       <c r="G153">
-        <v>138.92519773574989</v>
+        <v>145.576248384671</v>
       </c>
       <c r="H153">
-        <v>145.576248384671</v>
+        <v>118.7486647613968</v>
       </c>
       <c r="I153">
-        <v>118.7486647613968</v>
+        <v>142.54510212576719</v>
       </c>
       <c r="J153">
-        <v>142.54510212576719</v>
+        <v>149.73620816976171</v>
       </c>
       <c r="K153">
-        <v>149.73620816976171</v>
+        <v>131.95189808847101</v>
       </c>
       <c r="L153">
-        <v>131.95189808847101</v>
-      </c>
-      <c r="M153">
         <v>124.75738331564941</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
-        <v>152</v>
-      </c>
-      <c r="B154" s="2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
         <v>44479</v>
       </c>
+      <c r="B154">
+        <v>127.6752279491178</v>
+      </c>
       <c r="C154">
-        <v>127.6752279491178</v>
+        <v>141.11689925986849</v>
       </c>
       <c r="D154">
-        <v>141.11689925986849</v>
+        <v>122.583761878277</v>
       </c>
       <c r="E154">
-        <v>122.583761878277</v>
+        <v>118.68701066859769</v>
       </c>
       <c r="F154">
-        <v>118.68701066859769</v>
+        <v>139.84443948041209</v>
       </c>
       <c r="G154">
-        <v>139.84443948041209</v>
+        <v>145.31299453465559</v>
       </c>
       <c r="H154">
-        <v>145.31299453465559</v>
+        <v>121.6533824674506</v>
       </c>
       <c r="I154">
-        <v>121.6533824674506</v>
+        <v>144.02443435839501</v>
       </c>
       <c r="J154">
-        <v>144.02443435839501</v>
+        <v>150.54959799576679</v>
       </c>
       <c r="K154">
-        <v>150.54959799576679</v>
+        <v>133.03622031103399</v>
       </c>
       <c r="L154">
-        <v>133.03622031103399</v>
-      </c>
-      <c r="M154">
         <v>125.5673113593615</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
-        <v>153</v>
-      </c>
-      <c r="B155" s="2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
         <v>44510</v>
       </c>
+      <c r="B155">
+        <v>126.65416881240211</v>
+      </c>
       <c r="C155">
-        <v>126.65416881240211</v>
+        <v>136.51863109431491</v>
       </c>
       <c r="D155">
-        <v>136.51863109431491</v>
+        <v>122.8325120322974</v>
       </c>
       <c r="E155">
-        <v>122.8325120322974</v>
+        <v>118.3930148634756</v>
       </c>
       <c r="F155">
-        <v>118.3930148634756</v>
+        <v>140.15670015043489</v>
       </c>
       <c r="G155">
-        <v>140.15670015043489</v>
+        <v>143.96214260183629</v>
       </c>
       <c r="H155">
-        <v>143.96214260183629</v>
+        <v>123.80186646492371</v>
       </c>
       <c r="I155">
-        <v>123.80186646492371</v>
+        <v>144.91578076302289</v>
       </c>
       <c r="J155">
-        <v>144.91578076302289</v>
+        <v>142.85697476440359</v>
       </c>
       <c r="K155">
-        <v>142.85697476440359</v>
+        <v>133.9801399533151</v>
       </c>
       <c r="L155">
-        <v>133.9801399533151</v>
-      </c>
-      <c r="M155">
         <v>126.1255658941686</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
-        <v>154</v>
-      </c>
-      <c r="B156" s="2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
         <v>44540</v>
       </c>
+      <c r="B156">
+        <v>126.373606021638</v>
+      </c>
       <c r="C156">
-        <v>126.373606021638</v>
+        <v>135.07048156054279</v>
       </c>
       <c r="D156">
-        <v>135.07048156054279</v>
+        <v>122.9461230676488</v>
       </c>
       <c r="E156">
-        <v>122.9461230676488</v>
+        <v>118.1985528253801</v>
       </c>
       <c r="F156">
-        <v>118.1985528253801</v>
+        <v>141.28359999621799</v>
       </c>
       <c r="G156">
-        <v>141.28359999621799</v>
+        <v>144.84386012259449</v>
       </c>
       <c r="H156">
-        <v>144.84386012259449</v>
+        <v>125.26972283314321</v>
       </c>
       <c r="I156">
-        <v>125.26972283314321</v>
+        <v>146.84013802226571</v>
       </c>
       <c r="J156">
-        <v>146.84013802226571</v>
+        <v>139.79295824192189</v>
       </c>
       <c r="K156">
-        <v>139.79295824192189</v>
+        <v>135.303197975404</v>
       </c>
       <c r="L156">
-        <v>135.303197975404</v>
-      </c>
-      <c r="M156">
         <v>126.68744010173739</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
-        <v>155</v>
-      </c>
-      <c r="B157" s="2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
         <v>44571</v>
       </c>
+      <c r="B157">
+        <v>129.1848047310981</v>
+      </c>
       <c r="C157">
-        <v>129.1848047310981</v>
+        <v>143.34143566397401</v>
       </c>
       <c r="D157">
-        <v>143.34143566397401</v>
+        <v>123.98356409793939</v>
       </c>
       <c r="E157">
-        <v>123.98356409793939</v>
+        <v>117.7173554124565</v>
       </c>
       <c r="F157">
-        <v>117.7173554124565</v>
+        <v>143.58519325820509</v>
       </c>
       <c r="G157">
-        <v>143.58519325820509</v>
+        <v>148.14174982078481</v>
       </c>
       <c r="H157">
-        <v>148.14174982078481</v>
+        <v>127.0678430092149</v>
       </c>
       <c r="I157">
-        <v>127.0678430092149</v>
+        <v>149.19637248018711</v>
       </c>
       <c r="J157">
-        <v>149.19637248018711</v>
+        <v>150.30404645242629</v>
       </c>
       <c r="K157">
-        <v>150.30404645242629</v>
+        <v>137.4851012395024</v>
       </c>
       <c r="L157">
-        <v>137.4851012395024</v>
-      </c>
-      <c r="M157">
         <v>127.8298356266897</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
-        <v>156</v>
-      </c>
-      <c r="B158" s="2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
         <v>44602</v>
       </c>
+      <c r="B158">
+        <v>131.6774492859555</v>
+      </c>
       <c r="C158">
-        <v>131.6774492859555</v>
+        <v>148.93609864672041</v>
       </c>
       <c r="D158">
-        <v>148.93609864672041</v>
+        <v>126.483240452491</v>
       </c>
       <c r="E158">
-        <v>126.483240452491</v>
+        <v>117.2020826410718</v>
       </c>
       <c r="F158">
-        <v>117.2020826410718</v>
+        <v>145.48747582293211</v>
       </c>
       <c r="G158">
-        <v>145.48747582293211</v>
+        <v>152.77777015169619</v>
       </c>
       <c r="H158">
-        <v>152.77777015169619</v>
+        <v>126.4975414529696</v>
       </c>
       <c r="I158">
-        <v>126.4975414529696</v>
+        <v>150.52739161008731</v>
       </c>
       <c r="J158">
-        <v>150.52739161008731</v>
+        <v>156.81763698337369</v>
       </c>
       <c r="K158">
-        <v>156.81763698337369</v>
+        <v>142.59861649703481</v>
       </c>
       <c r="L158">
-        <v>142.59861649703481</v>
-      </c>
-      <c r="M158">
         <v>129.0899607902542</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
-        <v>157</v>
-      </c>
-      <c r="B159" s="2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
         <v>44630</v>
       </c>
+      <c r="B159">
+        <v>135.76235923038249</v>
+      </c>
       <c r="C159">
-        <v>135.76235923038249</v>
+        <v>154.8361504543613</v>
       </c>
       <c r="D159">
-        <v>154.8361504543613</v>
+        <v>131.3995737325796</v>
       </c>
       <c r="E159">
-        <v>131.3995737325796</v>
+        <v>117.06240717649121</v>
       </c>
       <c r="F159">
-        <v>117.06240717649121</v>
+        <v>149.77306585126141</v>
       </c>
       <c r="G159">
-        <v>149.77306585126141</v>
+        <v>165.75052371272619</v>
       </c>
       <c r="H159">
-        <v>165.75052371272619</v>
+        <v>127.82594838865229</v>
       </c>
       <c r="I159">
-        <v>127.82594838865229</v>
+        <v>151.05893259266921</v>
       </c>
       <c r="J159">
-        <v>151.05893259266921</v>
+        <v>160.5491703335116</v>
       </c>
       <c r="K159">
-        <v>160.5491703335116</v>
+        <v>154.53126546234259</v>
       </c>
       <c r="L159">
-        <v>154.53126546234259</v>
-      </c>
-      <c r="M159">
         <v>132.5953194973531</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
-        <v>158</v>
-      </c>
-      <c r="B160" s="2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
         <v>44661</v>
       </c>
+      <c r="B160">
+        <v>138.89164410940751</v>
+      </c>
       <c r="C160">
-        <v>138.89164410940751</v>
+        <v>164.17966455071121</v>
       </c>
       <c r="D160">
-        <v>164.17966455071121</v>
+        <v>131.875867408434</v>
       </c>
       <c r="E160">
-        <v>131.875867408434</v>
+        <v>120.550875939016</v>
       </c>
       <c r="F160">
-        <v>120.550875939016</v>
+        <v>153.76004498217731</v>
       </c>
       <c r="G160">
-        <v>153.76004498217731</v>
+        <v>172.52586642631789</v>
       </c>
       <c r="H160">
-        <v>172.52586642631789</v>
+        <v>129.4379850350239</v>
       </c>
       <c r="I160">
-        <v>129.4379850350239</v>
+        <v>156.3334860397984</v>
       </c>
       <c r="J160">
-        <v>156.3334860397984</v>
+        <v>168.6563942027357</v>
       </c>
       <c r="K160">
-        <v>168.6563942027357</v>
+        <v>157.5153445061824</v>
       </c>
       <c r="L160">
-        <v>157.5153445061824</v>
-      </c>
-      <c r="M160">
         <v>134.9694801859678</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
-        <v>159</v>
-      </c>
-      <c r="B161" s="2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
         <v>44691</v>
       </c>
+      <c r="B161">
+        <v>141.16260933606861</v>
+      </c>
       <c r="C161">
-        <v>141.16260933606861</v>
+        <v>171.8916849268266</v>
       </c>
       <c r="D161">
-        <v>171.8916849268266</v>
+        <v>131.48553673863049</v>
       </c>
       <c r="E161">
-        <v>131.48553673863049</v>
+        <v>121.2788195762767</v>
       </c>
       <c r="F161">
-        <v>121.2788195762767</v>
+        <v>157.99893202032609</v>
       </c>
       <c r="G161">
-        <v>157.99893202032609</v>
+        <v>182.34487242507649</v>
       </c>
       <c r="H161">
-        <v>182.34487242507649</v>
+        <v>131.0451718146158</v>
       </c>
       <c r="I161">
-        <v>131.0451718146158</v>
+        <v>158.34904961236751</v>
       </c>
       <c r="J161">
-        <v>158.34904961236751</v>
+        <v>173.8012220848552</v>
       </c>
       <c r="K161">
-        <v>173.8012220848552</v>
+        <v>155.52346722969679</v>
       </c>
       <c r="L161">
-        <v>155.52346722969679</v>
-      </c>
-      <c r="M161">
         <v>137.60822194071119</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
-        <v>160</v>
-      </c>
-      <c r="B162" s="2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
         <v>44722</v>
       </c>
+      <c r="B162">
+        <v>142.17330606984211</v>
+      </c>
       <c r="C162">
-        <v>142.17330606984211</v>
+        <v>173.17969123757709</v>
       </c>
       <c r="D162">
-        <v>173.17969123757709</v>
+        <v>131.5769012077514</v>
       </c>
       <c r="E162">
-        <v>131.5769012077514</v>
+        <v>124.0911865287229</v>
       </c>
       <c r="F162">
-        <v>124.0911865287229</v>
+        <v>159.41680363470971</v>
       </c>
       <c r="G162">
-        <v>159.41680363470971</v>
+        <v>177.62812334654609</v>
       </c>
       <c r="H162">
-        <v>177.62812334654609</v>
+        <v>134.96173641603309</v>
       </c>
       <c r="I162">
-        <v>134.96173641603309</v>
+        <v>164.00213866216811</v>
       </c>
       <c r="J162">
-        <v>164.00213866216811</v>
+        <v>178.28669651076751</v>
       </c>
       <c r="K162">
-        <v>178.28669651076751</v>
+        <v>156.60044174068111</v>
       </c>
       <c r="L162">
-        <v>156.60044174068111</v>
-      </c>
-      <c r="M162">
         <v>138.02583138707331</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
-        <v>161</v>
-      </c>
-      <c r="B163" s="2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
         <v>44752</v>
       </c>
+      <c r="B163">
+        <v>144.56485122180359</v>
+      </c>
       <c r="C163">
-        <v>144.56485122180359</v>
+        <v>179.0660797532199</v>
       </c>
       <c r="D163">
-        <v>179.0660797532199</v>
+        <v>130.79443239566291</v>
       </c>
       <c r="E163">
-        <v>130.79443239566291</v>
+        <v>124.2697316218959</v>
       </c>
       <c r="F163">
-        <v>124.2697316218959</v>
+        <v>161.89999187585369</v>
       </c>
       <c r="G163">
-        <v>161.89999187585369</v>
+        <v>180.0584656229546</v>
       </c>
       <c r="H163">
-        <v>180.0584656229546</v>
+        <v>143.93851836570821</v>
       </c>
       <c r="I163">
-        <v>143.93851836570821</v>
+        <v>165.94879017657399</v>
       </c>
       <c r="J163">
-        <v>165.94879017657399</v>
+        <v>186.1020886141487</v>
       </c>
       <c r="K163">
-        <v>186.1020886141487</v>
+        <v>154.77359406375729</v>
       </c>
       <c r="L163">
-        <v>154.77359406375729</v>
-      </c>
-      <c r="M163">
         <v>139.7062215488134</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
-        <v>162</v>
-      </c>
-      <c r="B164" s="2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
         <v>44783</v>
       </c>
+      <c r="B164">
+        <v>145.21585337107501</v>
+      </c>
       <c r="C164">
-        <v>145.21585337107501</v>
+        <v>179.7454230643408</v>
       </c>
       <c r="D164">
-        <v>179.7454230643408</v>
+        <v>131.13637950754949</v>
       </c>
       <c r="E164">
-        <v>131.13637950754949</v>
+        <v>125.7879600904738</v>
       </c>
       <c r="F164">
-        <v>125.7879600904738</v>
+        <v>163.021927273139</v>
       </c>
       <c r="G164">
-        <v>163.021927273139</v>
+        <v>180.07449327961021</v>
       </c>
       <c r="H164">
-        <v>180.07449327961021</v>
+        <v>145.89326794818331</v>
       </c>
       <c r="I164">
-        <v>145.89326794818331</v>
+        <v>168.52953716586441</v>
       </c>
       <c r="J164">
-        <v>168.52953716586441</v>
+        <v>187.47043688978741</v>
       </c>
       <c r="K164">
-        <v>187.47043688978741</v>
+        <v>156.14801605758919</v>
       </c>
       <c r="L164">
-        <v>156.14801605758919</v>
-      </c>
-      <c r="M164">
         <v>140.2852421793047</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
-        <v>163</v>
-      </c>
-      <c r="B165" s="2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
         <v>44814</v>
       </c>
+      <c r="B165">
+        <v>148.23828776047031</v>
+      </c>
       <c r="C165">
-        <v>148.23828776047031</v>
+        <v>188.86269259414499</v>
       </c>
       <c r="D165">
-        <v>188.86269259414499</v>
+        <v>131.7355811654003</v>
       </c>
       <c r="E165">
-        <v>131.7355811654003</v>
+        <v>127.1877036504752</v>
       </c>
       <c r="F165">
-        <v>127.1877036504752</v>
+        <v>166.8417882945941</v>
       </c>
       <c r="G165">
-        <v>166.8417882945941</v>
+        <v>187.28884719014999</v>
       </c>
       <c r="H165">
-        <v>187.28884719014999</v>
+        <v>146.0070572143066</v>
       </c>
       <c r="I165">
-        <v>146.0070572143066</v>
+        <v>172.54631869649049</v>
       </c>
       <c r="J165">
-        <v>172.54631869649049</v>
+        <v>199.38383827605011</v>
       </c>
       <c r="K165">
-        <v>199.38383827605011</v>
+        <v>158.78168014132109</v>
       </c>
       <c r="L165">
-        <v>158.78168014132109</v>
-      </c>
-      <c r="M165">
         <v>141.7644278131709</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
-        <v>164</v>
-      </c>
-      <c r="B166" s="2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
         <v>44844</v>
       </c>
+      <c r="B166">
+        <v>153.33799513729451</v>
+      </c>
       <c r="C166">
-        <v>153.33799513729451</v>
+        <v>202.19824477614421</v>
       </c>
       <c r="D166">
-        <v>202.19824477614421</v>
+        <v>133.43947392993189</v>
       </c>
       <c r="E166">
-        <v>133.43947392993189</v>
+        <v>126.19866599684801</v>
       </c>
       <c r="F166">
-        <v>126.19866599684801</v>
+        <v>167.76209695653401</v>
       </c>
       <c r="G166">
-        <v>167.76209695653401</v>
+        <v>187.311212590541</v>
       </c>
       <c r="H166">
-        <v>187.311212590541</v>
+        <v>147.6404784730743</v>
       </c>
       <c r="I166">
-        <v>147.6404784730743</v>
+        <v>172.32961046796771</v>
       </c>
       <c r="J166">
-        <v>172.32961046796771</v>
+        <v>214.36539139433279</v>
       </c>
       <c r="K166">
-        <v>214.36539139433279</v>
+        <v>162.6399147088058</v>
       </c>
       <c r="L166">
-        <v>162.6399147088058</v>
-      </c>
-      <c r="M166">
         <v>143.70452531608811</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
-        <v>165</v>
-      </c>
-      <c r="B167" s="2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
         <v>44875</v>
       </c>
+      <c r="B167">
+        <v>154.92954109396331</v>
+      </c>
       <c r="C167">
-        <v>154.92954109396331</v>
+        <v>206.14577550561111</v>
       </c>
       <c r="D167">
-        <v>206.14577550561111</v>
+        <v>133.65144935953339</v>
       </c>
       <c r="E167">
-        <v>133.65144935953339</v>
+        <v>127.2550405975816</v>
       </c>
       <c r="F167">
-        <v>127.2550405975816</v>
+        <v>167.9917743130184</v>
       </c>
       <c r="G167">
-        <v>167.9917743130184</v>
+        <v>185.59934405896749</v>
       </c>
       <c r="H167">
-        <v>185.59934405896749</v>
+        <v>148.0348205827656</v>
       </c>
       <c r="I167">
-        <v>148.0348205827656</v>
+        <v>172.28763808153121</v>
       </c>
       <c r="J167">
-        <v>172.28763808153121</v>
+        <v>217.31973711951881</v>
       </c>
       <c r="K167">
-        <v>217.31973711951881</v>
+        <v>162.90411914846959</v>
       </c>
       <c r="L167">
-        <v>162.90411914846959</v>
-      </c>
-      <c r="M167">
         <v>144.72405349864329</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
-        <v>166</v>
-      </c>
-      <c r="B168" s="2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
         <v>44905</v>
       </c>
+      <c r="B168">
+        <v>154.63355447673621</v>
+      </c>
       <c r="C168">
-        <v>154.63355447673621</v>
+        <v>202.6883204119832</v>
       </c>
       <c r="D168">
-        <v>202.6883204119832</v>
+        <v>134.05715694084941</v>
       </c>
       <c r="E168">
-        <v>134.05715694084941</v>
+        <v>127.2730888471317</v>
       </c>
       <c r="F168">
-        <v>127.2730888471317</v>
+        <v>168.77981476066111</v>
       </c>
       <c r="G168">
-        <v>168.77981476066111</v>
+        <v>185.29229308500189</v>
       </c>
       <c r="H168">
-        <v>185.29229308500189</v>
+        <v>148.7215382318069</v>
       </c>
       <c r="I168">
-        <v>148.7215382318069</v>
+        <v>171.9846474764484</v>
       </c>
       <c r="J168">
-        <v>171.9846474764484</v>
+        <v>209.7825082370469</v>
       </c>
       <c r="K168">
-        <v>209.7825082370469</v>
+        <v>162.24181079702049</v>
       </c>
       <c r="L168">
-        <v>162.24181079702049</v>
-      </c>
-      <c r="M168">
         <v>146.25019197380189</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
-        <v>167</v>
-      </c>
-      <c r="B169" s="2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
         <v>44936</v>
       </c>
+      <c r="B169">
+        <v>156.8692825344861</v>
+      </c>
       <c r="C169">
-        <v>156.8692825344861</v>
+        <v>209.29860290268081</v>
       </c>
       <c r="D169">
-        <v>209.29860290268081</v>
+        <v>134.25146809245791</v>
       </c>
       <c r="E169">
-        <v>134.25146809245791</v>
+        <v>127.3688964040667</v>
       </c>
       <c r="F169">
-        <v>127.3688964040667</v>
+        <v>170.13429989547291</v>
       </c>
       <c r="G169">
-        <v>170.13429989547291</v>
+        <v>186.77913290836611</v>
       </c>
       <c r="H169">
-        <v>186.77913290836611</v>
+        <v>149.90524889543769</v>
       </c>
       <c r="I169">
-        <v>149.90524889543769</v>
+        <v>173.40013229474491</v>
       </c>
       <c r="J169">
-        <v>173.40013229474491</v>
+        <v>217.36486926812509</v>
       </c>
       <c r="K169">
-        <v>217.36486926812509</v>
+        <v>162.5752113358358</v>
       </c>
       <c r="L169">
-        <v>162.5752113358358</v>
-      </c>
-      <c r="M169">
         <v>147.29785497050881</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>168</v>
-      </c>
-      <c r="B170" s="2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
         <v>44967</v>
       </c>
+      <c r="B170">
+        <v>160.46323681981389</v>
+      </c>
       <c r="C170">
-        <v>160.46323681981389</v>
+        <v>221.27475722765689</v>
       </c>
       <c r="D170">
-        <v>221.27475722765689</v>
+        <v>135.44598434760269</v>
       </c>
       <c r="E170">
-        <v>135.44598434760269</v>
+        <v>127.25142096850099</v>
       </c>
       <c r="F170">
-        <v>127.25142096850099</v>
+        <v>170.8832392790147</v>
       </c>
       <c r="G170">
-        <v>170.8832392790147</v>
+        <v>189.00548848425501</v>
       </c>
       <c r="H170">
-        <v>189.00548848425501</v>
+        <v>150.02776618137139</v>
       </c>
       <c r="I170">
-        <v>150.02776618137139</v>
+        <v>173.08788025047869</v>
       </c>
       <c r="J170">
-        <v>173.08788025047869</v>
+        <v>233.25329626388449</v>
       </c>
       <c r="K170">
-        <v>233.25329626388449</v>
+        <v>164.52389179928491</v>
       </c>
       <c r="L170">
-        <v>164.52389179928491</v>
-      </c>
-      <c r="M170">
         <v>147.6836970180814</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
-        <v>169</v>
-      </c>
-      <c r="B171" s="2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
         <v>44995</v>
       </c>
+      <c r="B171">
+        <v>163.96089581157659</v>
+      </c>
       <c r="C171">
-        <v>163.96089581157659</v>
+        <v>232.73464059884029</v>
       </c>
       <c r="D171">
-        <v>232.73464059884029</v>
+        <v>135.84141318275121</v>
       </c>
       <c r="E171">
-        <v>135.84141318275121</v>
+        <v>127.2517351545003</v>
       </c>
       <c r="F171">
-        <v>127.2517351545003</v>
+        <v>171.9104230618054</v>
       </c>
       <c r="G171">
-        <v>171.9104230618054</v>
+        <v>191.35662113471349</v>
       </c>
       <c r="H171">
-        <v>191.35662113471349</v>
+        <v>150.79177517465541</v>
       </c>
       <c r="I171">
-        <v>150.79177517465541</v>
+        <v>173.1618814832176</v>
       </c>
       <c r="J171">
-        <v>173.1618814832176</v>
+        <v>245.70108288072089</v>
       </c>
       <c r="K171">
-        <v>245.70108288072089</v>
+        <v>165.8276691417538</v>
       </c>
       <c r="L171">
-        <v>165.8276691417538</v>
-      </c>
-      <c r="M171">
         <v>148.81046595777491</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
-        <v>170</v>
-      </c>
-      <c r="B172" s="2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
         <v>45026</v>
       </c>
+      <c r="B172">
+        <v>166.17609653314221</v>
+      </c>
       <c r="C172">
-        <v>166.17609653314221</v>
+        <v>238.3688496014185</v>
       </c>
       <c r="D172">
-        <v>238.3688496014185</v>
+        <v>135.88680115777819</v>
       </c>
       <c r="E172">
-        <v>135.88680115777819</v>
+        <v>127.2926898750917</v>
       </c>
       <c r="F172">
-        <v>127.2926898750917</v>
+        <v>172.62353255088931</v>
       </c>
       <c r="G172">
-        <v>172.62353255088931</v>
+        <v>193.60044060823381</v>
       </c>
       <c r="H172">
-        <v>193.60044060823381</v>
+        <v>151.159011301265</v>
       </c>
       <c r="I172">
-        <v>151.159011301265</v>
+        <v>173.06417189566781</v>
       </c>
       <c r="J172">
-        <v>173.06417189566781</v>
+        <v>250.41471591189841</v>
       </c>
       <c r="K172">
-        <v>250.41471591189841</v>
+        <v>164.3813637700311</v>
       </c>
       <c r="L172">
-        <v>164.3813637700311</v>
-      </c>
-      <c r="M172">
         <v>150.3844338936789</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
-        <v>171</v>
-      </c>
-      <c r="B173" s="2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
         <v>45056</v>
       </c>
+      <c r="B173">
+        <v>163.64110995708609</v>
+      </c>
       <c r="C173">
-        <v>163.64110995708609</v>
+        <v>228.53833942551219</v>
       </c>
       <c r="D173">
-        <v>228.53833942551219</v>
+        <v>136.2080870224226</v>
       </c>
       <c r="E173">
-        <v>136.2080870224226</v>
+        <v>127.28558100312119</v>
       </c>
       <c r="F173">
-        <v>127.28558100312119</v>
+        <v>171.75298260166991</v>
       </c>
       <c r="G173">
-        <v>171.75298260166991</v>
+        <v>188.7350645600099</v>
       </c>
       <c r="H173">
-        <v>188.7350645600099</v>
+        <v>151.71738193003989</v>
       </c>
       <c r="I173">
-        <v>151.71738193003989</v>
+        <v>173.60531048937389</v>
       </c>
       <c r="J173">
-        <v>173.60531048937389</v>
+        <v>240.37831926169849</v>
       </c>
       <c r="K173">
-        <v>240.37831926169849</v>
+        <v>164.76769869083969</v>
       </c>
       <c r="L173">
-        <v>164.76769869083969</v>
-      </c>
-      <c r="M173">
         <v>149.61850642415351</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
-        <v>172</v>
-      </c>
-      <c r="B174" s="2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
         <v>45087</v>
       </c>
+      <c r="B174">
+        <v>164.0885394441141</v>
+      </c>
       <c r="C174">
-        <v>164.0885394441141</v>
+        <v>229.80968084496641</v>
       </c>
       <c r="D174">
-        <v>229.80968084496641</v>
+        <v>136.18850695153941</v>
       </c>
       <c r="E174">
-        <v>136.18850695153941</v>
+        <v>127.2965830707457</v>
       </c>
       <c r="F174">
-        <v>127.2965830707457</v>
+        <v>173.10929617464009</v>
       </c>
       <c r="G174">
-        <v>173.10929617464009</v>
+        <v>189.32037199526351</v>
       </c>
       <c r="H174">
-        <v>189.32037199526351</v>
+        <v>152.7153269860442</v>
       </c>
       <c r="I174">
-        <v>152.7153269860442</v>
+        <v>175.33360813289761</v>
       </c>
       <c r="J174">
-        <v>175.33360813289761</v>
+        <v>240.47519143667489</v>
       </c>
       <c r="K174">
-        <v>240.47519143667489</v>
+        <v>164.22998533360371</v>
       </c>
       <c r="L174">
-        <v>164.22998533360371</v>
-      </c>
-      <c r="M174">
         <v>150.49182392547189</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
-        <v>173</v>
-      </c>
-      <c r="B175" s="2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
         <v>45117</v>
       </c>
+      <c r="B175">
+        <v>163.42309825019649</v>
+      </c>
       <c r="C175">
-        <v>163.42309825019649</v>
+        <v>228.8848487829525</v>
       </c>
       <c r="D175">
-        <v>228.8848487829525</v>
+        <v>135.13354159796361</v>
       </c>
       <c r="E175">
-        <v>135.13354159796361</v>
+        <v>127.3004307453396</v>
       </c>
       <c r="F175">
-        <v>127.3004307453396</v>
+        <v>175.52510595015309</v>
       </c>
       <c r="G175">
-        <v>175.52510595015309</v>
+        <v>193.37598314182941</v>
       </c>
       <c r="H175">
-        <v>193.37598314182941</v>
+        <v>152.83799586865209</v>
       </c>
       <c r="I175">
-        <v>152.83799586865209</v>
+        <v>179.86168937991971</v>
       </c>
       <c r="J175">
-        <v>179.86168937991971</v>
+        <v>237.0260759794665</v>
       </c>
       <c r="K175">
-        <v>237.0260759794665</v>
+        <v>160.6860262766759</v>
       </c>
       <c r="L175">
-        <v>160.6860262766759</v>
-      </c>
-      <c r="M175">
         <v>151.56324104705581</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
-        <v>174</v>
-      </c>
-      <c r="B176" s="2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
         <v>45148</v>
       </c>
+      <c r="B176">
+        <v>164.46831781822979</v>
+      </c>
       <c r="C176">
-        <v>164.46831781822979</v>
+        <v>233.44139487965339</v>
       </c>
       <c r="D176">
-        <v>233.44139487965339</v>
+        <v>134.8234531378975</v>
       </c>
       <c r="E176">
-        <v>134.8234531378975</v>
+        <v>127.5663417917966</v>
       </c>
       <c r="F176">
-        <v>127.5663417917966</v>
+        <v>178.24105038959911</v>
       </c>
       <c r="G176">
-        <v>178.24105038959911</v>
+        <v>195.32063729687329</v>
       </c>
       <c r="H176">
-        <v>195.32063729687329</v>
+        <v>153.21174225601331</v>
       </c>
       <c r="I176">
-        <v>153.21174225601331</v>
+        <v>187.43318611617201</v>
       </c>
       <c r="J176">
-        <v>187.43318611617201</v>
+        <v>243.40028286925221</v>
       </c>
       <c r="K176">
-        <v>243.40028286925221</v>
+        <v>161.09882734480959</v>
       </c>
       <c r="L176">
-        <v>161.09882734480959</v>
-      </c>
-      <c r="M176">
         <v>152.0772520585796</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
-        <v>175</v>
-      </c>
-      <c r="B177" s="2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
         <v>45179</v>
       </c>
+      <c r="B177">
+        <v>171.3881585509647</v>
+      </c>
       <c r="C177">
-        <v>171.3881585509647</v>
+        <v>257.63300742018231</v>
       </c>
       <c r="D177">
-        <v>257.63300742018231</v>
+        <v>136.12819650712419</v>
       </c>
       <c r="E177">
-        <v>136.12819650712419</v>
+        <v>127.60894690814661</v>
       </c>
       <c r="F177">
-        <v>127.60894690814661</v>
+        <v>181.45179894972549</v>
       </c>
       <c r="G177">
-        <v>181.45179894972549</v>
+        <v>203.38502209846831</v>
       </c>
       <c r="H177">
-        <v>203.38502209846831</v>
+        <v>153.50085377835521</v>
       </c>
       <c r="I177">
-        <v>153.50085377835521</v>
+        <v>189.92402026671459</v>
       </c>
       <c r="J177">
-        <v>189.92402026671459</v>
+        <v>273.41387775983941</v>
       </c>
       <c r="K177">
-        <v>273.41387775983941</v>
+        <v>163.76363344387289</v>
       </c>
       <c r="L177">
-        <v>163.76363344387289</v>
-      </c>
-      <c r="M177">
         <v>153.5591095212541</v>
       </c>
     </row>
